--- a/nmt/астатистика/nmt_186k_saria.xlsx
+++ b/nmt/астатистика/nmt_186k_saria.xlsx
@@ -1,40 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
-  <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <definedNames/>
+  <calcPr/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgAqaVAy/ns461zNipjc3Hb1Mx3JQ=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="526">
-  <si>
-    <t xml:space="preserve">Instructions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Типы проблем</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тип</t>
-  </si>
-  <si>
-    <t xml:space="preserve">%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пожалуйста, помогите нам рассмотреть следующие предложения. 
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="526">
+  <si>
+    <t>Instructions</t>
+  </si>
+  <si>
+    <t>Типы проблем</t>
+  </si>
+  <si>
+    <t>Тип</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Пожалуйста, помогите нам рассмотреть следующие предложения. 
 Эти предложения были взяты из большого источника и переведены с помощью машинного перевода. 
 Справа вы увидите наиболее распространенные проблемы. Выберите OK, если это правильный перевод. 
 Если у вас возникнут какие-либо проблемы, вы можете выбрать Букву (A, B, C, D) из выпадающего меню. 
@@ -42,1567 +38,1567 @@
 Спасибо за помощь!</t>
   </si>
   <si>
-    <t xml:space="preserve">A: гхак ыҟоуп.
+    <t>A: гхак ыҟоуп.
 B: агхақәа рацәоуп, аха 
 аҵакы еилкаауп.
 C: иашаӡам акагьы.</t>
   </si>
   <si>
-    <t xml:space="preserve">OK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Аԥсуа ҳәоу</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Аурыс ҳәоу</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Иашоу/иашамоу</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ахәшьара</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ab word tok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ru word tok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ихьаа хҽыгоуп ан лмыткәма, ахы злымҵыц лгәахы.</t>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Аԥсуа ҳәоу</t>
+  </si>
+  <si>
+    <t>Аурыс ҳәоу</t>
+  </si>
+  <si>
+    <t>Иашоу/иашамоу</t>
+  </si>
+  <si>
+    <t>Ахәшьара</t>
+  </si>
+  <si>
+    <t>ab word tok</t>
+  </si>
+  <si>
+    <t>ru word tok</t>
+  </si>
+  <si>
+    <t>ихьаа хҽыгоуп ан лмыткәма, ахы злымҵыц лгәахы.</t>
   </si>
   <si>
     <t xml:space="preserve"> боль утраты стоит на глазу матери, если ее не обнажат.</t>
   </si>
   <si>
-    <t xml:space="preserve">егьиашаҵәҟьаны, ҩныргәык аҟара аҵанакуа ижәпаӡа игылан акама.</t>
+    <t>егьиашаҵәҟьаны, ҩныргәык аҟара аҵанакуа ижәпаӡа игылан акама.</t>
   </si>
   <si>
     <t xml:space="preserve"> и действительно, прямо из кусочка стояли капанадзе.</t>
   </si>
   <si>
-    <t xml:space="preserve">иҟамкәоу уаҳа шьҭа риааишьак?</t>
+    <t>иҟамкәоу уаҳа шьҭа риааишьак?</t>
   </si>
   <si>
     <t xml:space="preserve"> остановить уже сейчас?</t>
   </si>
   <si>
-    <t xml:space="preserve">нас знызынла иара иҩыза, авоенкомат аҿы аус зуаз аӡәы иахь ҳцалон.</t>
+    <t>нас знызынла иара иҩыза, авоенкомат аҿы аус зуаз аӡәы иахь ҳцалон.</t>
   </si>
   <si>
     <t xml:space="preserve"> потом мы ездили к нему по соседству со своим другом, вокзалом.</t>
   </si>
   <si>
-    <t xml:space="preserve">ахәда ҭхәаара, ахәда ҵҟәашәаара дигәаланаршәеит бзиа иибоз аԥҳәызба.</t>
+    <t>ахәда ҭхәаара, ахәда ҵҟәашәаара дигәаланаршәеит бзиа иибоз аԥҳәызба.</t>
   </si>
   <si>
     <t xml:space="preserve"> загривок шейного хохота, завернувшись по нагому телу, вспомнил о любимой девушке.</t>
   </si>
   <si>
-    <t xml:space="preserve">бара быччон сара амца скын</t>
+    <t>бара быччон сара амца скын</t>
   </si>
   <si>
     <t xml:space="preserve"> ты смеялся, я сказал тебе</t>
   </si>
   <si>
-    <t xml:space="preserve">уи амш еиқәаҵәа аҽны, аԥсуа шәҟәыҩҩцәақәак еиқәырҽаҽаз аус еиқәаҵәа рзымхазаап.</t>
+    <t>уи амш еиқәаҵәа аҽны, аԥсуа шәҟәыҩҩцәақәак еиқәырҽаҽаз аус еиқәаҵәа рзымхазаап.</t>
   </si>
   <si>
     <t xml:space="preserve"> в тот день некоторые абхазские писатели, оказывается, подверглись испытанию.</t>
   </si>
   <si>
-    <t xml:space="preserve">сыԥсы уаԥшәмахарц уаашьҭума?!</t>
+    <t>сыԥсы уаԥшәмахарц уаашьҭума?!</t>
   </si>
   <si>
     <t xml:space="preserve"> разве ты оставишь души моей?!</t>
   </si>
   <si>
-    <t xml:space="preserve">ҳаинасыԥымхаӡаргьы, ма еиҩызцәаҵас ҳаицәымӡырц.</t>
+    <t>ҳаинасыԥымхаӡаргьы, ма еиҩызцәаҵас ҳаицәымӡырц.</t>
   </si>
   <si>
     <t xml:space="preserve"> наверняка, мы не потеряем, а потеряем дружбу.</t>
   </si>
   <si>
-    <t xml:space="preserve">аиааира аргатәуп аԥшӡара.</t>
+    <t>аиааира аргатәуп аԥшӡара.</t>
   </si>
   <si>
     <t xml:space="preserve"> одурачить красоту.</t>
   </si>
   <si>
-    <t xml:space="preserve">иара атәыла ду аҳәаақәагьы уажә иаазқәылаз ар аваӷӷа иавагылоуп, уахгьы- ҽынгьы ирыхьчоит.</t>
+    <t>иара атәыла ду аҳәаақәагьы уажә иаазқәылаз ар аваӷӷа иавагылоуп, уахгьы- ҽынгьы ирыхьчоит.</t>
   </si>
   <si>
     <t xml:space="preserve"> и пределы великой страны встали рядом с кругом, стоящим за ним ночью и днем.</t>
   </si>
   <si>
-    <t xml:space="preserve">сымра узымгылои?</t>
+    <t>сымра узымгылои?</t>
   </si>
   <si>
     <t xml:space="preserve"> угнетаешь ли ты меня?</t>
   </si>
   <si>
-    <t xml:space="preserve">џьоукы иашҭа инҭыс- ааҭысны ицеит, иҳәеит.</t>
+    <t>џьоукы иашҭа инҭыс- ааҭысны ицеит, иҳәеит.</t>
   </si>
   <si>
     <t xml:space="preserve"> кто- то простился к нему, сказал</t>
   </si>
   <si>
-    <t xml:space="preserve">дунеик далсуеит зынӡа иҿыцыз, ацаԥха анидыркыз уажәоуп.</t>
+    <t>дунеик далсуеит зынӡа иҿыцыз, ацаԥха анидыркыз уажәоуп.</t>
   </si>
   <si>
     <t xml:space="preserve"> один мир удалит какой- то новый, узнав ключ.</t>
   </si>
   <si>
-    <t xml:space="preserve">зыбӷа хәаны аиа назго ахәыҷы</t>
+    <t>зыбӷа хәаны аиа назго ахәыҷы</t>
   </si>
   <si>
     <t xml:space="preserve"> ребенок, живший на плечи</t>
   </si>
   <si>
-    <t xml:space="preserve">мыџьа ездора диԥырҵит.</t>
+    <t>мыџьа ездора диԥырҵит.</t>
   </si>
   <si>
     <t xml:space="preserve"> и укрылся э езекии.</t>
   </si>
   <si>
-    <t xml:space="preserve">шьҭа уаҳагьы ԥсыхәа рыманы иҟаӡамызт.</t>
+    <t>шьҭа уаҳагьы ԥсыхәа рыманы иҟаӡамызт.</t>
   </si>
   <si>
     <t xml:space="preserve"> теперь они никогда не были в восторге.</t>
   </si>
   <si>
-    <t xml:space="preserve">убас, иамуит ачымазара бааԥсы</t>
+    <t>убас, иамуит ачымазара бааԥсы</t>
   </si>
   <si>
     <t xml:space="preserve"> так, не удалось предотвратить серьезные болезни</t>
   </si>
   <si>
-    <t xml:space="preserve">дшааиуаз шьабаҭ иаԥхьа даагылан, даахырхәеит.</t>
+    <t>дшааиуаз шьабаҭ иаԥхьа даагылан, даахырхәеит.</t>
   </si>
   <si>
     <t xml:space="preserve"> и шабат был правнук актрисы.</t>
   </si>
   <si>
-    <t xml:space="preserve">лара далылхит аҩбатәи арԥызба ацҳа- кнаҳаҿ илбаз, илгәаԥхаз.</t>
+    <t>лара далылхит аҩбатәи арԥызба ацҳа- кнаҳаҿ илбаз, илгәаԥхаз.</t>
   </si>
   <si>
     <t xml:space="preserve"> она выбрала и понравилась, увидев во втором доме мостового.</t>
   </si>
   <si>
-    <t xml:space="preserve">аџьанџьыхәа, ақалмышьрҩа, акаҷыҷ абыржә иааҿухызшәа.</t>
+    <t>аџьанџьыхәа, ақалмышьрҩа, акаҷыҷ абыржә иааҿухызшәа.</t>
   </si>
   <si>
     <t xml:space="preserve"> карджик, сваренный в молоке козленок, гебжалия</t>
   </si>
   <si>
-    <t xml:space="preserve">ҳразҟы иатәын!</t>
+    <t>ҳразҟы иатәын!</t>
   </si>
   <si>
     <t xml:space="preserve"> простосердечно нужно было!</t>
   </si>
   <si>
-    <t xml:space="preserve">ари дзқәымгәыӷуаз насыԥ дуун лара рзы.</t>
+    <t>ари дзқәымгәыӷуаз насыԥ дуун лара рзы.</t>
   </si>
   <si>
     <t xml:space="preserve"> эта идея была не нова.</t>
   </si>
   <si>
-    <t xml:space="preserve">ҳашьхақәа зырԥшӡо</t>
+    <t>ҳашьхақәа зырԥшӡо</t>
   </si>
   <si>
     <t xml:space="preserve"> драматичный</t>
   </si>
   <si>
-    <t xml:space="preserve">исзымдыруа аҳкәажәк дзаҳәшьада, дзыԥҳәысда?</t>
+    <t>исзымдыруа аҳкәажәк дзаҳәшьада, дзыԥҳәысда?</t>
   </si>
   <si>
     <t xml:space="preserve"> без какой- то царицы, которым я не знаю, кто она?</t>
   </si>
   <si>
-    <t xml:space="preserve">иаци жәаци аигәыцхәратә терминқәа анысҵон, иахьа</t>
+    <t>иаци жәаци аигәыцхәратә терминқәа анысҵон, иахьа</t>
   </si>
   <si>
     <t xml:space="preserve"> вчера я писал еще с соседним терминалом</t>
   </si>
   <si>
-    <t xml:space="preserve">быхьӡ ҳәаны есымша иаҿуп сгәы аҿыҭра</t>
+    <t>быхьӡ ҳәаны есымша иаҿуп сгәы аҿыҭра</t>
   </si>
   <si>
     <t xml:space="preserve"> называешь меня по творенью</t>
   </si>
   <si>
-    <t xml:space="preserve">еилаҳанто ижәлаз ихәыцрақәа рҿы уажәы- уажә ихы дазҵаауеит</t>
+    <t>еилаҳанто ижәлаз ихәыцрақәа рҿы уажәы- уажә ихы дазҵаауеит</t>
   </si>
   <si>
     <t xml:space="preserve"> но в раздумье спрашивает себя</t>
   </si>
   <si>
-    <t xml:space="preserve">ахаан имажәрызшәа адунеи аҽарҿыцуан, саргьы, маалықьк иеиԥш, хшла скәабан.</t>
+    <t>ахаан имажәрызшәа адунеи аҽарҿыцуан, саргьы, маалықьк иеиԥш, хшла скәабан.</t>
   </si>
   <si>
     <t xml:space="preserve"> изменялся бы и я, как ангел, приготовленный.</t>
   </si>
   <si>
-    <t xml:space="preserve">уи лмыткәма далоуп сызқәыӡыз, хьӡыкгьы лҳәоит- илҳәаӡом.</t>
+    <t>уи лмыткәма далоуп сызқәыӡыз, хьӡыкгьы лҳәоит- илҳәаӡом.</t>
   </si>
   <si>
     <t xml:space="preserve"> он никто из нее не расточил, ни одно имя ему говорит.</t>
   </si>
   <si>
-    <t xml:space="preserve">дсыватәоуп бырфын- цахан, далҵызшәа алакә.</t>
+    <t>дсыватәоуп бырфын- цахан, далҵызшәа алакә.</t>
   </si>
   <si>
     <t xml:space="preserve"> равнины из шелка- цабал, и умрет конь.</t>
   </si>
   <si>
-    <t xml:space="preserve">амшын цәқәырԥон аҭра иазымкуа, ашьха иқәсуан афырҭын</t>
+    <t>амшын цәқәырԥон аҭра иазымкуа, ашьха иқәсуан афырҭын</t>
   </si>
   <si>
     <t xml:space="preserve"> море волновалось, когдаторский</t>
   </si>
   <si>
-    <t xml:space="preserve">аформат акәзаргьы иахьатәи аԥсуа газеҭқәа рформат аасҭа ҩынтә рыла еиҳан.</t>
+    <t>аформат акәзаргьы иахьатәи аԥсуа газеҭқәа рформат аасҭа ҩынтә рыла еиҳан.</t>
   </si>
   <si>
     <t xml:space="preserve"> формат даже в два раза больше, чем формат современной абхазской газеты.</t>
   </si>
   <si>
-    <t xml:space="preserve">уаҩы фархьк, ибз ихаанханы адәы дықәуп ззырҳәоз аӡәы иакәын.</t>
+    <t>уаҩы фархьк, ибз ихаанханы адәы дықәуп ззырҳәоз аӡәы иакәын.</t>
   </si>
   <si>
     <t xml:space="preserve"> человек, именем фарер, который был на поле боя.</t>
   </si>
   <si>
-    <t xml:space="preserve">алаҳақәа еиҟәшьшьа, ҵаҟа икаҭәоит ацха ирылҵәҵәаз амахәҭақәа ирхьыкәкәа.</t>
+    <t>алаҳақәа еиҟәшьшьа, ҵаҟа икаҭәоит ацха ирылҵәҵәаз амахәҭақәа ирхьыкәкәа.</t>
   </si>
   <si>
     <t xml:space="preserve"> расколоченные смоковницы, низвергающиеся от медоносных ветвей.</t>
   </si>
   <si>
-    <t xml:space="preserve">ихынҳәырц зҭахымгьы, зыҽзырххо, амҿеиԥш ҳгәыӷрақәа рхыхызаап!</t>
+    <t>ихынҳәырц зҭахымгьы, зыҽзырххо, амҿеиԥш ҳгәыӷрақәа рхыхызаап!</t>
   </si>
   <si>
     <t xml:space="preserve"> и те, которые не вернутся, будут мучиться из- за деревянного дома.</t>
   </si>
   <si>
-    <t xml:space="preserve">хыхь агазеҭ аусзуҩцәа зқәымақаруагьы дара роуп.</t>
+    <t>хыхь агазеҭ аусзуҩцәа зқәымақаруагьы дара роуп.</t>
   </si>
   <si>
     <t xml:space="preserve"> представители вышеупомянутых товарищей.</t>
   </si>
   <si>
-    <t xml:space="preserve">акы рыԥсадгьыл аҿы иҟан, уи иахьчон, мамзаргьы ус ргәы иаанагон</t>
+    <t>акы рыԥсадгьыл аҿы иҟан, уи иахьчон, мамзаргьы ус ргәы иаанагон</t>
   </si>
   <si>
     <t xml:space="preserve"> одни были на родине, а другие думали</t>
   </si>
   <si>
-    <t xml:space="preserve">ирҳәоит, еиҳараӡак уи дицәшәаноуп арҭ аҩышықәсак ҭабзала дналҵны агаҿаҟа дзымылбаауа ҳәа.</t>
+    <t>ирҳәоит, еиҳараӡак уи дицәшәаноуп арҭ аҩышықәсак ҭабзала дналҵны агаҿаҟа дзымылбаауа ҳәа.</t>
   </si>
   <si>
     <t xml:space="preserve"> и говорят, особенно его бойся, ибо он не может вышел из любовника, потому что приблизилось к берегу.</t>
   </si>
   <si>
-    <t xml:space="preserve">ажәҩан ахуҳәа илагоит.</t>
+    <t>ажәҩан ахуҳәа илагоит.</t>
   </si>
   <si>
     <t xml:space="preserve"> через небо проходит.</t>
   </si>
   <si>
-    <t xml:space="preserve">аибашьрахьтә дхынҳәит, имахәар ихәда ихшьны.</t>
+    <t>аибашьрахьтә дхынҳәит, имахәар ихәда ихшьны.</t>
   </si>
   <si>
     <t xml:space="preserve"> и возвратился от войны, взял его за руку.</t>
   </si>
   <si>
-    <t xml:space="preserve">угәы аздырҳап.</t>
+    <t>угәы аздырҳап.</t>
   </si>
   <si>
     <t xml:space="preserve"> безвкусно.</t>
   </si>
   <si>
-    <t xml:space="preserve">хыхь акы анлеиуаз, ианыхьшәашәараз рырахә зегьы ара иакуан.</t>
+    <t>хыхь акы анлеиуаз, ианыхьшәашәараз рырахә зегьы ара иакуан.</t>
   </si>
   <si>
     <t xml:space="preserve"> когда он сеял, случилось, что когда они шли, то закрывали весь скот.</t>
   </si>
   <si>
-    <t xml:space="preserve">ахьымӡӷ еиԥш акраамҭа акы даҵан, уи иахьӡызгьы абри акәын аҵарҭыша.</t>
+    <t>ахьымӡӷ еиԥш акраамҭа акы даҵан, уи иахьӡызгьы абри акәын аҵарҭыша.</t>
   </si>
   <si>
     <t xml:space="preserve"> он знал очень много, и назывался так далеко.</t>
   </si>
   <si>
-    <t xml:space="preserve">хоран, иааџьоушьартә еиԥш, акырӡа ибеиан хьыла.</t>
+    <t>хоран, иааџьоушьартә еиԥш, акырӡа ибеиан хьыла.</t>
   </si>
   <si>
     <t xml:space="preserve"> хоран, восхитительно диван.</t>
   </si>
   <si>
-    <t xml:space="preserve">ишәасҳәараны иҟоузеи!</t>
+    <t>ишәасҳәараны иҟоузеи!</t>
   </si>
   <si>
     <t xml:space="preserve"> что уж говорить!</t>
   </si>
   <si>
-    <t xml:space="preserve">абри ауаҩ дуаҩызар иара арольқәа рацәаӡаны имоуп.</t>
+    <t>абри ауаҩ дуаҩызар иара арольқәа рацәаӡаны имоуп.</t>
   </si>
   <si>
     <t xml:space="preserve"> если этот человек, у него есть множество ролей.</t>
   </si>
   <si>
-    <t xml:space="preserve">сыблақәа ҭырхаха сгылан баша, слаԥшҵашәара ԥшакгьы сыннадеит.</t>
+    <t>сыблақәа ҭырхаха сгылан баша, слаԥшҵашәара ԥшакгьы сыннадеит.</t>
   </si>
   <si>
     <t xml:space="preserve"> я взглянул, и вот, конь белый, и на нем всадник, имеющий меру в руке своей.</t>
   </si>
   <si>
-    <t xml:space="preserve">иабаҟоу сырҿиаратә усура?</t>
+    <t>иабаҟоу сырҿиаратә усура?</t>
   </si>
   <si>
     <t xml:space="preserve"> где ваша творческая деятельность?</t>
   </si>
   <si>
-    <t xml:space="preserve">ҿыҭыбжьҵас сгәы иқәыҩуеит аԥсуаа рыбжьы</t>
+    <t>ҿыҭыбжьҵас сгәы иқәыҩуеит аԥсуаа рыбжьы</t>
   </si>
   <si>
     <t xml:space="preserve"> как слышу молитву, на память абхазов</t>
   </si>
   <si>
-    <t xml:space="preserve">пицунда амш ицаз аԥсыжәҩан икыдлеит, шьҭа аеҵәеиԥш бхынҳәы.</t>
+    <t>пицунда амш ицаз аԥсыжәҩан икыдлеит, шьҭа аеҵәеиԥш бхынҳәы.</t>
   </si>
   <si>
     <t xml:space="preserve"> в пицунду низверглась покойник, и уже смертельно возвращайся.</t>
   </si>
   <si>
-    <t xml:space="preserve">еиӷырҟаны иказыжьда ҩыџьа ҳашьцәа бзиахәқәа?</t>
+    <t>еиӷырҟаны иказыжьда ҩыџьа ҳашьцәа бзиахәқәа?</t>
   </si>
   <si>
     <t xml:space="preserve"> прощались с ним два прекрасных брата?</t>
   </si>
   <si>
-    <t xml:space="preserve">аамҭа акыр аҽаԥсаххьеит, ҳуаажәларра адемократизациа азурахьы ахы хоуп.</t>
+    <t>аамҭа акыр аҽаԥсаххьеит, ҳуаажәларра адемократизациа азурахьы ахы хоуп.</t>
   </si>
   <si>
     <t xml:space="preserve"> время уже изменилось, мы готовы к демобилизации нашего общества.</t>
   </si>
   <si>
-    <t xml:space="preserve">аха иахьнеиз имаагылакәа ихынҳәит рышьҭахьҟа.</t>
+    <t>аха иахьнеиз имаагылакәа ихынҳәит рышьҭахьҟа.</t>
   </si>
   <si>
     <t xml:space="preserve"> но они вернулись назад.</t>
   </si>
   <si>
-    <t xml:space="preserve">ашьжьымҭан шаанӡа снеит агараж аҟны.</t>
+    <t>ашьжьымҭан шаанӡа снеит агараж аҟны.</t>
   </si>
   <si>
     <t xml:space="preserve"> проснувшись рано, в гараж.</t>
   </si>
   <si>
-    <t xml:space="preserve">алитератураҟны зыҽԥызшәо аҿар ыҟоуп, иагьмаҷҩым, ирацәаҩынгьы ҳрықәгәыӷуеит.</t>
+    <t>алитератураҟны зыҽԥызшәо аҿар ыҟоуп, иагьмаҷҩым, ирацәаҩынгьы ҳрықәгәыӷуеит.</t>
   </si>
   <si>
     <t xml:space="preserve"> в литературе говорится, что молодежи все меньше и меньше.</t>
   </si>
   <si>
-    <t xml:space="preserve">избахуаз, ди?</t>
+    <t>избахуаз, ди?</t>
   </si>
   <si>
     <t xml:space="preserve"> кто видел, что родился?</t>
   </si>
   <si>
-    <t xml:space="preserve">абаақәа, шәрызхәыцла, ҳа иҳамбо рбоит, абаақәа, ҳаидгылап, ма иҵегь ҳбылуеит.</t>
+    <t>абаақәа, шәрызхәыцла, ҳа иҳамбо рбоит, абаақәа, ҳаидгылап, ма иҵегь ҳбылуеит.</t>
   </si>
   <si>
     <t xml:space="preserve"> размышляйте над башню, ведь они видят, что видят нас, крепости, установить или что- то еще.</t>
   </si>
   <si>
-    <t xml:space="preserve">сара сзыцәшәо ҳәа акгьы сымам.</t>
+    <t>сара сзыцәшәо ҳәа акгьы сымам.</t>
   </si>
   <si>
     <t xml:space="preserve"> у меня нет никаких оснований сильно об этом переживать.</t>
   </si>
   <si>
-    <t xml:space="preserve">сааԥсацәеит сара амҩақәа сшырныз</t>
+    <t>сааԥсацәеит сара амҩақәа сшырныз</t>
   </si>
   <si>
     <t xml:space="preserve"> уснул, но я иду разбудить его.</t>
   </si>
   <si>
-    <t xml:space="preserve">нас уаҳа ажәак самҳәаӡакәа, сара иҟасҵашаз иара дҩагыланы иҟаиҵон.</t>
+    <t>нас уаҳа ажәак самҳәаӡакәа, сара иҟасҵашаз иара дҩагыланы иҟаиҵон.</t>
   </si>
   <si>
     <t xml:space="preserve"> и, не найдя ни слова, он встал и сделал.</t>
   </si>
   <si>
-    <t xml:space="preserve">иԥсы шҭаз арахь даақәлеит, ажәакала</t>
+    <t>иԥсы шҭаз арахь даақәлеит, ажәакала</t>
   </si>
   <si>
     <t xml:space="preserve"> и пошел сюда в его жизнь, словом</t>
   </si>
   <si>
-    <t xml:space="preserve">игалоит рыбжьала, ахаҳәқәа кәабами ршьала.</t>
+    <t>игалоит рыбжьала, ахаҳәқәа кәабами ршьала.</t>
   </si>
   <si>
     <t xml:space="preserve"> не слышится мерный стук в руке своей.</t>
   </si>
   <si>
-    <t xml:space="preserve">амеханизм, аџыр.</t>
+    <t>амеханизм, аџыр.</t>
   </si>
   <si>
     <t xml:space="preserve"> механизм, сталь.</t>
   </si>
   <si>
-    <t xml:space="preserve">иарбан усзаалак угәы- уԥсы рыхәҭак анузаламҵа иара ианымԥшыр ауам, игәыдахоит, иԥсыдахоит.</t>
+    <t>иарбан усзаалак угәы- уԥсы рыхәҭак анузаламҵа иара ианымԥшыр ауам, игәыдахоит, иԥсыдахоит.</t>
   </si>
   <si>
     <t xml:space="preserve"> отложив всякую часть душу свою, понесет ее, исчезающий.</t>
   </si>
   <si>
-    <t xml:space="preserve">дад, машәыр шәмыхьааит, машәыр!</t>
+    <t>дад, машәыр шәмыхьааит, машәыр!</t>
   </si>
   <si>
     <t xml:space="preserve"> вы не случайно.</t>
   </si>
   <si>
-    <t xml:space="preserve">уи аҟны мацараҿгьы иаанымҿаст</t>
+    <t>уи аҟны мацараҿгьы иаанымҿаст</t>
   </si>
   <si>
     <t xml:space="preserve"> безотказный</t>
   </si>
   <si>
-    <t xml:space="preserve">нас, уа узҿи?</t>
+    <t>нас, уа узҿи?</t>
   </si>
   <si>
     <t xml:space="preserve"> куда это ты хочешь?</t>
   </si>
   <si>
-    <t xml:space="preserve">сара саб аӡәгьы дицәшәаӡом.</t>
+    <t>сара саб аӡәгьы дицәшәаӡом.</t>
   </si>
   <si>
     <t xml:space="preserve"> мой отец не боится никого.</t>
   </si>
   <si>
-    <t xml:space="preserve">амшын аҽарыцқьарц, уажә ацәқәырԥ ирыҵгәода?</t>
+    <t>амшын аҽарыцқьарц, уажә ацәқәырԥ ирыҵгәода?</t>
   </si>
   <si>
     <t xml:space="preserve"> разве можно будоражить море, разве сейчас кто буревает его?</t>
   </si>
   <si>
-    <t xml:space="preserve">усҟан смилициан сыҟан.</t>
+    <t>усҟан смилициан сыҟан.</t>
   </si>
   <si>
     <t xml:space="preserve"> тогда я был смиллиан.</t>
   </si>
   <si>
-    <t xml:space="preserve">исхашҭран сыҟам игәылак исеиҳәаз дҵәуо, дицны дааиуан иԥҳәыс</t>
+    <t>исхашҭран сыҟам игәылак исеиҳәаз дҵәуо, дицны дааиуан иԥҳәыс</t>
   </si>
   <si>
     <t xml:space="preserve"> не буду забывать, что он говорил мне в сердце своем и в горе, а жена его</t>
   </si>
   <si>
-    <t xml:space="preserve">абра даҽа ниуанскгьы азгәаҭатәуп ҳәа исыԥхьаӡоит.</t>
+    <t>абра даҽа ниуанскгьы азгәаҭатәуп ҳәа исыԥхьаӡоит.</t>
   </si>
   <si>
     <t xml:space="preserve"> я считаю, что здесь нианск.</t>
   </si>
   <si>
-    <t xml:space="preserve">атанк атәы здыруазгьы дыҟан, иаарҳәны ирҿаҳаргылеит.</t>
+    <t>атанк атәы здыруазгьы дыҟан, иаарҳәны ирҿаҳаргылеит.</t>
   </si>
   <si>
     <t xml:space="preserve"> хотя и был знаком с танком, мы повернули их спиной.</t>
   </si>
   <si>
-    <t xml:space="preserve">ишалшо, ишауа.</t>
+    <t>ишалшо, ишауа.</t>
   </si>
   <si>
     <t xml:space="preserve"> вовсюкать.</t>
   </si>
   <si>
-    <t xml:space="preserve">знык рхыршьапы изықәгыланы иҟалар, уаҳа крылҭахызма?</t>
+    <t>знык рхыршьапы изықәгыланы иҟалар, уаҳа крылҭахызма?</t>
   </si>
   <si>
     <t xml:space="preserve"> что же, если однажды они расстанутся?</t>
   </si>
   <si>
-    <t xml:space="preserve">машьқәалеи гәаԥханашьи ракәын абжьы ахьгаз иԥшуа иахьгылаз иаанханы иҟаз.</t>
+    <t>машьқәалеи гәаԥханашьи ракәын абжьы ахьгаз иԥшуа иахьгылаз иаанханы иҟаз.</t>
   </si>
   <si>
     <t xml:space="preserve"> зажженными свечами были те, кто следил за голосом.</t>
   </si>
   <si>
-    <t xml:space="preserve">ус иахьынӡаиаз, иахьынӡаԥшыз здырхуада!</t>
+    <t>ус иахьынӡаиаз, иахьынӡаԥшыз здырхуада!</t>
   </si>
   <si>
     <t xml:space="preserve"> насколько это было возможно!</t>
   </si>
   <si>
-    <t xml:space="preserve">аԥхын, ҭагалан, аҟабақ акаҳара, баҭа дҿыхеит.</t>
+    <t>аԥхын, ҭагалан, аҟабақ акаҳара, баҭа дҿыхеит.</t>
   </si>
   <si>
     <t xml:space="preserve"> летом, осенью, бывало, взлетел в башен.</t>
   </si>
   <si>
-    <t xml:space="preserve">ара акы уацәымшәан!</t>
+    <t>ара акы уацәымшәан!</t>
   </si>
   <si>
     <t xml:space="preserve"> здесь ничего не бойтесь!</t>
   </si>
   <si>
-    <t xml:space="preserve">еиуеиԥшым амзызқәа ирыхҟьаны, даҽа бызшәақәак рыла акәын алитература амаҵ шыруаз.</t>
+    <t>еиуеиԥшым амзызқәа ирыхҟьаны, даҽа бызшәақәак рыла акәын алитература амаҵ шыруаз.</t>
   </si>
   <si>
     <t xml:space="preserve"> по тем или иным причинам они служили в литературе лишь на нескольких языках.</t>
   </si>
   <si>
-    <t xml:space="preserve">урҭ ԥарԥалыкьӡам шәаџьҳәара руеит, ҳасабицәа рышәҵоуп.</t>
+    <t>урҭ ԥарԥалыкьӡам шәаџьҳәара руеит, ҳасабицәа рышәҵоуп.</t>
   </si>
   <si>
     <t xml:space="preserve"> они не разбивают бабочки, моторизованы.</t>
   </si>
   <si>
-    <t xml:space="preserve">ауха ақыҭаҿы чарак ахь дцар даара иҭахын.</t>
+    <t>ауха ақыҭаҿы чарак ахь дцар даара иҭахын.</t>
   </si>
   <si>
     <t xml:space="preserve"> он очень хотел пойти в сражение в селе чума.</t>
   </si>
   <si>
-    <t xml:space="preserve">бызцәымӷугьы изааумган!</t>
+    <t>бызцәымӷугьы изааумган!</t>
   </si>
   <si>
     <t xml:space="preserve"> и ненавидя тебя!</t>
   </si>
   <si>
-    <t xml:space="preserve">ус иҟалеит аҵыхәтәантәи аамҭақәа рзгьы.</t>
+    <t>ус иҟалеит аҵыхәтәантәи аамҭақәа рзгьы.</t>
   </si>
   <si>
     <t xml:space="preserve"> так произошло и в последние дни.</t>
   </si>
   <si>
-    <t xml:space="preserve">абри абард раатәуп, кәыҿба!</t>
+    <t>абри абард раатәуп, кәыҿба!</t>
   </si>
   <si>
     <t xml:space="preserve"> вот это у тебя, кукуна.</t>
   </si>
   <si>
-    <t xml:space="preserve">асахьаҭыхҩы излеиҳәаз ала арҭ абнауаа қәылара ицеит</t>
+    <t>асахьаҭыхҩы излеиҳәаз ала арҭ абнауаа қәылара ицеит</t>
   </si>
   <si>
     <t xml:space="preserve"> как рассказывает художник, эти леса пошли на нападение</t>
   </si>
   <si>
-    <t xml:space="preserve">аҩны уан дузыԥшуп хәа исеиҳәаз ажәақәа сгәы ишықәыҩуаз, азауад ахь схы насырхеит.</t>
+    <t>аҩны уан дузыԥшуп хәа исеиҳәаз ажәақәа сгәы ишықәыҩуаз, азауад ахь схы насырхеит.</t>
   </si>
   <si>
     <t xml:space="preserve"> с нетерпением весь дом, когда мы с ним говорили слова, обратился к заводу.</t>
   </si>
   <si>
-    <t xml:space="preserve">адгьыл ачашәхәшҭаара афҩы ахын, уигьы аԥышәқәа абӷажә рықәтәаны ажәҩан иаҵаԥшуан</t>
+    <t>адгьыл ачашәхәшҭаара афҩы ахын, уигьы аԥышәқәа абӷажә рықәтәаны ажәҩан иаҵаԥшуан</t>
   </si>
   <si>
     <t xml:space="preserve"> предпочтительный очаг земли, и закрепивший двери гроба.</t>
   </si>
   <si>
-    <t xml:space="preserve">ма игәамԥхакәа аҽԥныҳәа сиҭар?</t>
+    <t>ма игәамԥхакәа аҽԥныҳәа сиҭар?</t>
   </si>
   <si>
     <t xml:space="preserve"> или он может упрекнуть меня?</t>
   </si>
   <si>
-    <t xml:space="preserve">саргьы сара соуп, сыблит, аха ара, сара сыдагьы, шаҟаҩ лалабыл ицаз удыруама?!</t>
+    <t>саргьы сара соуп, сыблит, аха ара, сара сыдагьы, шаҟаҩ лалабыл ицаз удыруама?!</t>
   </si>
   <si>
     <t xml:space="preserve"> я тоже, ты сожгли меня, но ты знаешь, что я соперник?!</t>
   </si>
   <si>
-    <t xml:space="preserve">аха уанӡа, аха, аха уанӡа, сылаԥш сзылҟәыгом араҟа нцәахшак.</t>
+    <t>аха уанӡа, аха, аха уанӡа, сылаԥш сзылҟәыгом араҟа нцәахшак.</t>
   </si>
   <si>
     <t xml:space="preserve"> не рани, но до того, как ты умрешь, там я покажу тебе боже.</t>
   </si>
   <si>
-    <t xml:space="preserve">уеизгьы, адамыр, хшыҩҵак хадас иамоузеи уажәы узҿу аҩымҭа?</t>
+    <t>уеизгьы, адамыр, хшыҩҵак хадас иамоузеи уажәы узҿу аҩымҭа?</t>
   </si>
   <si>
     <t xml:space="preserve"> тем не менее, что ты работаешь над прочитанным?</t>
   </si>
   <si>
-    <t xml:space="preserve">мзауҷ ачараҿ криуан, аҭаца ԥшӡа дибеит.</t>
+    <t>мзауҷ ачараҿ криуан, аҭаца ԥшӡа дибеит.</t>
   </si>
   <si>
     <t xml:space="preserve"> он обедал на свадьбе и увидел красивую невесту.</t>
   </si>
   <si>
-    <t xml:space="preserve">егьи аиҳабы ус дыҟамызт, иаҳа дҭынчын, арҭ рҭыӡшәа даламызт.</t>
+    <t>егьи аиҳабы ус дыҟамызт, иаҳа дҭынчын, арҭ рҭыӡшәа даламызт.</t>
   </si>
   <si>
     <t xml:space="preserve"> на слуху у другого он был совсем иначе, и он не входил в них.</t>
   </si>
   <si>
-    <t xml:space="preserve">аангылашьа сымам, саангыларгьы уахык схыҵуам, сыԥсуеит.</t>
+    <t>аангылашьа сымам, саангыларгьы уахык схыҵуам, сыԥсуеит.</t>
   </si>
   <si>
     <t xml:space="preserve"> остаться не могу, даже однажды ночью я умру.</t>
   </si>
   <si>
-    <t xml:space="preserve">уи иаҳа деицәоуп.</t>
+    <t>уи иаҳа деицәоуп.</t>
   </si>
   <si>
     <t xml:space="preserve"> а с ним еще хуже.</t>
   </si>
   <si>
-    <t xml:space="preserve">ишдыру еиԥш, ажәлар шамахамзар рышәҟәыҩҩцәа ирыххәыцӡом.</t>
+    <t>ишдыру еиԥш, ажәлар шамахамзар рышәҟәыҩҩцәа ирыххәыцӡом.</t>
   </si>
   <si>
     <t xml:space="preserve"> ведь обычно люди обычно не задумываются о своих писателем.</t>
   </si>
   <si>
-    <t xml:space="preserve">срецензиа сгәы ҭнаҟьоит ус иамам ҳәашьа, аҵысгьы схылԥа наҟ инҭыԥраа ицеит.</t>
+    <t>срецензиа сгәы ҭнаҟьоит ус иамам ҳәашьа, аҵысгьы схылԥа наҟ инҭыԥраа ицеит.</t>
   </si>
   <si>
     <t xml:space="preserve"> меня воодушевила, что ты посмел не сказать так, какая- то птица!</t>
   </si>
   <si>
-    <t xml:space="preserve">шаҟа баска ҵәымӷ алоузеи, аџьду ашьапаҿы?!</t>
+    <t>шаҟа баска ҵәымӷ алоузеи, аџьду ашьапаҿы?!</t>
   </si>
   <si>
     <t xml:space="preserve"> сколько всего бассейна!</t>
   </si>
   <si>
-    <t xml:space="preserve">уи иахьзеи?</t>
+    <t>уи иахьзеи?</t>
   </si>
   <si>
     <t xml:space="preserve"> что же произошло?</t>
   </si>
   <si>
-    <t xml:space="preserve">ибҭахызар, цәыкәбарушәа, сықәҵып, сынкаба.</t>
+    <t>ибҭахызар, цәыкәбарушәа, сықәҵып, сынкаба.</t>
   </si>
   <si>
     <t xml:space="preserve"> если захочешь, ты увидишь, что капелька воды, и живу от меня.</t>
   </si>
   <si>
-    <t xml:space="preserve">игәырмаҷгаха игон уи абжьы.</t>
+    <t>игәырмаҷгаха игон уи абжьы.</t>
   </si>
   <si>
     <t xml:space="preserve"> уменьшить ее смех.</t>
   </si>
   <si>
-    <t xml:space="preserve">азнык азыҳәан ус игәы иаанагеит.</t>
+    <t>азнык азыҳәан ус игәы иаанагеит.</t>
   </si>
   <si>
     <t xml:space="preserve"> повторил за собою.</t>
   </si>
   <si>
-    <t xml:space="preserve">уажәы ҳрыԥхьап хыхь зыӡбахә ҳамаз ацәаҳәақәа</t>
+    <t>уажәы ҳрыԥхьап хыхь зыӡбахә ҳамаз ацәаҳәақәа</t>
   </si>
   <si>
     <t xml:space="preserve"> сейчас обратим внимание на строки, о которых говорилось выше</t>
   </si>
   <si>
-    <t xml:space="preserve">санбанқәа срыцуп са смаӡаны, урҭ исызҿырҭуа џьысшьоит быбжьала.</t>
+    <t>санбанқәа срыцуп са смаӡаны, урҭ исызҿырҭуа џьысшьоит быбжьала.</t>
   </si>
   <si>
     <t xml:space="preserve"> так что я не погублю вместе с матерью моими, я люблю их голосом.</t>
   </si>
   <si>
-    <t xml:space="preserve">тмутаракантәи мстислав лассыласс драбашьыр акәхон ауаԥсаа, ачерқьезцәа, иара убас аԥсуаа</t>
+    <t>тмутаракантәи мстислав лассыласс драбашьыр акәхон ауаԥсаа, ачерқьезцәа, иара убас аԥсуаа</t>
   </si>
   <si>
     <t xml:space="preserve"> владислава григорьевича из томатального мира и пришлось бы сражаться с осетинами, черкесы, а также с абхазами</t>
   </si>
   <si>
-    <t xml:space="preserve">аԥслыш аҽыкәаба- аҽрыхьны иааҭыҵызшәа аӡы</t>
+    <t>аԥслыш аҽыкәаба- аҽрыхьны иааҭыҵызшәа аӡы</t>
   </si>
   <si>
     <t xml:space="preserve"> и, как разделилась вода из купальни</t>
   </si>
   <si>
-    <t xml:space="preserve">аҵых аԥшӡы еиԥш инасҿаҭәҳәаны</t>
+    <t>аҵых аԥшӡы еиԥш инасҿаҭәҳәаны</t>
   </si>
   <si>
     <t xml:space="preserve"> он вырывал ее, как реку</t>
   </si>
   <si>
-    <t xml:space="preserve">дыццакы- ццакуа абарҵахь дындәылҵит.</t>
+    <t>дыццакы- ццакуа абарҵахь дындәылҵит.</t>
   </si>
   <si>
     <t xml:space="preserve"> он поспешил на балкон.</t>
   </si>
   <si>
-    <t xml:space="preserve">ҳҵеицәа рхы зқәырҵаз аԥсны ҳара ламысла аныҟәгара ҳцәыуадаҩхеит.</t>
+    <t>ҳҵеицәа рхы зқәырҵаз аԥсны ҳара ламысла аныҟәгара ҳцәыуадаҩхеит.</t>
   </si>
   <si>
     <t xml:space="preserve"> и то, с чем сложили головы наши воины, в абхазии трудно носить себя добросовестно.</t>
   </si>
   <si>
-    <t xml:space="preserve">схынҳәит сахьаанҿасыз аԥшәма лҿы.</t>
+    <t>схынҳәит сахьаанҿасыз аԥшәма лҿы.</t>
   </si>
   <si>
     <t xml:space="preserve"> я вернулась к хозяина дома.</t>
   </si>
   <si>
-    <t xml:space="preserve">лара дыццакны дцеит.</t>
+    <t>лара дыццакны дцеит.</t>
   </si>
   <si>
     <t xml:space="preserve"> она поспешно пошла.</t>
   </si>
   <si>
-    <t xml:space="preserve">аха, итәаз аӡәгьы ҟытҳәа ибжьы анимырга, иҭыԥаҿы днатәан</t>
+    <t>аха, итәаз аӡәгьы ҟытҳәа ибжьы анимырга, иҭыԥаҿы днатәан</t>
   </si>
   <si>
     <t xml:space="preserve"> но и никто, войдя, не устремился на него, и, когда он сел</t>
   </si>
   <si>
-    <t xml:space="preserve">атәылақәа зегьы рпролетарцәа шәҽеидышәкыл!</t>
+    <t>атәылақәа зегьы рпролетарцәа шәҽеидышәкыл!</t>
   </si>
   <si>
     <t xml:space="preserve"> облекитесь во все времена!</t>
   </si>
   <si>
-    <t xml:space="preserve">аҩбатәи агәыԥ иаҵанакуеит аерманцәеи азербаиџьанцәеи рышьҭахь игылоу.</t>
+    <t>аҩбатәи агәыԥ иаҵанакуеит аерманцәеи азербаиџьанцәеи рышьҭахь игылоу.</t>
   </si>
   <si>
     <t xml:space="preserve"> вторая группа включает в себя армянские и азербайджанцы.</t>
   </si>
   <si>
-    <t xml:space="preserve">аҩбатәи схаҵа даԥсыуан</t>
+    <t>аҩбатәи схаҵа даԥсыуан</t>
   </si>
   <si>
     <t xml:space="preserve"> второй муж умер</t>
   </si>
   <si>
-    <t xml:space="preserve">ухаҵазароуп, ахаҵа, нас ақәԥараҿ уӷәӷәаз, ԥырхагак урҭом усҟан уааԥсыраз, лахьынҵаз!</t>
+    <t>ухаҵазароуп, ахаҵа, нас ақәԥараҿ уӷәӷәаз, ԥырхагак урҭом усҟан уааԥсыраз, лахьынҵаз!</t>
   </si>
   <si>
     <t xml:space="preserve"> будешь иметь мужа, муж, сильный в борьбе, и никто не навредит тебе.</t>
   </si>
   <si>
-    <t xml:space="preserve">убас, аҭабиа иҭаланы, ахьаца ду ашьапаҟынӡагьы инаӡеит</t>
+    <t>убас, аҭабиа иҭаланы, ахьаца ду ашьапаҟынӡагьы инаӡеит</t>
   </si>
   <si>
     <t xml:space="preserve"> и дошел слух о его до несуществующий страх.</t>
   </si>
   <si>
-    <t xml:space="preserve">абас слықәцәҟьап ҳәа ӡбаны адгәыр ашырҳәа даахьаҳәит.</t>
+    <t>абас слықәцәҟьап ҳәа ӡбаны адгәыр ашырҳәа даахьаҳәит.</t>
   </si>
   <si>
     <t xml:space="preserve"> содрогнув кусок застрял в горле.</t>
   </si>
   <si>
-    <t xml:space="preserve">иҟалаз алахь бхагәҭа иқәсааит, сқлаԥад бфама?</t>
+    <t>иҟалаз алахь бхагәҭа иқәсааит, сқлаԥад бфама?</t>
   </si>
   <si>
     <t xml:space="preserve"> удручена ли она, и удручает мое тело?</t>
   </si>
   <si>
-    <t xml:space="preserve">дхагахарц даҿуп уи.</t>
+    <t>дхагахарц даҿуп уи.</t>
   </si>
   <si>
     <t xml:space="preserve"> рассолодеть его.</t>
   </si>
   <si>
-    <t xml:space="preserve">урҭи сареи ҿыц ҳаибардырра аҭахымзар ҟалап.</t>
+    <t>урҭи сареи ҿыц ҳаибардырра аҭахымзар ҟалап.</t>
   </si>
   <si>
     <t xml:space="preserve"> с ними, наверное, не было необходимости снова общаться.</t>
   </si>
   <si>
-    <t xml:space="preserve">сагалон саԥхьаҟа ак сыхон, саамҭа насыԥ дула иҭәын.</t>
+    <t>сагалон саԥхьаҟа ак сыхон, саамҭа насыԥ дула иҭәын.</t>
   </si>
   <si>
     <t xml:space="preserve"> предлагал мне что- то в будущем, и мое время было очень счастливой.</t>
   </si>
   <si>
-    <t xml:space="preserve">ахысра иаҟәыҵит.</t>
+    <t>ахысра иаҟәыҵит.</t>
   </si>
   <si>
     <t xml:space="preserve"> они перестали стрелять.</t>
   </si>
   <si>
-    <t xml:space="preserve">иуԥсахп, агәылацәа еимурҟьап?!</t>
+    <t>иуԥсахп, агәылацәа еимурҟьап?!</t>
   </si>
   <si>
     <t xml:space="preserve"> изменяешь, рассеять соседей?!</t>
   </si>
   <si>
-    <t xml:space="preserve">илыдтәалаз ахаҵарԥыс лара лышҟа даахьаҳәын, уажәы- уажәы ажәақәак леиҳәон.</t>
+    <t>илыдтәалаз ахаҵарԥыс лара лышҟа даахьаҳәын, уажәы- уажәы ажәақәак леиҳәон.</t>
   </si>
   <si>
     <t xml:space="preserve"> когда молодой человек сидел с ней, отошел от нее и снова и снова говорил ей несколько слов.</t>
   </si>
   <si>
-    <t xml:space="preserve">уи абас иҟан, кан игәра уаҩы изгозар, анаҩс исаҳақәахьазгьы уи инаԥушьуазар.</t>
+    <t>уи абас иҟан, кан игәра уаҩы изгозар, анаҩс исаҳақәахьазгьы уи инаԥушьуазар.</t>
   </si>
   <si>
     <t xml:space="preserve"> вот это было такой человек, если я и слышу его в нем.</t>
   </si>
   <si>
-    <t xml:space="preserve">бзиабарала иҿаҳәоуп сара сыхәра, абзиабара акәхап изырӷьо есымша.</t>
+    <t>бзиабарала иҿаҳәоуп сара сыхәра, абзиабара акәхап изырӷьо есымша.</t>
   </si>
   <si>
     <t xml:space="preserve"> исполнен любви не счесть, открытые на имя мое, но любовью во все дни сии.</t>
   </si>
   <si>
-    <t xml:space="preserve">даҽа рҵаҩык дшәыԥшаа!</t>
+    <t>даҽа рҵаҩык дшәыԥшаа!</t>
   </si>
   <si>
     <t xml:space="preserve"> искать другого учителя!</t>
   </si>
   <si>
-    <t xml:space="preserve">аԥсара инаркны адаԥазарнӡа</t>
+    <t>аԥсара инаркны адаԥазарнӡа</t>
   </si>
   <si>
     <t xml:space="preserve"> от смерти до рамки</t>
   </si>
   <si>
-    <t xml:space="preserve">сыццакцәозаап, шьоук хьаԥшуеит иааҭгылан, сыздыруа ракәхап ҟасҵахуеит зназы.</t>
+    <t>сыццакцәозаап, шьоук хьаԥшуеит иааҭгылан, сыздыруа ракәхап ҟасҵахуеит зназы.</t>
   </si>
   <si>
     <t xml:space="preserve"> посему я медлен на гнев, ты выявлял меня, чтобы я не знал.</t>
   </si>
   <si>
-    <t xml:space="preserve">иахьа сима дшызбаз уасҳәахьоу, мшәан?</t>
+    <t>иахьа сима дшызбаз уасҳәахьоу, мшәан?</t>
   </si>
   <si>
     <t xml:space="preserve"> ныне я сказал тебе, что видел тебя?</t>
   </si>
   <si>
-    <t xml:space="preserve">ус ицоит адунеи сықәнаҵ, убас ауп сышцо саргьы.</t>
+    <t>ус ицоит адунеи сықәнаҵ, убас ауп сышцо саргьы.</t>
   </si>
   <si>
     <t xml:space="preserve"> тогда идет за мною.</t>
   </si>
   <si>
-    <t xml:space="preserve">уца, агерцог, мҩамш уанылааит!</t>
+    <t>уца, агерцог, мҩамш уанылааит!</t>
   </si>
   <si>
     <t xml:space="preserve"> иди, герцог, пусть идет по пути!</t>
   </si>
   <si>
-    <t xml:space="preserve">уа еишьҭагылаз абанӡарацәаз.</t>
+    <t>уа еишьҭагылаз абанӡарацәаз.</t>
   </si>
   <si>
     <t xml:space="preserve"> там же установлены баннеры.</t>
   </si>
   <si>
-    <t xml:space="preserve">уажәы уигьы даҟәыҵит умҳәозар.</t>
+    <t>уажәы уигьы даҟәыҵит умҳәозар.</t>
   </si>
   <si>
     <t xml:space="preserve"> сейчас он тоже перестал молиться.</t>
   </si>
   <si>
-    <t xml:space="preserve">схәыцуан сара гәаныла</t>
+    <t>схәыцуан сара гәаныла</t>
   </si>
   <si>
     <t xml:space="preserve"> думать я про себя</t>
   </si>
   <si>
-    <t xml:space="preserve">сышәҟәы еиԥхьыттақәа неидкыла, сҿынасхеит рыҭра инҭаҵа.</t>
+    <t>сышәҟәы еиԥхьыттақәа неидкыла, сҿынасхеит рыҭра инҭаҵа.</t>
   </si>
   <si>
     <t xml:space="preserve"> каждый раз, когда моя книга разбросала их, я сталаны.</t>
   </si>
   <si>
-    <t xml:space="preserve">ус иагьыҟарҵеит.</t>
+    <t>ус иагьыҟарҵеит.</t>
   </si>
   <si>
     <t xml:space="preserve"> и так поступили.</t>
   </si>
   <si>
-    <t xml:space="preserve">ртәылаҿ ихҵәама ԥҟақәак?</t>
+    <t>ртәылаҿ ихҵәама ԥҟақәак?</t>
   </si>
   <si>
     <t xml:space="preserve"> в себе ограничивается ли она</t>
   </si>
   <si>
-    <t xml:space="preserve">уи рмаҳаӡеит сара амҩан исыцыз, акаршәрақәа ирықәсны иаауаз.</t>
+    <t>уи рмаҳаӡеит сара амҩан исыцыз, акаршәрақәа ирықәсны иаауаз.</t>
   </si>
   <si>
     <t xml:space="preserve"> мы не услышали это, бывшие со мной на дороге и идущие на равнины.</t>
   </si>
   <si>
-    <t xml:space="preserve">матанеирак.</t>
+    <t>матанеирак.</t>
   </si>
   <si>
     <t xml:space="preserve"> равнины.</t>
   </si>
   <si>
-    <t xml:space="preserve">уаҩ диԥырхагамызт аҟынтә, ихәмаргақәа, исахьаҭыхгақәа, ишәҟәқәа зегьы абра еизганы иман.</t>
+    <t>уаҩ диԥырхагамызт аҟынтә, ихәмаргақәа, исахьаҭыхгақәа, ишәҟәқәа зегьы абра еизганы иман.</t>
   </si>
   <si>
     <t xml:space="preserve"> поскольку никого не препятствовал, он собирал краски, картинки, книги.</t>
   </si>
   <si>
-    <t xml:space="preserve">иара ашьыцрагьы ҩбаны иҟоуп</t>
+    <t>иара ашьыцрагьы ҩбаны иҟоуп</t>
   </si>
   <si>
     <t xml:space="preserve"> зависть тоже двойной</t>
   </si>
   <si>
-    <t xml:space="preserve">ҩаԥхьа имҩа харагь днықәлеит, ԥхьаҟагь днеиуан деиханы.</t>
+    <t>ҩаԥхьа имҩа харагь днықәлеит, ԥхьаҟагь днеиуан деиханы.</t>
   </si>
   <si>
     <t xml:space="preserve"> и опять стоял на дороге, и наклонился к ней.</t>
   </si>
   <si>
-    <t xml:space="preserve">сара, уаҳа иҭабуп ҳәа иаҳәахагьы саахьымӡаӡакәа, аԥсны ихы нақәиҵеит, ҷкәын мыжда!</t>
+    <t>сара, уаҳа иҭабуп ҳәа иаҳәахагьы саахьымӡаӡакәа, аԥсны ихы нақәиҵеит, ҷкәын мыжда!</t>
   </si>
   <si>
     <t xml:space="preserve"> мне и вновь очень поблагодарили абхазию, так что молодой человек не ослаб.</t>
   </si>
   <si>
-    <t xml:space="preserve">урҭ ирыцын алықьсандргьы аҳ иԥа гьаргьгьы.</t>
+    <t>урҭ ирыцын алықьсандргьы аҳ иԥа гьаргьгьы.</t>
   </si>
   <si>
     <t xml:space="preserve"> с ними отправился и георгий сын царя.</t>
   </si>
   <si>
-    <t xml:space="preserve">уа унаган уқәдыртәеит убра</t>
+    <t>уа унаган уқәдыртәеит убра</t>
   </si>
   <si>
     <t xml:space="preserve"> оставь там веру твою, ибо</t>
   </si>
   <si>
-    <t xml:space="preserve">уаҳа ҭыԥ ҟамлазшәа, амаӷ еиԥш шәыбла сынхыкшало</t>
+    <t>уаҳа ҭыԥ ҟамлазшәа, амаӷ еиԥш шәыбла сынхыкшало</t>
   </si>
   <si>
     <t xml:space="preserve"> а как нет места, которая, как кажется, бросит вас в терние,</t>
   </si>
   <si>
-    <t xml:space="preserve">дыҩуа дтәамыз аффаҳәа.</t>
+    <t>дыҩуа дтәамыз аффаҳәа.</t>
   </si>
   <si>
     <t xml:space="preserve"> сидит, не сидит.</t>
   </si>
   <si>
-    <t xml:space="preserve">садызцалаз уҳәарауеи!</t>
+    <t>садызцалаз уҳәарауеи!</t>
   </si>
   <si>
     <t xml:space="preserve"> усердный труженик!</t>
   </si>
   <si>
-    <t xml:space="preserve">закәытә мҩоузеи, закәытә мҩа гәыԥҵәагоузеи!</t>
+    <t>закәытә мҩоузеи, закәытә мҩа гәыԥҵәагоузеи!</t>
   </si>
   <si>
     <t xml:space="preserve"> каким же ударом является группа!</t>
   </si>
   <si>
-    <t xml:space="preserve">сулҭан сосналиев</t>
+    <t>сулҭан сосналиев</t>
   </si>
   <si>
     <t xml:space="preserve"> султан сосналиев</t>
   </si>
   <si>
-    <t xml:space="preserve">леуарса снеиҿахәҭхәҭит сара.</t>
+    <t>леуарса снеиҿахәҭхәҭит сара.</t>
   </si>
   <si>
     <t xml:space="preserve"> заинтересовался я леварсов.</t>
   </si>
   <si>
-    <t xml:space="preserve">ақәа уасҭан уаӡәӡәеит, амра уасҭан уасырҩеит, ахьхьа улго усыршшеит.</t>
+    <t>ақәа уасҭан уаӡәӡәеит, амра уасҭан уасырҩеит, ахьхьа улго усыршшеит.</t>
   </si>
   <si>
     <t xml:space="preserve"> мыл дождь со снегом, погрузившему тебя в солнце, и ты спас меня до дна.</t>
   </si>
   <si>
-    <t xml:space="preserve">ибз иԥышәқәа иаарыдҷаблеит раԥхьа аҵәца шьҭызхыз.</t>
+    <t>ибз иԥышәқәа иаарыдҷаблеит раԥхьа аҵәца шьҭызхыз.</t>
   </si>
   <si>
     <t xml:space="preserve"> их двери были заперты, поднятые сначала.</t>
   </si>
   <si>
-    <t xml:space="preserve">иҩызцәа дырҩызан, иуацәа дрыуан, дыҟан уа узы, сара сзы.</t>
+    <t>иҩызцәа дырҩызан, иуацәа дрыуан, дыҟан уа узы, сара сзы.</t>
   </si>
   <si>
     <t xml:space="preserve"> был среди его друзей и родственников, что- то у меня.</t>
   </si>
   <si>
-    <t xml:space="preserve">ус гәаныла дназхәыцит, аха макьаназы агәыӷра иман, дыхәны дыҟоуп ҳәа игәы иаанагон.</t>
+    <t>ус гәаныла дназхәыцит, аха макьаназы агәыӷра иман, дыхәны дыҟоуп ҳәа игәы иаанагон.</t>
   </si>
   <si>
     <t xml:space="preserve"> поразмышляв про себя, он задумался про себя, но пока думал, что выздоровеет.</t>
   </si>
   <si>
-    <t xml:space="preserve">ахәырбӷьыц фырхаҵа иалшахьоу, аԥсуа хылҵшьҭреиԥш избарҭада.</t>
+    <t>ахәырбӷьыц фырхаҵа иалшахьоу, аԥсуа хылҵшьҭреиԥш избарҭада.</t>
   </si>
   <si>
     <t xml:space="preserve"> картечина счету каждый миг.</t>
   </si>
   <si>
-    <t xml:space="preserve">уара, ахра, даахьаҳәит сара сышҟа, уҟаз ахреиԥш уӷәӷәаӡа.</t>
+    <t>уара, ахра, даахьаҳәит сара сышҟа, уҟаз ахреиԥш уӷәӷәаӡа.</t>
   </si>
   <si>
     <t xml:space="preserve"> ты, ахра, перевернулся ко мне и будь слегка.</t>
   </si>
   <si>
-    <t xml:space="preserve">ицаз шьҭа иузырхынҳәуам.</t>
+    <t>ицаз шьҭа иузырхынҳәуам.</t>
   </si>
   <si>
     <t xml:space="preserve"> и не возвратится.</t>
   </si>
   <si>
-    <t xml:space="preserve">ҳа ҳтәы цахьеит, уахьӡаргьы уахәом, уаԥырхагамхозар.</t>
+    <t>ҳа ҳтәы цахьеит, уахьӡаргьы уахәом, уаԥырхагамхозар.</t>
   </si>
   <si>
     <t xml:space="preserve"> народ наш спешил, а не ранит, если</t>
   </si>
   <si>
-    <t xml:space="preserve">ихатәы жәлар абалкарқәа деицырдыруа дзыҟалома.</t>
+    <t>ихатәы жәлар абалкарқәа деицырдыруа дзыҟалома.</t>
   </si>
   <si>
     <t xml:space="preserve"> разве станет очевидно, что личные балкары становятся популярными.</t>
   </si>
   <si>
-    <t xml:space="preserve">уи ауп иуҳәаша</t>
+    <t>уи ауп иуҳәаша</t>
   </si>
   <si>
     <t xml:space="preserve"> еще сказано</t>
   </si>
   <si>
-    <t xml:space="preserve">сыжәла маазар икасыршәыз, ма имҵәыӷьазар зынӡа?</t>
+    <t>сыжәла маазар икасыршәыз, ма имҵәыӷьазар зынӡа?</t>
   </si>
   <si>
     <t xml:space="preserve"> не фамилию ли я, если что- то спала меня или нет?</t>
   </si>
   <si>
-    <t xml:space="preserve">шьҭа саргьы лассы сниасп, исзамҭакәа иҟоу ԥсыхәак, амш бзиоуп аамҭа бзиам.</t>
+    <t>шьҭа саргьы лассы сниасп, исзамҭакәа иҟоу ԥсыхәак, амш бзиоуп аамҭа бзиам.</t>
   </si>
   <si>
     <t xml:space="preserve"> так что мне захотелось проходить чаще, но это хороший день мне тоже.</t>
   </si>
   <si>
-    <t xml:space="preserve">деигәырӷьеит, ибан ардәынак, даара</t>
+    <t>деигәырӷьеит, ибан ардәынак, даара</t>
   </si>
   <si>
     <t xml:space="preserve"> обрадовался, увидев её, очень вышел</t>
   </si>
   <si>
-    <t xml:space="preserve">адгьыл аҿы сынхеит сара схала, ахы иҩахан иԥшуан уаҟа сла.</t>
+    <t>адгьыл аҿы сынхеит сара схала, ахы иҩахан иԥшуан уаҟа сла.</t>
   </si>
   <si>
     <t xml:space="preserve"> живу на земле, я оставался в одиночестве, и смотрел на нее.</t>
   </si>
   <si>
-    <t xml:space="preserve">уи схы налықәыскит.</t>
+    <t>уи схы налықәыскит.</t>
   </si>
   <si>
     <t xml:space="preserve"> я пела ее на себе.</t>
   </si>
   <si>
-    <t xml:space="preserve">иарбан, ахра, уи?</t>
+    <t>иарбан, ахра, уи?</t>
   </si>
   <si>
     <t xml:space="preserve"> какого, ахра?</t>
   </si>
   <si>
-    <t xml:space="preserve">еиҳагьы еицәоуп аламыс аныцәа.</t>
+    <t>еиҳагьы еицәоуп аламыс аныцәа.</t>
   </si>
   <si>
     <t xml:space="preserve"> хуже быть совестью.</t>
   </si>
   <si>
-    <t xml:space="preserve">абарҭ аҽыуардынқәа шаҟаҩ рықәтәоу здыруандаз, ааигәахәын, дцәыҵыԥшшәа уахьгьы днаԥшит.</t>
+    <t>абарҭ аҽыуардынқәа шаҟаҩ рықәтәоу здыруандаз, ааигәахәын, дцәыҵыԥшшәа уахьгьы днаԥшит.</t>
   </si>
   <si>
     <t xml:space="preserve"> если бы я знал, какой всадник на этих колесницах, недавно удалился, и приблизился.</t>
   </si>
   <si>
-    <t xml:space="preserve">ҭагалан, ҭагалан, са сҟынӡагь уааскьеит</t>
+    <t>ҭагалан, ҭагалан, са сҟынӡагь уааскьеит</t>
   </si>
   <si>
     <t xml:space="preserve"> приближается осень, осенью</t>
   </si>
   <si>
-    <t xml:space="preserve">уи ихы ҩышьҭихын, зегьы аӡәаӡәала блала иааимидан, нас ҿааиҭит</t>
+    <t>уи ихы ҩышьҭихын, зегьы аӡәаӡәала блала иааимидан, нас ҿааиҭит</t>
   </si>
   <si>
     <t xml:space="preserve"> он взял ее, благословил и сказал</t>
   </si>
   <si>
-    <t xml:space="preserve">еех, паташь патаӡба!</t>
+    <t>еех, паташь патаӡба!</t>
   </si>
   <si>
     <t xml:space="preserve"> эхта павлин!</t>
   </si>
   <si>
-    <t xml:space="preserve">сара сакәзар, схала саныҟоугьы, уахгьы- ҽынгьы ҵыхәаԥҵәарада сшаԥхьаӡоз саԥхьон.</t>
+    <t>сара сакәзар, схала саныҟоугьы, уахгьы- ҽынгьы ҵыхәаԥҵәарада сшаԥхьаӡоз саԥхьон.</t>
   </si>
   <si>
     <t xml:space="preserve"> а как я сам, то ухаживал за ним день и ночь.</t>
   </si>
   <si>
-    <t xml:space="preserve">иахьа иаразнак иеидгылеит</t>
+    <t>иахьа иаразнак иеидгылеит</t>
   </si>
   <si>
     <t xml:space="preserve"> сегодня он поддержал его</t>
   </si>
   <si>
-    <t xml:space="preserve">сара аус дырласыртә сзыҟоуҵарц азоуп иҳәазаап.</t>
+    <t>сара аус дырласыртә сзыҟоуҵарц азоуп иҳәазаап.</t>
   </si>
   <si>
     <t xml:space="preserve"> он хотел бы, чтобы я начал работать.</t>
   </si>
   <si>
-    <t xml:space="preserve">иага умҳәан, сара сыла ргәы дуун, аӡә дрықәларгьы сара ишысыхьчоз рдыруан.</t>
+    <t>иага умҳәан, сара сыла ргәы дуун, аӡә дрықәларгьы сара ишысыхьчоз рдыруан.</t>
   </si>
   <si>
     <t xml:space="preserve"> не верь этому, что я был очень рад, если бы кто- нибудь видел меня.</t>
   </si>
   <si>
-    <t xml:space="preserve">ажәа зырҭаз.</t>
+    <t>ажәа зырҭаз.</t>
   </si>
   <si>
     <t xml:space="preserve"> вступать в слово.</t>
   </si>
   <si>
-    <t xml:space="preserve">сызҭагьежьуам сара уаҳа азаҵәра амацәаз!</t>
+    <t>сызҭагьежьуам сара уаҳа азаҵәра амацәаз!</t>
   </si>
   <si>
     <t xml:space="preserve"> не могу возвратиться назад!</t>
   </si>
   <si>
-    <t xml:space="preserve">избалоит сара иахьанӡагьы ԥхыӡла изымааз, аха усгьы иаауаз.</t>
+    <t>избалоит сара иахьанӡагьы ԥхыӡла изымааз, аха усгьы иаауаз.</t>
   </si>
   <si>
     <t xml:space="preserve"> вижу я, что мне до сих пор не бывало такого во сне.</t>
   </si>
   <si>
-    <t xml:space="preserve">абар, ачаи хыхра еиҩыжәжәа иагахьоу лнацәкьарақәа, лнапсыргәыҵа аџьаџьара лызгәаҭаӡом.</t>
+    <t>абар, ачаи хыхра еиҩыжәжәа иагахьоу лнацәкьарақәа, лнапсыргәыҵа аџьаџьара лызгәаҭаӡом.</t>
   </si>
   <si>
     <t xml:space="preserve"> вот, конькобежный, и трудолюбивый, и она, кажется, не слышит греха.</t>
   </si>
   <si>
-    <t xml:space="preserve">жәохәминуҭ рышьҭахь сааины шәыԥшәма ила сшьуеит, шәара шәымшәан!</t>
+    <t>жәохәминуҭ рышьҭахь сааины шәыԥшәма ила сшьуеит, шәара шәымшәан!</t>
   </si>
   <si>
     <t xml:space="preserve"> через пятнадцать лет пришел я со своим спутником жизни, а вы не бойтесь.</t>
   </si>
   <si>
-    <t xml:space="preserve">ашьҭахь абиблиотека аусзуҩ ԥҳәызба ладикәа илҭеит лхатәы шәҟәык абас анҵаны</t>
+    <t>ашьҭахь абиблиотека аусзуҩ ԥҳәызба ладикәа илҭеит лхатәы шәҟәык абас анҵаны</t>
   </si>
   <si>
     <t xml:space="preserve"> потом устроила ей женщину в библиотеке, сказав ей собственное письмо</t>
   </si>
   <si>
-    <t xml:space="preserve">ажәакала, зегь лара илхаҵаҩызцәан, арахь цоу лымамызт, аау лымамызт!</t>
+    <t>ажәакала, зегь лара илхаҵаҩызцәан, арахь цоу лымамызт, аау лымамызт!</t>
   </si>
   <si>
     <t xml:space="preserve"> в общем, она вышла замуж за человека, у нее не было мужа!</t>
   </si>
   <si>
-    <t xml:space="preserve">дахьтәаз днеины, егьи ишылымуаз асценахь дналыԥхьаны ашәа ллырҳәеит.</t>
+    <t>дахьтәаз днеины, егьи ишылымуаз асценахь дналыԥхьаны ашәа ллырҳәеит.</t>
   </si>
   <si>
     <t xml:space="preserve"> и, подойдя, она пригласила его на сцену, и прислала на сцену.</t>
   </si>
   <si>
-    <t xml:space="preserve">дыргьежь ахра иналҟьаны ицазшәа, ашыбжь ныҵабеит.</t>
+    <t>дыргьежь ахра иналҟьаны ицазшәа, ашыбжь ныҵабеит.</t>
   </si>
   <si>
     <t xml:space="preserve"> по возвращении его рауль хаджимба утопал у дверей.</t>
   </si>
   <si>
-    <t xml:space="preserve">аилацәажәара мҩаԥысит аԥссага- рыцқьагатә мыругақәа ахьырҵәахло аконсперативтә уадаҿы.</t>
+    <t>аилацәажәара мҩаԥысит аԥссага- рыцқьагатә мыругақәа ахьырҵәахло аконсперативтә уадаҿы.</t>
   </si>
   <si>
     <t xml:space="preserve"> совещание прошло в конспективном труднодоступном здании, в котором будет обмениваться инструментами</t>
   </si>
   <si>
-    <t xml:space="preserve">сара аҩныҟа схаларц сҿынасхеит.</t>
+    <t>сара аҩныҟа схаларц сҿынасхеит.</t>
   </si>
   <si>
     <t xml:space="preserve"> я научилась жить домой.</t>
   </si>
   <si>
-    <t xml:space="preserve">сара маӡа сымаӡам.</t>
+    <t>сара маӡа сымаӡам.</t>
   </si>
   <si>
     <t xml:space="preserve"> у меня нет секретов.</t>
   </si>
   <si>
-    <t xml:space="preserve">абарҭқәа ирыхҟьаны, урҭқәа зеилымкаауаз дымкьыкьушәа, дуаҩ хьшәашәоушәа дызбақәозгьы ыҟан.</t>
+    <t>абарҭқәа ирыхҟьаны, урҭқәа зеилымкаауаз дымкьыкьушәа, дуаҩ хьшәашәоушәа дызбақәозгьы ыҟан.</t>
   </si>
   <si>
     <t xml:space="preserve"> ибо он не понимал, о чем идет речь, но обращался с миром.</t>
   </si>
   <si>
-    <t xml:space="preserve">леон дааԥышәарччеит, уаҳагьы дхьамԥшӡакәа ашырҳәа иҿыҩаихеит.</t>
+    <t>леон дааԥышәарччеит, уаҳагьы дхьамԥшӡакәа ашырҳәа иҿыҩаихеит.</t>
   </si>
   <si>
     <t xml:space="preserve"> леон улыбнулся, пожав плечами, заставил их умолкнуть.</t>
   </si>
   <si>
-    <t xml:space="preserve">адгьыл гәыраз, уара уӡыхь сархәа!</t>
+    <t>адгьыл гәыраз, уара уӡыхь сархәа!</t>
   </si>
   <si>
     <t xml:space="preserve"> добрый раб, питаемый тобою!</t>
   </si>
   <si>
-    <t xml:space="preserve">адгьыл иацлом!</t>
+    <t>адгьыл иацлом!</t>
   </si>
   <si>
     <t xml:space="preserve"> не хватает земли!</t>
   </si>
   <si>
-    <t xml:space="preserve">сара иабаздыруаз бан луадаҿы ашәындыҟәра хәыҷы иҭаз?</t>
+    <t>сара иабаздыруаз бан луадаҿы ашәындыҟәра хәыҷы иҭаз?</t>
   </si>
   <si>
     <t xml:space="preserve"> я знал, что у нее была маленькая банда?</t>
   </si>
   <si>
-    <t xml:space="preserve">ҳзықәшәеи, сукәыхшеит, дҩагылеит баҭаҟәа.</t>
+    <t>ҳзықәшәеи, сукәыхшеит, дҩагылеит баҭаҟәа.</t>
   </si>
   <si>
     <t xml:space="preserve"> клятву, которою клялся я тебе, и встал.</t>
   </si>
   <si>
-    <t xml:space="preserve">шәача дганы дахьааигоз ҿымҭӡакәа уамашәа иубарын.</t>
+    <t>шәача дганы дахьааигоз ҿымҭӡакәа уамашәа иубарын.</t>
   </si>
   <si>
     <t xml:space="preserve"> сочинив его, он не молчал.</t>
   </si>
   <si>
-    <t xml:space="preserve">асцена саақәлеит скаҳауа, сгыло, уи сбажәгәаламуа сықәын кыргьы.</t>
+    <t>асцена саақәлеит скаҳауа, сгыло, уи сбажәгәаламуа сықәын кыргьы.</t>
   </si>
   <si>
     <t xml:space="preserve"> на сценическую жизнь отвечал мне.</t>
   </si>
   <si>
-    <t xml:space="preserve">ҳазшаз уҿаҵахәы имырӡааит!</t>
+    <t>ҳазшаз уҿаҵахәы имырӡааит!</t>
   </si>
   <si>
     <t xml:space="preserve"> продолжай в том же духе!</t>
   </si>
   <si>
-    <t xml:space="preserve">шықәса ҩажәа раахыс дҳаланхон, ҳаҭыр иқәын, ауаҩ иаша, агәыҭбаа ҳәа дрыԥхьаӡон.</t>
+    <t>шықәса ҩажәа раахыс дҳаланхон, ҳаҭыр иқәын, ауаҩ иаша, агәыҭбаа ҳәа дрыԥхьаӡон.</t>
   </si>
   <si>
     <t xml:space="preserve"> мы на протяжении многих лет жили бы с двадцать лет, считали бы великим человеком.</t>
   </si>
   <si>
-    <t xml:space="preserve">даҽакала иаҳҳәозар, абызшәа апроблема жәлары зегьы иаҳхьааны иҟалароуп.</t>
+    <t>даҽакала иаҳҳәозар, абызшәа апроблема жәлары зегьы иаҳхьааны иҟалароуп.</t>
   </si>
   <si>
     <t xml:space="preserve"> то есть, проблема языка должна стать всенародной.</t>
   </si>
   <si>
-    <t xml:space="preserve">урҭ ҳара уаҩы дҳаздырам, иахьадагьы иҳамбацт.</t>
+    <t>урҭ ҳара уаҩы дҳаздырам, иахьадагьы иҳамбацт.</t>
   </si>
   <si>
     <t xml:space="preserve"> мы их не знаем, даже не видели.</t>
   </si>
   <si>
-    <t xml:space="preserve">аха сара иааигәаны данызбоз акранаҳфоз акәын.</t>
+    <t>аха сара иааигәаны данызбоз акранаҳфоз акәын.</t>
   </si>
   <si>
     <t xml:space="preserve"> но я обедался, когда был близко.</t>
   </si>
   <si>
-    <t xml:space="preserve">ааи, уара ухаҭаҵәҟьа!</t>
+    <t>ааи, уара ухаҭаҵәҟьа!</t>
   </si>
   <si>
     <t xml:space="preserve"> неужели это ты сам!</t>
   </si>
   <si>
-    <t xml:space="preserve">дҽыжәырҵарым, нас зышькыл иангылан дҽыжәызҵаз ирыжәло агаӡа.</t>
+    <t>дҽыжәырҵарым, нас зышькыл иангылан дҽыжәызҵаз ирыжәло агаӡа.</t>
   </si>
   <si>
     <t xml:space="preserve"> он не должен стареть с лица земли чертог, стоящий на кресте.</t>
   </si>
   <si>
-    <t xml:space="preserve">аҭахызар идыды- мацәысааит, уи азы акы нацырҵо иауҟаху.</t>
+    <t>аҭахызар идыды- мацәысааит, уи азы акы нацырҵо иауҟаху.</t>
   </si>
   <si>
     <t xml:space="preserve"> если необходимо, то это является удручающим.</t>
   </si>
   <si>
-    <t xml:space="preserve">абриаҟара заҳҳәо, асаныгцәа зхыԥхьаӡара рацәаз абшьҭран.</t>
+    <t>абриаҟара заҳҳәо, асаныгцәа зхыԥхьаӡара рацәаз абшьҭран.</t>
   </si>
   <si>
     <t xml:space="preserve"> тогда мы оказались в тишине большой толпы.</t>
   </si>
   <si>
-    <t xml:space="preserve">џьадар имашьына данынҭала, алаф рылихуан.</t>
+    <t>џьадар имашьына данынҭала, алаф рылихуан.</t>
   </si>
   <si>
     <t xml:space="preserve"> когда джадар направился в его машину, он смеялся.</t>
   </si>
   <si>
-    <t xml:space="preserve">акәытқәа анылшьуаз ҳанду бзанҵы иаҳлырбаӡомызт, ашьакаҭәара ҳара ҳалалырԥшыр лҭахымызт.</t>
+    <t>акәытқәа анылшьуаз ҳанду бзанҵы иаҳлырбаӡомызт, ашьакаҭәара ҳара ҳалалырԥшыр лҭахымызт.</t>
   </si>
   <si>
     <t xml:space="preserve"> когда мы никогда не виделись с ней, она не хотела навлечь на себя вину в пролитии крови.</t>
   </si>
   <si>
-    <t xml:space="preserve">уи сара агәра згоит, уи ҟалашьа амаӡам</t>
+    <t>уи сара агәра згоит, уи ҟалашьа амаӡам</t>
   </si>
   <si>
     <t xml:space="preserve"> я верю, что это невозможно.</t>
   </si>
   <si>
-    <t xml:space="preserve">аҭырқәцәагьы лалаган рхатә ҵеџь ҿыц ҟарҵеит.</t>
+    <t>аҭырқәцәагьы лалаган рхатә ҵеџь ҿыц ҟарҵеит.</t>
   </si>
   <si>
     <t xml:space="preserve"> турки, также, сделали новый менеджер.</t>
   </si>
   <si>
-    <t xml:space="preserve">акы арҽеиха шсымамгьы жәбароуп</t>
+    <t>акы арҽеиха шсымамгьы жәбароуп</t>
   </si>
   <si>
     <t xml:space="preserve"> вы должны видеть, что ничего не поправляются</t>
   </si>
   <si>
-    <t xml:space="preserve">тата илыдгылаз аӡӷабцәа наскьа ааскьашәа ианаагыла, иара днеины</t>
+    <t>тата илыдгылаз аӡӷабцәа наскьа ааскьашәа ианаагыла, иара днеины</t>
   </si>
   <si>
     <t xml:space="preserve"> когда дочери поддерживают тату недавно, он придет к ней</t>
   </si>
   <si>
-    <t xml:space="preserve">ҳан дышԥаҟоу?</t>
+    <t>ҳан дышԥаҟоу?</t>
   </si>
   <si>
     <t xml:space="preserve"> как жить?</t>
   </si>
   <si>
-    <t xml:space="preserve">ашәарахқәа уа ибнакын.</t>
+    <t>ашәарахқәа уа ибнакын.</t>
   </si>
   <si>
     <t xml:space="preserve"> ты одинок.</t>
   </si>
   <si>
-    <t xml:space="preserve">аха уи изалымшоз усын.</t>
+    <t>аха уи изалымшоз усын.</t>
   </si>
   <si>
     <t xml:space="preserve"> но это не могла.</t>
   </si>
   <si>
-    <t xml:space="preserve">зегьы акы иашьаҳан изеиҭамҵуа, ируа- ирҳәо иақәшәомызт.</t>
+    <t>зегьы акы иашьаҳан изеиҭамҵуа, ируа- ирҳәо иақәшәомызт.</t>
   </si>
   <si>
     <t xml:space="preserve"> все же и не находили, что бы сделать с братом ее.</t>
   </si>
   <si>
-    <t xml:space="preserve">изаҳарыдаз шьҭа сара исҳәоз, аиааира аназымгоз ахшыҩ.</t>
+    <t>изаҳарыдаз шьҭа сара исҳәоз, аиааира аназымгоз ахшыҩ.</t>
   </si>
   <si>
     <t xml:space="preserve"> если бы у кого- то было то, что я говорил, не смог бы победить.</t>
   </si>
   <si>
-    <t xml:space="preserve">ҳаицәнарӡит ажәылараан</t>
+    <t>ҳаицәнарӡит ажәылараан</t>
   </si>
   <si>
     <t xml:space="preserve"> были утешены во время наступления</t>
   </si>
   <si>
-    <t xml:space="preserve">абас еикәшо ицоит аанҿасымҩа змам аԥсҭазаара аамҭа.</t>
+    <t>абас еикәшо ицоит аанҿасымҩа змам аԥсҭазаара аамҭа.</t>
   </si>
   <si>
     <t xml:space="preserve"> в таком случаетекает из воли жизнь.</t>
   </si>
   <si>
-    <t xml:space="preserve">аҭҳарцәҳәа сааԥшын снықәтәеит, шьхеи мардареи снарҿаԥшит.</t>
+    <t>аҭҳарцәҳәа сааԥшын снықәтәеит, шьхеи мардареи снарҿаԥшит.</t>
   </si>
   <si>
     <t xml:space="preserve"> и, помолившись, сел на меня и, ничего не стоило.</t>
   </si>
   <si>
-    <t xml:space="preserve">риза днеин аҽҭра иааҭыганы ииҭеит иумҭан ухаҵоуп!</t>
+    <t>риза днеин аҽҭра иааҭыганы ииҭеит иумҭан ухаҵоуп!</t>
   </si>
   <si>
     <t xml:space="preserve"> он пришел в ризы и передал ему щетку!</t>
   </si>
   <si>
-    <t xml:space="preserve">ақырҭуа ир шәача аҽеизгара иаҿуп ҳәа ирҳәоз уи иаҳагьы иарҵабыргуеит.</t>
+    <t>ақырҭуа ир шәача аҽеизгара иаҿуп ҳәа ирҳәоз уи иаҳагьы иарҵабыргуеит.</t>
   </si>
   <si>
     <t xml:space="preserve"> сопротивление тому, что грузинская военщина растет в сочи.</t>
   </si>
   <si>
-    <t xml:space="preserve">дгьыл иқәҳаз цәгьа ибла аркареит, ихагылаз ажәҩан аахәашьит.</t>
+    <t>дгьыл иқәҳаз цәгьа ибла аркареит, ихагылаз ажәҩан аахәашьит.</t>
   </si>
   <si>
     <t xml:space="preserve"> и упавшее на землю злое, это его глаза, что он покупал небо.</t>
   </si>
   <si>
-    <t xml:space="preserve">илышьҭыҵуагьы иакәӡам, иҳәеит ҟасҭеи.</t>
+    <t>илышьҭыҵуагьы иакәӡам, иҳәеит ҟасҭеи.</t>
   </si>
   <si>
     <t xml:space="preserve"> не тот, кто последует за ней, сказал я.</t>
   </si>
   <si>
-    <t xml:space="preserve">ҳажәқәеи ҳҳәарақәеи нымҵәеи</t>
+    <t>ҳажәқәеи ҳҳәарақәеи нымҵәеи</t>
   </si>
   <si>
     <t xml:space="preserve"> наши благоволения и молитвы</t>
   </si>
   <si>
-    <t xml:space="preserve">уи лара ианылдыр, саалыртәан, луасиаҭ салҳәеит</t>
+    <t>уи лара ианылдыр, саалыртәан, луасиаҭ салҳәеит</t>
   </si>
   <si>
     <t xml:space="preserve"> когда они объяснили ей, что я пенсию, я сказала ей</t>
   </si>
   <si>
-    <t xml:space="preserve">аԥа дзауны агара змауз ҳәа, шәԥацәа шәырзымӡырҩуаз ианаамҭаз.</t>
+    <t>аԥа дзауны агара змауз ҳәа, шәԥацәа шәырзымӡырҩуаз ианаамҭаз.</t>
   </si>
   <si>
     <t xml:space="preserve"> точно так же сын у него был, да не послушают сыновей ваших.</t>
   </si>
   <si>
-    <t xml:space="preserve">абалкон аман.</t>
+    <t>абалкон аман.</t>
   </si>
   <si>
     <t xml:space="preserve"> балкан.</t>
   </si>
   <si>
-    <t xml:space="preserve">иблақәа анаахит аԥенџьыр иалԥхан, амра ашәахәа нархыҷҷалеит.</t>
+    <t>иблақәа анаахит аԥенџьыр иалԥхан, амра ашәахәа нархыҷҷалеит.</t>
   </si>
   <si>
     <t xml:space="preserve"> его глаза загорелись из окна и излучали солнце.</t>
   </si>
   <si>
-    <t xml:space="preserve">дабацари уи дгәагәо?</t>
+    <t>дабацари уи дгәагәо?</t>
   </si>
   <si>
     <t xml:space="preserve"> да что же он видит его?</t>
   </si>
   <si>
-    <t xml:space="preserve">сӡыхьқәа зегь ҭабозаап ԥсышәа аныҟам, аҽаԥсахуеит иара ажәҩангьы алакҭа.</t>
+    <t>сӡыхьқәа зегь ҭабозаап ԥсышәа аныҟам, аҽаԥсахуеит иара ажәҩангьы алакҭа.</t>
   </si>
   <si>
     <t xml:space="preserve"> таким образом, после смерти, как я чувствую себя, меняется надежда небесные.</t>
   </si>
   <si>
-    <t xml:space="preserve">леуарсан уи уамашәа ибон.</t>
+    <t>леуарсан уи уамашәа ибон.</t>
   </si>
   <si>
     <t xml:space="preserve"> леварсан был очень удивлен.</t>
   </si>
   <si>
-    <t xml:space="preserve">даҳшьит ҳәа акәыҵниа ианиԥырҵ, апарк аҿы иԥшыц еиҭа иԥшын.</t>
+    <t>даҳшьит ҳәа акәыҵниа ианиԥырҵ, апарк аҿы иԥшыц еиҭа иԥшын.</t>
   </si>
   <si>
     <t xml:space="preserve"> когда его убили, на время выхода в парк совсем не ожидали</t>
   </si>
   <si>
-    <t xml:space="preserve">абарҭ имҩаԥигоз иқәыларақәа раан кас- кассааи абешлааи иҿаҳахьан</t>
+    <t>абарҭ имҩаԥигоз иқәыларақәа раан кас- кассааи абешлааи иҿаҳахьан</t>
   </si>
   <si>
     <t xml:space="preserve"> в той шумной компании кас- кассайне слышали разбойники</t>
   </si>
   <si>
-    <t xml:space="preserve">лԥынҵа аазыхәхәоуп.</t>
+    <t>лԥынҵа аазыхәхәоуп.</t>
   </si>
   <si>
     <t xml:space="preserve"> у нее повременить список.</t>
   </si>
   <si>
-    <t xml:space="preserve">ҭынч акоманда риҭеит зыхәба.</t>
+    <t>ҭынч акоманда риҭеит зыхәба.</t>
   </si>
   <si>
     <t xml:space="preserve"> миролюбивый команда зухба.</t>
   </si>
   <si>
-    <t xml:space="preserve">шәҭал шәаргьы, амур ԥхоуп, иҳәахит, даҽа аҵәыцак аашьҭыхны илҭарпҟа.</t>
+    <t>шәҭал шәаргьы, амур ԥхоуп, иҳәахит, даҽа аҵәыцак аашьҭыхны илҭарпҟа.</t>
   </si>
   <si>
     <t xml:space="preserve"> войдите же и вы в виноградник мой, и что следовать будет, возьми его, и, взяв жребий, дастся другим.</t>
   </si>
   <si>
-    <t xml:space="preserve">алашьцара иааимнахаанӡа дхынҳәуамызт.</t>
+    <t>алашьцара иааимнахаанӡа дхынҳәуамызт.</t>
   </si>
   <si>
     <t xml:space="preserve"> он не возвращался, пока не наступит тьма.</t>
   </si>
   <si>
-    <t xml:space="preserve">уаашәҩык ар дрылкәыцәаа, ахьшьыцбеиԥш дымҵарсны дигоит иԥсы зыҿҳәарахаз ҳаниф- ԥшӡа.</t>
+    <t>уаашәҩык ар дрылкәыцәаа, ахьшьыцбеиԥш дымҵарсны дигоит иԥсы зыҿҳәарахаз ҳаниф- ԥшӡа.</t>
   </si>
   <si>
     <t xml:space="preserve"> некоторый человек, не владевший ногами, сидел, будучи хром от зависти,</t>
   </si>
   <si>
-    <t xml:space="preserve">амца иадыруа абылроуп.</t>
+    <t>амца иадыруа абылроуп.</t>
   </si>
   <si>
     <t xml:space="preserve"> истина из огня.</t>
   </si>
   <si>
-    <t xml:space="preserve">таҳир хәыҷы ацәа данакы, дааиҽхьнихын, дырҩегь дааигәыдиҳәҳәалеит.</t>
+    <t>таҳир хәыҷы ацәа данакы, дааиҽхьнихын, дырҩегь дааигәыдиҳәҳәалеит.</t>
   </si>
   <si>
     <t xml:space="preserve"> когда он бросил трубку, то сломался, и он обнял их.</t>
   </si>
   <si>
-    <t xml:space="preserve">ҳгәы иадыруа ҳхы иарҵо.</t>
+    <t>ҳгәы иадыруа ҳхы иарҵо.</t>
   </si>
   <si>
     <t xml:space="preserve"> зная сердца.</t>
   </si>
   <si>
-    <t xml:space="preserve">саса уахьҵәҟьа дҩаӡомызт.</t>
+    <t>саса уахьҵәҟьа дҩаӡомызт.</t>
   </si>
   <si>
     <t xml:space="preserve"> саса, скорее всего, не встал.</t>
   </si>
   <si>
-    <t xml:space="preserve">иуцу дызуҭада?!</t>
+    <t>иуцу дызуҭада?!</t>
   </si>
   <si>
     <t xml:space="preserve"> кто со мной?!</t>
   </si>
   <si>
-    <t xml:space="preserve">хҩы заҵәык рцәыртҟәеит акәымзар.</t>
+    <t>хҩы заҵәык рцәыртҟәеит акәымзар.</t>
   </si>
   <si>
     <t xml:space="preserve"> они только изводят его.</t>
   </si>
   <si>
-    <t xml:space="preserve">ҳара, аерманцәа, ахаҳәра ҳшыланхозгьы иҳамаркуане</t>
+    <t>ҳара, аерманцәа, ахаҳәра ҳшыланхозгьы иҳамаркуане</t>
   </si>
   <si>
     <t xml:space="preserve"> мы, армяне, но и ко всем проповедывали</t>
   </si>
   <si>
-    <t xml:space="preserve">сшыцәаз сықәҿызҭыз абжьы</t>
+    <t>сшыцәаз сықәҿызҭыз абжьы</t>
   </si>
   <si>
     <t xml:space="preserve"> голос, который стойко претерпел</t>
   </si>
   <si>
-    <t xml:space="preserve">ажәытә иҟарҵацыз ҿыц еиҭаҟарҵахит!</t>
+    <t>ажәытә иҟарҵацыз ҿыц еиҭаҟарҵахит!</t>
   </si>
   <si>
     <t xml:space="preserve"> как они вновь возобновили прежнюю жизнь!</t>
   </si>
   <si>
-    <t xml:space="preserve">сыпрофессорхарц сҭахуп, саабхаҵкуп, иҳәеит, лҳәашьа ҟаҵо, иҽеидыԥсала дахьгылаз абзагә.</t>
+    <t>сыпрофессорхарц сҭахуп, саабхаҵкуп, иҳәеит, лҳәашьа ҟаҵо, иҽеидыԥсала дахьгылаз абзагә.</t>
   </si>
   <si>
     <t xml:space="preserve"> я хочу стать профессором, думаю, мой перфолент, сказал, поздравляя коллег.</t>
   </si>
   <si>
-    <t xml:space="preserve">аибашьра ҳазлацхрааша ҳаӡбон.</t>
+    <t>аибашьра ҳазлацхрааша ҳаӡбон.</t>
   </si>
   <si>
     <t xml:space="preserve"> мы поддерживали войну.</t>
   </si>
   <si>
-    <t xml:space="preserve">ыу, нан, ӡибнаҟа!</t>
+    <t>ыу, нан, ӡибнаҟа!</t>
   </si>
   <si>
     <t xml:space="preserve"> бабушка, нан, рубина!</t>
   </si>
   <si>
-    <t xml:space="preserve">ара ианаҳҵо атекст аԥхьатәи авариант ауп.</t>
+    <t>ара ианаҳҵо атекст аԥхьатәи авариант ауп.</t>
   </si>
   <si>
     <t xml:space="preserve"> идет предыдущий вариант текста.</t>
@@ -1611,48 +1607,29 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0%"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="4">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1660,311 +1637,416 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
-        <bgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="8">
+    <border/>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="hair"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="hair"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="hair"/>
-      <top/>
-      <bottom style="hair"/>
-      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  </cellStyleXfs>
+  <cellXfs count="17">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="16">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf borderId="2" fillId="2" fontId="2" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf borderId="7" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf borderId="7" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
       <font>
+        <color rgb="FF000000"/>
         <name val="Arial"/>
-        <charset val="1"/>
-        <family val="0"/>
-        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF5EB91E"/>
           <bgColor rgb="FF5EB91E"/>
         </patternFill>
       </fill>
+      <border/>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF000000"/>
         <name val="Arial"/>
-        <charset val="1"/>
-        <family val="0"/>
-        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD4EA6B"/>
           <bgColor rgb="FFD4EA6B"/>
         </patternFill>
       </fill>
+      <border/>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF000000"/>
         <name val="Arial"/>
-        <charset val="1"/>
-        <family val="0"/>
-        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFD428"/>
           <bgColor rgb="FFFFD428"/>
         </patternFill>
       </fill>
+      <border/>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF000000"/>
         <name val="Arial"/>
-        <charset val="1"/>
-        <family val="0"/>
-        <color rgb="FF000000"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF5429"/>
           <bgColor rgb="FFFF5429"/>
         </patternFill>
       </fill>
+      <border/>
     </dxf>
   </dxfs>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFCCCCCC"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFD9D9D9"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFD4EA6B"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF5EB91E"/>
-      <rgbColor rgb="FFFFD428"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF5429"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+  <a:themeElements>
+    <a:clrScheme name="Sheets">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="0000FF"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Sheets">
+      <a:majorFont>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F455"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="58.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="56.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
+    <col customWidth="1" min="1" max="1" width="58.38"/>
+    <col customWidth="1" min="2" max="2" width="56.88"/>
+    <col customWidth="1" min="3" max="3" width="23.25"/>
+    <col customWidth="1" min="4" max="4" width="10.13"/>
+    <col customWidth="1" min="5" max="5" width="14.5"/>
+    <col customWidth="1" min="6" max="6" width="15.63"/>
+    <col customWidth="1" min="7" max="26" width="14.5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1978,71 +2060,54 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" ht="13.5" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7" t="n">
-        <f aca="false">COUNTIF($C$9:$C$263, "OK")/255</f>
-        <v>0</v>
+      <c r="E2" s="7">
+        <f>COUNTIF($C$9:$C$263, "OK")/255</f>
+        <v>0.1058823529</v>
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
+    <row r="3" ht="13.5" customHeight="1">
       <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="7" t="n">
-        <f aca="false">COUNTIF($C$9:$C$263, "A")/255</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
+      <c r="E3" s="7">
+        <f>COUNTIF($C$9:$C$263, "A")/255</f>
+        <v>0.1843137255</v>
+      </c>
+    </row>
+    <row r="4" ht="13.5" customHeight="1">
       <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="7" t="n">
-        <f aca="false">COUNTIF($C$9:$C$263, "B")/255</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
+      <c r="E4" s="7">
+        <f>COUNTIF($C$9:$C$263, "B")/255</f>
+        <v>0.07450980392</v>
+      </c>
+    </row>
+    <row r="5" ht="13.5" customHeight="1">
       <c r="D5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="10" t="n">
-        <f aca="false">COUNTIF($C$9:$C$263, "C")/255</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
+      <c r="E5" s="10">
+        <f>COUNTIF($C$9:$C$263, "C")/255</f>
+        <v>0.6352941176</v>
+      </c>
+    </row>
+    <row r="6" ht="13.5" customHeight="1">
       <c r="D6" s="8"/>
     </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" ht="13.5" customHeight="1"/>
+    <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="11" t="s">
         <v>10</v>
       </c>
@@ -2062,3679 +2127,4730 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="0" t="n">
+      <c r="C9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="14">
         <v>-15.064842</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="0" t="n">
+      <c r="C10" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="14">
         <v>-19.998878</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="0" t="n">
+      <c r="C11" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="14">
         <v>-6.254394</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="0" t="n">
+      <c r="C12" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="14">
         <v>-12.333876</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="0" t="n">
+      <c r="C13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="14">
         <v>-30.289677</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="0" t="n">
+      <c r="C14" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="14">
         <v>-6.067527</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="0" t="n">
+      <c r="C15" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="14">
         <v>-14.711241</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="0" t="n">
+      <c r="C16" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="14">
         <v>-6.144454</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="0" t="n">
+      <c r="C17" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="14">
         <v>-14.705292</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="0" t="n">
+      <c r="C18" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="14">
         <v>-8.845968</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="0" t="n">
+      <c r="C19" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="14">
         <v>-23.373587</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="0" t="n">
+      <c r="C20" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="14">
         <v>-5.908676</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="0" t="n">
+      <c r="C21" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="14">
         <v>-6.987658</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="0" t="n">
+      <c r="C22" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="14">
         <v>-16.31897</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="0" t="n">
+      <c r="C23" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="14">
         <v>-10.912862</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="0" t="n">
+      <c r="C24" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="14">
         <v>-10.728935</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="0" t="n">
+      <c r="C25" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="14">
         <v>-6.189813</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="0" t="n">
+      <c r="C26" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="14">
         <v>-6.935772</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="0" t="n">
+      <c r="C27" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="14">
         <v>-10.678959</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="0" t="n">
+      <c r="C28" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="14">
         <v>-14.654676</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="0" t="n">
+      <c r="C29" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="14">
         <v>-19.830212</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="0" t="n">
+      <c r="C30" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="14">
         <v>-6.469986</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="0" t="n">
+      <c r="C31" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="14">
         <v>-8.159056</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="0" t="n">
+      <c r="C32" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="14">
         <v>-4.785454</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="0" t="n">
+      <c r="C33" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="14">
         <v>-13.160986</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="0" t="n">
+      <c r="C34" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="14">
         <v>-13.041681</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" ht="12.75" customHeight="1">
       <c r="A35" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="0" t="n">
+      <c r="C35" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="14">
         <v>-10.959138</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" ht="12.75" customHeight="1">
       <c r="A36" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="0" t="n">
+      <c r="C36" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="14">
         <v>-9.435273</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" ht="12.75" customHeight="1">
       <c r="A37" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="0" t="n">
+      <c r="C37" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="14">
         <v>-9.432914</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" ht="12.75" customHeight="1">
       <c r="A38" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="0" t="n">
+      <c r="C38" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="14">
         <v>-11.510379</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" ht="12.75" customHeight="1">
       <c r="A39" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="0" t="n">
+      <c r="C39" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="14">
         <v>-20.62512</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" ht="12.75" customHeight="1">
       <c r="A40" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="0" t="n">
+      <c r="C40" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="14">
         <v>-7.378895</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" ht="12.75" customHeight="1">
       <c r="A41" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="0" t="n">
+      <c r="C41" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="14">
         <v>-8.593046</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" ht="12.75" customHeight="1">
       <c r="A42" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="14"/>
-      <c r="D42" s="0" t="n">
+      <c r="C42" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="14">
         <v>-10.294157</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" ht="12.75" customHeight="1">
       <c r="A43" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="0" t="n">
+      <c r="C43" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="14">
         <v>-22.440825</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" ht="12.75" customHeight="1">
       <c r="A44" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="14"/>
-      <c r="D44" s="0" t="n">
+      <c r="C44" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="14">
         <v>-19.524223</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" ht="12.75" customHeight="1">
       <c r="A45" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C45" s="14"/>
-      <c r="D45" s="0" t="n">
+      <c r="C45" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="14">
         <v>-12.956303</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" ht="12.75" customHeight="1">
       <c r="A46" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C46" s="14"/>
-      <c r="D46" s="0" t="n">
+      <c r="C46" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="14">
         <v>-10.617325</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" ht="12.75" customHeight="1">
       <c r="A47" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C47" s="14"/>
-      <c r="D47" s="0" t="n">
+      <c r="C47" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="14">
         <v>-20.728273</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" ht="12.75" customHeight="1">
       <c r="A48" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C48" s="14"/>
-      <c r="D48" s="0" t="n">
+      <c r="C48" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="14">
         <v>-6.552161</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" ht="12.75" customHeight="1">
       <c r="A49" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C49" s="14"/>
-      <c r="D49" s="0" t="n">
+      <c r="C49" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="14">
         <v>-5.523206</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" ht="12.75" customHeight="1">
       <c r="A50" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C50" s="14"/>
-      <c r="D50" s="0" t="n">
+      <c r="C50" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="14">
         <v>-6.549099</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" ht="12.75" customHeight="1">
       <c r="A51" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="14"/>
-      <c r="D51" s="0" t="n">
+      <c r="C51" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="14">
         <v>-21.949421</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" ht="12.75" customHeight="1">
       <c r="A52" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C52" s="14"/>
-      <c r="D52" s="0" t="n">
+      <c r="C52" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="14">
         <v>-13.643909</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" ht="12.75" customHeight="1">
       <c r="A53" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="C53" s="14"/>
-      <c r="D53" s="0" t="n">
+      <c r="C53" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="14">
         <v>-12.232562</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" ht="12.75" customHeight="1">
       <c r="A54" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C54" s="14"/>
-      <c r="D54" s="0" t="n">
+      <c r="C54" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="14">
         <v>-1.862609</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" ht="12.75" customHeight="1">
       <c r="A55" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="C55" s="14"/>
-      <c r="D55" s="0" t="n">
+      <c r="C55" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="14">
         <v>-5.352446</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" ht="12.75" customHeight="1">
       <c r="A56" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="C56" s="14"/>
-      <c r="D56" s="0" t="n">
+      <c r="C56" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="14">
         <v>-10.593581</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" ht="12.75" customHeight="1">
       <c r="A57" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="C57" s="14"/>
-      <c r="D57" s="0" t="n">
+      <c r="C57" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="14">
         <v>-4.746859</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" ht="12.75" customHeight="1">
       <c r="A58" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="C58" s="14"/>
-      <c r="D58" s="0" t="n">
+      <c r="C58" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="14">
         <v>-12.3089</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" ht="12.75" customHeight="1">
       <c r="A59" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="C59" s="14"/>
-      <c r="D59" s="0" t="n">
+      <c r="C59" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="14">
         <v>-20.166504</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" ht="12.75" customHeight="1">
       <c r="A60" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="C60" s="14"/>
-      <c r="D60" s="0" t="n">
+      <c r="C60" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="14">
         <v>-10.593797</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" ht="12.75" customHeight="1">
       <c r="A61" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C61" s="14"/>
-      <c r="D61" s="0" t="n">
+      <c r="C61" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="14">
         <v>-10.644281</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" ht="12.75" customHeight="1">
       <c r="A62" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C62" s="14"/>
-      <c r="D62" s="0" t="n">
+      <c r="C62" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="14">
         <v>-2.239403</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" ht="12.75" customHeight="1">
       <c r="A63" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="C63" s="14"/>
-      <c r="D63" s="0" t="n">
+      <c r="C63" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="14">
         <v>-5.218282</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" ht="12.75" customHeight="1">
       <c r="A64" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="C64" s="14"/>
-      <c r="D64" s="0" t="n">
+      <c r="C64" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="14">
         <v>-12.54251</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" ht="12.75" customHeight="1">
       <c r="A65" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="C65" s="14"/>
-      <c r="D65" s="0" t="n">
+      <c r="C65" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="14">
         <v>-3.938524</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" ht="12.75" customHeight="1">
       <c r="A66" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="C66" s="14"/>
-      <c r="D66" s="0" t="n">
+      <c r="C66" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="14">
         <v>-24.846251</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" ht="12.75" customHeight="1">
       <c r="A67" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="C67" s="14"/>
-      <c r="D67" s="0" t="n">
+      <c r="C67" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="14">
         <v>-1.807638</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" ht="12.75" customHeight="1">
       <c r="A68" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="B68" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="C68" s="14"/>
-      <c r="D68" s="0" t="n">
+      <c r="C68" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="14">
         <v>-8.306674</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" ht="12.75" customHeight="1">
       <c r="A69" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B69" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="C69" s="14"/>
-      <c r="D69" s="0" t="n">
+      <c r="C69" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="14">
         <v>-9.074951</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" ht="12.75" customHeight="1">
       <c r="A70" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B70" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="C70" s="14"/>
-      <c r="D70" s="0" t="n">
+      <c r="C70" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="14">
         <v>-7.357095</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" ht="12.75" customHeight="1">
       <c r="A71" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="B71" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="C71" s="14"/>
-      <c r="D71" s="0" t="n">
+      <c r="C71" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="14">
         <v>-11.356088</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" ht="12.75" customHeight="1">
       <c r="A72" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="B72" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="C72" s="14"/>
-      <c r="D72" s="0" t="n">
+      <c r="C72" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="14">
         <v>-1.120566</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" ht="12.75" customHeight="1">
       <c r="A73" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="B73" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="C73" s="14"/>
-      <c r="D73" s="0" t="n">
+      <c r="C73" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="14">
         <v>-24.38624</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" ht="12.75" customHeight="1">
       <c r="A74" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="B74" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="C74" s="14"/>
-      <c r="D74" s="0" t="n">
+      <c r="C74" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="14">
         <v>-6.632557</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" ht="12.75" customHeight="1">
       <c r="A75" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="B75" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="C75" s="14"/>
-      <c r="D75" s="0" t="n">
+      <c r="C75" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="14">
         <v>-6.059063</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" ht="12.75" customHeight="1">
       <c r="A76" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="B76" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="C76" s="14"/>
-      <c r="D76" s="0" t="n">
+      <c r="C76" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="14">
         <v>-6.443359</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" ht="12.75" customHeight="1">
       <c r="A77" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="B77" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="C77" s="14"/>
-      <c r="D77" s="0" t="n">
+      <c r="C77" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="14">
         <v>-4.874355</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" ht="12.75" customHeight="1">
       <c r="A78" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="B78" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="C78" s="14"/>
-      <c r="D78" s="0" t="n">
+      <c r="C78" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="14">
         <v>-20.141909</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" ht="12.75" customHeight="1">
       <c r="A79" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="B79" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="C79" s="14"/>
-      <c r="D79" s="0" t="n">
+      <c r="C79" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" s="14">
         <v>-5.727359</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" ht="12.75" customHeight="1">
       <c r="A80" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="B80" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="C80" s="14"/>
-      <c r="D80" s="0" t="n">
+      <c r="C80" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="14">
         <v>-18.662731</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" ht="12.75" customHeight="1">
       <c r="A81" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="B81" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="C81" s="14"/>
-      <c r="D81" s="0" t="n">
+      <c r="C81" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="14">
         <v>-3.338736</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" ht="12.75" customHeight="1">
       <c r="A82" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="B82" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="C82" s="14"/>
-      <c r="D82" s="0" t="n">
+      <c r="C82" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="14">
         <v>-9.180112</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" ht="12.75" customHeight="1">
       <c r="A83" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="B83" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="C83" s="14"/>
-      <c r="D83" s="0" t="n">
+      <c r="C83" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="14">
         <v>-2.859193</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" ht="12.75" customHeight="1">
       <c r="A84" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="B84" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="C84" s="14"/>
-      <c r="D84" s="0" t="n">
+      <c r="C84" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="14">
         <v>-8.753551</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" ht="12.75" customHeight="1">
       <c r="A85" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="B85" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="C85" s="14"/>
-      <c r="D85" s="0" t="n">
+      <c r="C85" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="14">
         <v>-18.514925</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" ht="12.75" customHeight="1">
       <c r="A86" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="B86" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C86" s="14"/>
-      <c r="D86" s="0" t="n">
+      <c r="C86" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="14">
         <v>-2.504482</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" ht="12.75" customHeight="1">
       <c r="A87" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="B87" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="C87" s="14"/>
-      <c r="D87" s="0" t="n">
+      <c r="C87" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="14">
         <v>-14.09967</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" ht="12.75" customHeight="1">
       <c r="A88" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="B88" s="0" t="s">
+      <c r="B88" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="C88" s="14"/>
-      <c r="D88" s="0" t="n">
+      <c r="C88" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" s="14">
         <v>-2.807416</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" ht="12.75" customHeight="1">
       <c r="A89" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="B89" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="C89" s="14"/>
-      <c r="D89" s="0" t="n">
+      <c r="C89" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" s="14">
         <v>-6.597188</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" ht="12.75" customHeight="1">
       <c r="A90" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="B90" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="C90" s="14"/>
-      <c r="D90" s="0" t="n">
+      <c r="C90" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="14">
         <v>-18.645123</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" ht="12.75" customHeight="1">
       <c r="A91" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="B91" s="0" t="s">
+      <c r="B91" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="C91" s="14"/>
-      <c r="D91" s="0" t="n">
+      <c r="C91" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="14">
         <v>-9.452602</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="92" ht="12.75" customHeight="1">
       <c r="A92" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="B92" s="0" t="s">
+      <c r="B92" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="C92" s="14"/>
-      <c r="D92" s="0" t="n">
+      <c r="C92" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="14">
         <v>-7.278611</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="93" ht="12.75" customHeight="1">
       <c r="A93" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="B93" s="0" t="s">
+      <c r="B93" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="C93" s="14"/>
-      <c r="D93" s="0" t="n">
+      <c r="C93" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" s="14">
         <v>-5.660374</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="94" ht="12.75" customHeight="1">
       <c r="A94" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="B94" s="0" t="s">
+      <c r="B94" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="C94" s="14"/>
-      <c r="D94" s="0" t="n">
+      <c r="C94" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="14">
         <v>-8.190646</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="95" ht="12.75" customHeight="1">
       <c r="A95" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="B95" s="0" t="s">
+      <c r="B95" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="C95" s="14"/>
-      <c r="D95" s="0" t="n">
+      <c r="C95" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" s="14">
         <v>-13.754396</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="96" ht="12.75" customHeight="1">
       <c r="A96" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="B96" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="C96" s="14"/>
-      <c r="D96" s="0" t="n">
+      <c r="C96" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="14">
         <v>-17.178558</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="97" ht="12.75" customHeight="1">
       <c r="A97" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="B97" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="C97" s="14"/>
-      <c r="D97" s="0" t="n">
+      <c r="C97" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="14">
         <v>-22.017006</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="98" ht="12.75" customHeight="1">
       <c r="A98" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="B98" s="0" t="s">
+      <c r="B98" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="C98" s="14"/>
-      <c r="D98" s="0" t="n">
+      <c r="C98" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98" s="14">
         <v>-4.777613</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="99" ht="12.75" customHeight="1">
       <c r="A99" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="B99" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="C99" s="14"/>
-      <c r="D99" s="0" t="n">
+      <c r="C99" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="14">
         <v>-11.257434</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="100" ht="12.75" customHeight="1">
       <c r="A100" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="B100" s="0" t="s">
+      <c r="B100" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="C100" s="14"/>
-      <c r="D100" s="0" t="n">
+      <c r="C100" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="14">
         <v>-15.47692</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="101" ht="12.75" customHeight="1">
       <c r="A101" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="B101" s="0" t="s">
+      <c r="B101" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="C101" s="14"/>
-      <c r="D101" s="0" t="n">
+      <c r="C101" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="14">
         <v>-13.592758</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="102" ht="12.75" customHeight="1">
       <c r="A102" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="B102" s="0" t="s">
+      <c r="B102" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="C102" s="14"/>
-      <c r="D102" s="0" t="n">
+      <c r="C102" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102" s="14">
         <v>-6.348107</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="103" ht="12.75" customHeight="1">
       <c r="A103" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="B103" s="0" t="s">
+      <c r="B103" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="C103" s="14"/>
-      <c r="D103" s="0" t="n">
+      <c r="C103" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="14">
         <v>-17.213507</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="104" ht="12.75" customHeight="1">
       <c r="A104" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="B104" s="0" t="s">
+      <c r="B104" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="C104" s="14"/>
-      <c r="D104" s="0" t="n">
+      <c r="C104" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104" s="14">
         <v>-10.779181</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="105" ht="12.75" customHeight="1">
       <c r="A105" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="B105" s="0" t="s">
+      <c r="B105" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="C105" s="14"/>
-      <c r="D105" s="0" t="n">
+      <c r="C105" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D105" s="14">
         <v>-2.081456</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="106" ht="12.75" customHeight="1">
       <c r="A106" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="B106" s="0" t="s">
+      <c r="B106" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="C106" s="14"/>
-      <c r="D106" s="0" t="n">
+      <c r="C106" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106" s="14">
         <v>-11.999055</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="107" ht="12.75" customHeight="1">
       <c r="A107" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="B107" s="0" t="s">
+      <c r="B107" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="C107" s="14"/>
-      <c r="D107" s="0" t="n">
+      <c r="C107" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="14">
         <v>-20.75519</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="108" ht="12.75" customHeight="1">
       <c r="A108" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="B108" s="0" t="s">
+      <c r="B108" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="C108" s="14"/>
-      <c r="D108" s="0" t="n">
+      <c r="C108" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="14">
         <v>-9.422607</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="109" ht="12.75" customHeight="1">
       <c r="A109" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="B109" s="0" t="s">
+      <c r="B109" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="C109" s="14"/>
-      <c r="D109" s="0" t="n">
+      <c r="C109" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109" s="14">
         <v>-1.292716</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="110" ht="12.75" customHeight="1">
       <c r="A110" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="B110" s="0" t="s">
+      <c r="B110" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="C110" s="14"/>
-      <c r="D110" s="0" t="n">
+      <c r="C110" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="14">
         <v>-17.679373</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="111" ht="12.75" customHeight="1">
       <c r="A111" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="B111" s="0" t="s">
+      <c r="B111" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="C111" s="14"/>
-      <c r="D111" s="0" t="n">
+      <c r="C111" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="14">
         <v>-7.82951</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="112" ht="12.75" customHeight="1">
       <c r="A112" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="B112" s="0" t="s">
+      <c r="B112" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="C112" s="14"/>
-      <c r="D112" s="0" t="n">
+      <c r="C112" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="14">
         <v>-6.910029</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="113" ht="12.75" customHeight="1">
       <c r="A113" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="B113" s="0" t="s">
+      <c r="B113" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="C113" s="14"/>
-      <c r="D113" s="0" t="n">
+      <c r="C113" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" s="14">
         <v>-7.173606</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="114" ht="12.75" customHeight="1">
       <c r="A114" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="B114" s="0" t="s">
+      <c r="B114" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="C114" s="14"/>
-      <c r="D114" s="0" t="n">
+      <c r="C114" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="14">
         <v>-23.865791</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="115" ht="12.75" customHeight="1">
       <c r="A115" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="B115" s="0" t="s">
+      <c r="B115" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="C115" s="14"/>
-      <c r="D115" s="0" t="n">
+      <c r="C115" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="14">
         <v>-28.110891</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="116" ht="12.75" customHeight="1">
       <c r="A116" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="B116" s="0" t="s">
+      <c r="B116" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="C116" s="14"/>
-      <c r="D116" s="0" t="n">
+      <c r="C116" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="14">
         <v>-9.017548</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="117" ht="12.75" customHeight="1">
       <c r="A117" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="B117" s="0" t="s">
+      <c r="B117" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="C117" s="14"/>
-      <c r="D117" s="0" t="n">
+      <c r="C117" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="14">
         <v>-13.899189</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="118" ht="12.75" customHeight="1">
       <c r="A118" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="B118" s="0" t="s">
+      <c r="B118" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="C118" s="14"/>
-      <c r="D118" s="0" t="n">
+      <c r="C118" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D118" s="14">
         <v>-3.12992</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="119" ht="12.75" customHeight="1">
       <c r="A119" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="B119" s="0" t="s">
+      <c r="B119" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="C119" s="14"/>
-      <c r="D119" s="0" t="n">
+      <c r="C119" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" s="14">
         <v>-9.935709</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="120" ht="12.75" customHeight="1">
       <c r="A120" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="B120" s="0" t="s">
+      <c r="B120" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="C120" s="14"/>
-      <c r="D120" s="0" t="n">
+      <c r="C120" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D120" s="14">
         <v>-4.462554</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="121" ht="12.75" customHeight="1">
       <c r="A121" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="B121" s="0" t="s">
+      <c r="B121" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="C121" s="14"/>
-      <c r="D121" s="0" t="n">
+      <c r="C121" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D121" s="14">
         <v>-2.623697</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="122" ht="12.75" customHeight="1">
       <c r="A122" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="B122" s="0" t="s">
+      <c r="B122" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="C122" s="14"/>
-      <c r="D122" s="0" t="n">
+      <c r="C122" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="14">
         <v>-12.191505</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="123" ht="12.75" customHeight="1">
       <c r="A123" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="B123" s="0" t="s">
+      <c r="B123" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="C123" s="14"/>
-      <c r="D123" s="0" t="n">
+      <c r="C123" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="14">
         <v>-7.079466</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="124" ht="12.75" customHeight="1">
       <c r="A124" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="B124" s="0" t="s">
+      <c r="B124" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="C124" s="14"/>
-      <c r="D124" s="0" t="n">
+      <c r="C124" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D124" s="14">
         <v>-2.373612</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="125" ht="12.75" customHeight="1">
       <c r="A125" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="B125" s="0" t="s">
+      <c r="B125" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="C125" s="14"/>
-      <c r="D125" s="0" t="n">
+      <c r="C125" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D125" s="14">
         <v>-1.740417</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="126" ht="12.75" customHeight="1">
       <c r="A126" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="B126" s="0" t="s">
+      <c r="B126" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="C126" s="14"/>
-      <c r="D126" s="0" t="n">
+      <c r="C126" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="14">
         <v>-19.51564</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="127" ht="12.75" customHeight="1">
       <c r="A127" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="B127" s="0" t="s">
+      <c r="B127" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="C127" s="14"/>
-      <c r="D127" s="0" t="n">
+      <c r="C127" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="14">
         <v>-17.448063</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="128" ht="12.75" customHeight="1">
       <c r="A128" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="B128" s="0" t="s">
+      <c r="B128" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="C128" s="14"/>
-      <c r="D128" s="0" t="n">
+      <c r="C128" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="14">
         <v>-11.561208</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="129" ht="12.75" customHeight="1">
       <c r="A129" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="B129" s="0" t="s">
+      <c r="B129" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="C129" s="14"/>
-      <c r="D129" s="0" t="n">
+      <c r="C129" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="14">
         <v>-15.500088</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="130" ht="12.75" customHeight="1">
       <c r="A130" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="B130" s="0" t="s">
+      <c r="B130" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="C130" s="14"/>
-      <c r="D130" s="0" t="n">
+      <c r="C130" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="14">
         <v>-5.833067</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="131" ht="12.75" customHeight="1">
       <c r="A131" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="B131" s="0" t="s">
+      <c r="B131" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="C131" s="14"/>
-      <c r="D131" s="0" t="n">
+      <c r="C131" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D131" s="14">
         <v>-12.278006</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="132" ht="12.75" customHeight="1">
       <c r="A132" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="B132" s="0" t="s">
+      <c r="B132" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="C132" s="14"/>
-      <c r="D132" s="0" t="n">
+      <c r="C132" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D132" s="14">
         <v>-9.332382</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="133" ht="12.75" customHeight="1">
       <c r="A133" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="B133" s="0" t="s">
+      <c r="B133" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="C133" s="14"/>
-      <c r="D133" s="0" t="n">
+      <c r="C133" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D133" s="14">
         <v>-3.338428</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="134" ht="12.75" customHeight="1">
       <c r="A134" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="B134" s="0" t="s">
+      <c r="B134" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="C134" s="14"/>
-      <c r="D134" s="0" t="n">
+      <c r="C134" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D134" s="14">
         <v>-11.129417</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="135" ht="12.75" customHeight="1">
       <c r="A135" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="B135" s="0" t="s">
+      <c r="B135" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="C135" s="14"/>
-      <c r="D135" s="0" t="n">
+      <c r="C135" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D135" s="14">
         <v>-18.191303</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="136" ht="12.75" customHeight="1">
       <c r="A136" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="B136" s="0" t="s">
+      <c r="B136" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="C136" s="14"/>
-      <c r="D136" s="0" t="n">
+      <c r="C136" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="14">
         <v>-13.898367</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="137" ht="12.75" customHeight="1">
       <c r="A137" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="B137" s="0" t="s">
+      <c r="B137" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="C137" s="14"/>
-      <c r="D137" s="0" t="n">
+      <c r="C137" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="14">
         <v>-21.366289</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="138" ht="12.75" customHeight="1">
       <c r="A138" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="B138" s="0" t="s">
+      <c r="B138" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="C138" s="14"/>
-      <c r="D138" s="0" t="n">
+      <c r="C138" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D138" s="14">
         <v>-4.152591</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="139" ht="12.75" customHeight="1">
       <c r="A139" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="B139" s="0" t="s">
+      <c r="B139" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="C139" s="14"/>
-      <c r="D139" s="0" t="n">
+      <c r="C139" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="14">
         <v>-5.323892</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="140" ht="12.75" customHeight="1">
       <c r="A140" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="B140" s="0" t="s">
+      <c r="B140" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="C140" s="14"/>
-      <c r="D140" s="0" t="n">
+      <c r="C140" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="14">
         <v>-16.678364</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="141" ht="12.75" customHeight="1">
       <c r="A141" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="B141" s="0" t="s">
+      <c r="B141" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="C141" s="14"/>
-      <c r="D141" s="0" t="n">
+      <c r="C141" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="14">
         <v>-7.682549</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="142" ht="12.75" customHeight="1">
       <c r="A142" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="B142" s="0" t="s">
+      <c r="B142" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="C142" s="14"/>
-      <c r="D142" s="0" t="n">
+      <c r="C142" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="14">
         <v>-4.637291</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="143" ht="12.75" customHeight="1">
       <c r="A143" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="B143" s="0" t="s">
+      <c r="B143" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="C143" s="14"/>
-      <c r="D143" s="0" t="n">
+      <c r="C143" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D143" s="14">
         <v>-7.676635</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="144" ht="12.75" customHeight="1">
       <c r="A144" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="B144" s="0" t="s">
+      <c r="B144" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="C144" s="14"/>
-      <c r="D144" s="0" t="n">
+      <c r="C144" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="14">
         <v>-9.364107</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="145" ht="12.75" customHeight="1">
       <c r="A145" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="B145" s="0" t="s">
+      <c r="B145" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="C145" s="14"/>
-      <c r="D145" s="0" t="n">
+      <c r="C145" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D145" s="14">
         <v>-3.917899</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="146" ht="12.75" customHeight="1">
       <c r="A146" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="B146" s="0" t="s">
+      <c r="B146" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="C146" s="14"/>
-      <c r="D146" s="0" t="n">
+      <c r="C146" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D146" s="14">
         <v>-4.227817</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="147" ht="12.75" customHeight="1">
       <c r="A147" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="B147" s="0" t="s">
+      <c r="B147" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="C147" s="14"/>
-      <c r="D147" s="0" t="n">
+      <c r="C147" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D147" s="14">
         <v>-18.207949</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="148" ht="12.75" customHeight="1">
       <c r="A148" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="B148" s="0" t="s">
+      <c r="B148" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="C148" s="14"/>
-      <c r="D148" s="0" t="n">
+      <c r="C148" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148" s="14">
         <v>-2.550832</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="149" ht="12.75" customHeight="1">
       <c r="A149" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="B149" s="0" t="s">
+      <c r="B149" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="C149" s="14"/>
-      <c r="D149" s="0" t="n">
+      <c r="C149" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="14">
         <v>-12.614557</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="150" ht="12.75" customHeight="1">
       <c r="A150" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="B150" s="0" t="s">
+      <c r="B150" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="C150" s="14"/>
-      <c r="D150" s="0" t="n">
+      <c r="C150" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D150" s="14">
         <v>-10.562798</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="151" ht="12.75" customHeight="1">
       <c r="A151" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="B151" s="0" t="s">
+      <c r="B151" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="C151" s="14"/>
-      <c r="D151" s="0" t="n">
+      <c r="C151" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="14">
         <v>-5.292717</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="152" ht="12.75" customHeight="1">
       <c r="A152" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="B152" s="0" t="s">
+      <c r="B152" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="C152" s="14"/>
-      <c r="D152" s="0" t="n">
+      <c r="C152" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D152" s="14">
         <v>-18.811943</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="153" ht="12.75" customHeight="1">
       <c r="A153" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="B153" s="0" t="s">
+      <c r="B153" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="C153" s="14"/>
-      <c r="D153" s="0" t="n">
+      <c r="C153" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D153" s="14">
         <v>-4.920273</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="154" ht="12.75" customHeight="1">
       <c r="A154" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="B154" s="0" t="s">
+      <c r="B154" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="C154" s="14"/>
-      <c r="D154" s="0" t="n">
+      <c r="C154" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="14">
         <v>-10.450993</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="155" ht="12.75" customHeight="1">
       <c r="A155" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="B155" s="0" t="s">
+      <c r="B155" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="C155" s="14"/>
-      <c r="D155" s="0" t="n">
+      <c r="C155" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="14">
         <v>-23.027756</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="156" ht="12.75" customHeight="1">
       <c r="A156" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="B156" s="0" t="s">
+      <c r="B156" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="C156" s="14"/>
-      <c r="D156" s="0" t="n">
+      <c r="C156" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D156" s="14">
         <v>-6.828304</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="157" ht="12.75" customHeight="1">
       <c r="A157" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="B157" s="0" t="s">
+      <c r="B157" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="C157" s="14"/>
-      <c r="D157" s="0" t="n">
+      <c r="C157" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="14">
         <v>-8.629434</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="158" ht="12.75" customHeight="1">
       <c r="A158" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="B158" s="0" t="s">
+      <c r="B158" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="C158" s="14"/>
-      <c r="D158" s="0" t="n">
+      <c r="C158" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="14">
         <v>-20.767727</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="159" ht="12.75" customHeight="1">
       <c r="A159" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="B159" s="0" t="s">
+      <c r="B159" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="C159" s="14"/>
-      <c r="D159" s="0" t="n">
+      <c r="C159" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="14">
         <v>-8.109913</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="160" ht="12.75" customHeight="1">
       <c r="A160" s="13" t="s">
         <v>318</v>
       </c>
-      <c r="B160" s="0" t="s">
+      <c r="B160" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="C160" s="14"/>
-      <c r="D160" s="0" t="n">
+      <c r="C160" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="14">
         <v>-6.301604</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="161" ht="12.75" customHeight="1">
       <c r="A161" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="B161" s="0" t="s">
+      <c r="B161" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="C161" s="14"/>
-      <c r="D161" s="0" t="n">
+      <c r="C161" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="14">
         <v>-6.255212</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="162" ht="12.75" customHeight="1">
       <c r="A162" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="B162" s="0" t="s">
+      <c r="B162" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="C162" s="14"/>
-      <c r="D162" s="0" t="n">
+      <c r="C162" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="14">
         <v>-0.179785</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="163" ht="12.75" customHeight="1">
       <c r="A163" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="B163" s="0" t="s">
+      <c r="B163" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="C163" s="14"/>
-      <c r="D163" s="0" t="n">
+      <c r="C163" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="14">
         <v>-8.947755</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="164" ht="12.75" customHeight="1">
       <c r="A164" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="B164" s="0" t="s">
+      <c r="B164" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="C164" s="14"/>
-      <c r="D164" s="0" t="n">
+      <c r="C164" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="14">
         <v>-27.871868</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="165" ht="12.75" customHeight="1">
       <c r="A165" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="B165" s="0" t="s">
+      <c r="B165" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="C165" s="14"/>
-      <c r="D165" s="0" t="n">
+      <c r="C165" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="14">
         <v>-11.757116</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="166" ht="12.75" customHeight="1">
       <c r="A166" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="B166" s="0" t="s">
+      <c r="B166" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="C166" s="14"/>
-      <c r="D166" s="0" t="n">
+      <c r="C166" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="14">
         <v>-8.610485</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="167" ht="12.75" customHeight="1">
       <c r="A167" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="B167" s="0" t="s">
+      <c r="B167" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="C167" s="14"/>
-      <c r="D167" s="0" t="n">
+      <c r="C167" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="14">
         <v>-16.144535</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="168" ht="12.75" customHeight="1">
       <c r="A168" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="B168" s="0" t="s">
+      <c r="B168" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="C168" s="14"/>
-      <c r="D168" s="0" t="n">
+      <c r="C168" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="14">
         <v>-14.938411</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="169" ht="12.75" customHeight="1">
       <c r="A169" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="B169" s="0" t="s">
+      <c r="B169" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="C169" s="14"/>
-      <c r="D169" s="0" t="n">
+      <c r="C169" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D169" s="14">
         <v>-8.350466</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="170" ht="12.75" customHeight="1">
       <c r="A170" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="B170" s="0" t="s">
+      <c r="B170" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="C170" s="14"/>
-      <c r="D170" s="0" t="n">
+      <c r="C170" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D170" s="14">
         <v>-5.105698</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="171" ht="12.75" customHeight="1">
       <c r="A171" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="B171" s="0" t="s">
+      <c r="B171" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="C171" s="14"/>
-      <c r="D171" s="0" t="n">
+      <c r="C171" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="14">
         <v>-15.302095</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="172" ht="12.75" customHeight="1">
       <c r="A172" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="B172" s="0" t="s">
+      <c r="B172" s="14" t="s">
         <v>343</v>
       </c>
-      <c r="C172" s="14"/>
-      <c r="D172" s="0" t="n">
+      <c r="C172" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="14">
         <v>-10.73418</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="173" ht="12.75" customHeight="1">
       <c r="A173" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="B173" s="0" t="s">
+      <c r="B173" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="C173" s="14"/>
-      <c r="D173" s="0" t="n">
+      <c r="C173" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D173" s="14">
         <v>-4.65468</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="174" ht="12.75" customHeight="1">
       <c r="A174" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="B174" s="0" t="s">
+      <c r="B174" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="C174" s="14"/>
-      <c r="D174" s="0" t="n">
+      <c r="C174" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" s="14">
         <v>-17.082779</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="175" ht="12.75" customHeight="1">
       <c r="A175" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="B175" s="0" t="s">
+      <c r="B175" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="C175" s="14"/>
-      <c r="D175" s="0" t="n">
+      <c r="C175" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" s="14">
         <v>-16.882992</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="176" ht="12.75" customHeight="1">
       <c r="A176" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="B176" s="0" t="s">
+      <c r="B176" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="C176" s="14"/>
-      <c r="D176" s="0" t="n">
+      <c r="C176" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D176" s="14">
         <v>-12.25057</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="177" ht="12.75" customHeight="1">
       <c r="A177" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="B177" s="0" t="s">
+      <c r="B177" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="C177" s="14"/>
-      <c r="D177" s="0" t="n">
+      <c r="C177" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="14">
         <v>-9.437716</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="178" ht="12.75" customHeight="1">
       <c r="A178" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="B178" s="0" t="s">
+      <c r="B178" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="C178" s="14"/>
-      <c r="D178" s="0" t="n">
+      <c r="C178" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" s="14">
         <v>-5.539958</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="179" ht="12.75" customHeight="1">
       <c r="A179" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="B179" s="0" t="s">
+      <c r="B179" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="C179" s="14"/>
-      <c r="D179" s="0" t="n">
+      <c r="C179" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" s="14">
         <v>-4.260259</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="180" ht="12.75" customHeight="1">
       <c r="A180" s="13" t="s">
         <v>358</v>
       </c>
-      <c r="B180" s="0" t="s">
+      <c r="B180" s="14" t="s">
         <v>359</v>
       </c>
-      <c r="C180" s="14"/>
-      <c r="D180" s="0" t="n">
+      <c r="C180" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180" s="14">
         <v>-5.848882</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="181" ht="12.75" customHeight="1">
       <c r="A181" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="B181" s="0" t="s">
+      <c r="B181" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="C181" s="14"/>
-      <c r="D181" s="0" t="n">
+      <c r="C181" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D181" s="14">
         <v>-17.356564</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="182" ht="12.75" customHeight="1">
       <c r="A182" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="B182" s="0" t="s">
+      <c r="B182" s="14" t="s">
         <v>363</v>
       </c>
-      <c r="C182" s="14"/>
-      <c r="D182" s="0" t="n">
+      <c r="C182" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D182" s="14">
         <v>-8.861169</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="183" ht="12.75" customHeight="1">
       <c r="A183" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="B183" s="0" t="s">
+      <c r="B183" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="C183" s="14"/>
-      <c r="D183" s="0" t="n">
+      <c r="C183" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" s="14">
         <v>-5.407864</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="184" ht="12.75" customHeight="1">
       <c r="A184" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="B184" s="0" t="s">
+      <c r="B184" s="14" t="s">
         <v>367</v>
       </c>
-      <c r="C184" s="14"/>
-      <c r="D184" s="0" t="n">
+      <c r="C184" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" s="14">
         <v>-4.329374</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="185" ht="12.75" customHeight="1">
       <c r="A185" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="B185" s="0" t="s">
+      <c r="B185" s="14" t="s">
         <v>369</v>
       </c>
-      <c r="C185" s="14"/>
-      <c r="D185" s="0" t="n">
+      <c r="C185" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" s="14">
         <v>-9.426005</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="186" ht="12.75" customHeight="1">
       <c r="A186" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="B186" s="0" t="s">
+      <c r="B186" s="14" t="s">
         <v>371</v>
       </c>
-      <c r="C186" s="14"/>
-      <c r="D186" s="0" t="n">
+      <c r="C186" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D186" s="14">
         <v>-7.049429</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="187" ht="12.75" customHeight="1">
       <c r="A187" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="B187" s="0" t="s">
+      <c r="B187" s="14" t="s">
         <v>373</v>
       </c>
-      <c r="C187" s="14"/>
-      <c r="D187" s="0" t="n">
+      <c r="C187" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187" s="14">
         <v>-9.957476</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="188" ht="12.75" customHeight="1">
       <c r="A188" s="13" t="s">
         <v>374</v>
       </c>
-      <c r="B188" s="0" t="s">
+      <c r="B188" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="C188" s="14"/>
-      <c r="D188" s="0" t="n">
+      <c r="C188" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" s="14">
         <v>-15.082711</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="189" ht="12.75" customHeight="1">
       <c r="A189" s="13" t="s">
         <v>376</v>
       </c>
-      <c r="B189" s="0" t="s">
+      <c r="B189" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="C189" s="14"/>
-      <c r="D189" s="0" t="n">
+      <c r="C189" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" s="14">
         <v>-4.50828</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="190" ht="12.75" customHeight="1">
       <c r="A190" s="13" t="s">
         <v>378</v>
       </c>
-      <c r="B190" s="0" t="s">
+      <c r="B190" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="C190" s="14"/>
-      <c r="D190" s="0" t="n">
+      <c r="C190" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D190" s="14">
         <v>-5.853317</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="191" ht="12.75" customHeight="1">
       <c r="A191" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="B191" s="0" t="s">
+      <c r="B191" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="C191" s="14"/>
-      <c r="D191" s="0" t="n">
+      <c r="C191" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D191" s="14">
         <v>-13.254848</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="192" ht="12.75" customHeight="1">
       <c r="A192" s="13" t="s">
         <v>382</v>
       </c>
-      <c r="B192" s="0" t="s">
+      <c r="B192" s="14" t="s">
         <v>383</v>
       </c>
-      <c r="C192" s="14"/>
-      <c r="D192" s="0" t="n">
+      <c r="C192" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D192" s="14">
         <v>-25.39699</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="193" ht="12.75" customHeight="1">
       <c r="A193" s="13" t="s">
         <v>384</v>
       </c>
-      <c r="B193" s="0" t="s">
+      <c r="B193" s="14" t="s">
         <v>385</v>
       </c>
-      <c r="C193" s="14"/>
-      <c r="D193" s="0" t="n">
+      <c r="C193" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D193" s="14">
         <v>-16.972139</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="194" ht="12.75" customHeight="1">
       <c r="A194" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="B194" s="0" t="s">
+      <c r="B194" s="14" t="s">
         <v>387</v>
       </c>
-      <c r="C194" s="14"/>
-      <c r="D194" s="0" t="n">
+      <c r="C194" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D194" s="14">
         <v>-18.898565</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="195" ht="12.75" customHeight="1">
       <c r="A195" s="13" t="s">
         <v>388</v>
       </c>
-      <c r="B195" s="0" t="s">
+      <c r="B195" s="14" t="s">
         <v>389</v>
       </c>
-      <c r="C195" s="14"/>
-      <c r="D195" s="0" t="n">
+      <c r="C195" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="14">
         <v>-12.815823</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="196" ht="12.75" customHeight="1">
       <c r="A196" s="13" t="s">
         <v>390</v>
       </c>
-      <c r="B196" s="0" t="s">
+      <c r="B196" s="14" t="s">
         <v>391</v>
       </c>
-      <c r="C196" s="14"/>
-      <c r="D196" s="0" t="n">
+      <c r="C196" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D196" s="14">
         <v>-11.951353</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="197" ht="12.75" customHeight="1">
       <c r="A197" s="13" t="s">
         <v>392</v>
       </c>
-      <c r="B197" s="0" t="s">
+      <c r="B197" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="C197" s="14"/>
-      <c r="D197" s="0" t="n">
+      <c r="C197" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D197" s="14">
         <v>-15.975968</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="198" ht="12.75" customHeight="1">
       <c r="A198" s="13" t="s">
         <v>394</v>
       </c>
-      <c r="B198" s="0" t="s">
+      <c r="B198" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="C198" s="14"/>
-      <c r="D198" s="0" t="n">
+      <c r="C198" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198" s="14">
         <v>-20.851952</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="199" ht="12.75" customHeight="1">
       <c r="A199" s="13" t="s">
         <v>396</v>
       </c>
-      <c r="B199" s="0" t="s">
+      <c r="B199" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="C199" s="14"/>
-      <c r="D199" s="0" t="n">
+      <c r="C199" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D199" s="14">
         <v>-6.245928</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="200" ht="12.75" customHeight="1">
       <c r="A200" s="13" t="s">
         <v>398</v>
       </c>
-      <c r="B200" s="0" t="s">
+      <c r="B200" s="14" t="s">
         <v>399</v>
       </c>
-      <c r="C200" s="14"/>
-      <c r="D200" s="0" t="n">
+      <c r="C200" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D200" s="14">
         <v>-2.761617</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="201" ht="12.75" customHeight="1">
       <c r="A201" s="13" t="s">
         <v>400</v>
       </c>
-      <c r="B201" s="0" t="s">
+      <c r="B201" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="C201" s="14"/>
-      <c r="D201" s="0" t="n">
+      <c r="C201" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D201" s="14">
         <v>-14.063344</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="202" ht="12.75" customHeight="1">
       <c r="A202" s="13" t="s">
         <v>402</v>
       </c>
-      <c r="B202" s="0" t="s">
+      <c r="B202" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="C202" s="14"/>
-      <c r="D202" s="0" t="n">
+      <c r="C202" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D202" s="14">
         <v>-14.693025</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="203" ht="12.75" customHeight="1">
       <c r="A203" s="13" t="s">
         <v>404</v>
       </c>
-      <c r="B203" s="0" t="s">
+      <c r="B203" s="14" t="s">
         <v>405</v>
       </c>
-      <c r="C203" s="14"/>
-      <c r="D203" s="0" t="n">
+      <c r="C203" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D203" s="14">
         <v>-11.038934</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="204" ht="12.75" customHeight="1">
       <c r="A204" s="13" t="s">
         <v>406</v>
       </c>
-      <c r="B204" s="0" t="s">
+      <c r="B204" s="14" t="s">
         <v>407</v>
       </c>
-      <c r="C204" s="14"/>
-      <c r="D204" s="0" t="n">
+      <c r="C204" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D204" s="14">
         <v>-5.600537</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="205" ht="12.75" customHeight="1">
       <c r="A205" s="13" t="s">
         <v>408</v>
       </c>
-      <c r="B205" s="0" t="s">
+      <c r="B205" s="14" t="s">
         <v>409</v>
       </c>
-      <c r="C205" s="14"/>
-      <c r="D205" s="0" t="n">
+      <c r="C205" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D205" s="14">
         <v>-13.406603</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="206" ht="12.75" customHeight="1">
       <c r="A206" s="13" t="s">
         <v>410</v>
       </c>
-      <c r="B206" s="0" t="s">
+      <c r="B206" s="14" t="s">
         <v>411</v>
       </c>
-      <c r="C206" s="14"/>
-      <c r="D206" s="0" t="n">
+      <c r="C206" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D206" s="14">
         <v>-14.030838</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="207" ht="12.75" customHeight="1">
       <c r="A207" s="13" t="s">
         <v>412</v>
       </c>
-      <c r="B207" s="0" t="s">
+      <c r="B207" s="14" t="s">
         <v>413</v>
       </c>
-      <c r="C207" s="14"/>
-      <c r="D207" s="0" t="n">
+      <c r="C207" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D207" s="14">
         <v>-10.390188</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="208" ht="12.75" customHeight="1">
       <c r="A208" s="13" t="s">
         <v>414</v>
       </c>
-      <c r="B208" s="0" t="s">
+      <c r="B208" s="14" t="s">
         <v>415</v>
       </c>
-      <c r="C208" s="14"/>
-      <c r="D208" s="0" t="n">
+      <c r="C208" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D208" s="14">
         <v>-11.613878</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A209" s="15" t="s">
+    <row r="209" ht="12.75" customHeight="1">
+      <c r="A209" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="B209" s="0" t="s">
+      <c r="B209" s="14" t="s">
         <v>417</v>
       </c>
-      <c r="C209" s="13"/>
-      <c r="D209" s="0" t="n">
+      <c r="C209" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D209" s="14">
         <v>-7.458743</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A210" s="15" t="s">
+    <row r="210" ht="12.75" customHeight="1">
+      <c r="A210" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="B210" s="0" t="s">
+      <c r="B210" s="14" t="s">
         <v>419</v>
       </c>
-      <c r="C210" s="13"/>
-      <c r="D210" s="0" t="n">
+      <c r="C210" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D210" s="14">
         <v>-17.564453</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A211" s="15" t="s">
+    <row r="211" ht="12.75" customHeight="1">
+      <c r="A211" s="13" t="s">
         <v>420</v>
       </c>
-      <c r="B211" s="0" t="s">
+      <c r="B211" s="14" t="s">
         <v>421</v>
       </c>
-      <c r="C211" s="13"/>
-      <c r="D211" s="0" t="n">
+      <c r="C211" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D211" s="14">
         <v>-5.141925</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A212" s="15" t="s">
+    <row r="212" ht="12.75" customHeight="1">
+      <c r="A212" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="B212" s="0" t="s">
+      <c r="B212" s="14" t="s">
         <v>423</v>
       </c>
-      <c r="C212" s="13"/>
-      <c r="D212" s="0" t="n">
+      <c r="C212" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D212" s="14">
         <v>-6.39706</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A213" s="15" t="s">
+    <row r="213" ht="12.75" customHeight="1">
+      <c r="A213" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="B213" s="0" t="s">
+      <c r="B213" s="14" t="s">
         <v>425</v>
       </c>
-      <c r="C213" s="13"/>
-      <c r="D213" s="0" t="n">
+      <c r="C213" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D213" s="14">
         <v>-8.136557</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A214" s="15" t="s">
+    <row r="214" ht="12.75" customHeight="1">
+      <c r="A214" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="B214" s="0" t="s">
+      <c r="B214" s="14" t="s">
         <v>427</v>
       </c>
-      <c r="C214" s="13"/>
-      <c r="D214" s="0" t="n">
+      <c r="C214" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D214" s="14">
         <v>-5.545853</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A215" s="15" t="s">
+    <row r="215" ht="12.75" customHeight="1">
+      <c r="A215" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="B215" s="0" t="s">
+      <c r="B215" s="14" t="s">
         <v>429</v>
       </c>
-      <c r="C215" s="13"/>
-      <c r="D215" s="0" t="n">
+      <c r="C215" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D215" s="14">
         <v>-20.602449</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A216" s="15" t="s">
+    <row r="216" ht="12.75" customHeight="1">
+      <c r="A216" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="B216" s="0" t="s">
+      <c r="B216" s="14" t="s">
         <v>431</v>
       </c>
-      <c r="C216" s="13"/>
-      <c r="D216" s="0" t="n">
+      <c r="C216" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D216" s="14">
         <v>-11.387711</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A217" s="15" t="s">
+    <row r="217" ht="12.75" customHeight="1">
+      <c r="A217" s="13" t="s">
         <v>432</v>
       </c>
-      <c r="B217" s="0" t="s">
+      <c r="B217" s="14" t="s">
         <v>433</v>
       </c>
-      <c r="C217" s="13"/>
-      <c r="D217" s="0" t="n">
+      <c r="C217" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D217" s="14">
         <v>-18.360571</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A218" s="15" t="s">
+    <row r="218" ht="12.75" customHeight="1">
+      <c r="A218" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="B218" s="0" t="s">
+      <c r="B218" s="14" t="s">
         <v>435</v>
       </c>
-      <c r="C218" s="13"/>
-      <c r="D218" s="0" t="n">
+      <c r="C218" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D218" s="14">
         <v>-12.613346</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A219" s="15" t="s">
+    <row r="219" ht="12.75" customHeight="1">
+      <c r="A219" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="B219" s="0" t="s">
+      <c r="B219" s="14" t="s">
         <v>437</v>
       </c>
-      <c r="C219" s="13"/>
-      <c r="D219" s="0" t="n">
+      <c r="C219" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D219" s="14">
         <v>-16.727413</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A220" s="15" t="s">
+    <row r="220" ht="12.75" customHeight="1">
+      <c r="A220" s="13" t="s">
         <v>438</v>
       </c>
-      <c r="B220" s="0" t="s">
+      <c r="B220" s="14" t="s">
         <v>439</v>
       </c>
-      <c r="C220" s="13"/>
-      <c r="D220" s="0" t="n">
+      <c r="C220" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D220" s="14">
         <v>-3.803594</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A221" s="15" t="s">
+    <row r="221" ht="12.75" customHeight="1">
+      <c r="A221" s="13" t="s">
         <v>440</v>
       </c>
-      <c r="B221" s="0" t="s">
+      <c r="B221" s="14" t="s">
         <v>441</v>
       </c>
-      <c r="C221" s="13"/>
-      <c r="D221" s="0" t="n">
+      <c r="C221" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D221" s="14">
         <v>-6.792498</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A222" s="15" t="s">
+    <row r="222" ht="12.75" customHeight="1">
+      <c r="A222" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="B222" s="0" t="s">
+      <c r="B222" s="14" t="s">
         <v>443</v>
       </c>
-      <c r="C222" s="13"/>
-      <c r="D222" s="0" t="n">
+      <c r="C222" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D222" s="14">
         <v>-9.789886</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A223" s="15" t="s">
+    <row r="223" ht="12.75" customHeight="1">
+      <c r="A223" s="13" t="s">
         <v>444</v>
       </c>
-      <c r="B223" s="0" t="s">
+      <c r="B223" s="14" t="s">
         <v>445</v>
       </c>
-      <c r="C223" s="13"/>
-      <c r="D223" s="0" t="n">
+      <c r="C223" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D223" s="14">
         <v>-12.309748</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A224" s="15" t="s">
+    <row r="224" ht="12.75" customHeight="1">
+      <c r="A224" s="13" t="s">
         <v>446</v>
       </c>
-      <c r="B224" s="0" t="s">
+      <c r="B224" s="14" t="s">
         <v>447</v>
       </c>
-      <c r="C224" s="13"/>
-      <c r="D224" s="0" t="n">
+      <c r="C224" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D224" s="14">
         <v>-4.620458</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A225" s="15" t="s">
+    <row r="225" ht="12.75" customHeight="1">
+      <c r="A225" s="13" t="s">
         <v>448</v>
       </c>
-      <c r="B225" s="0" t="s">
+      <c r="B225" s="14" t="s">
         <v>449</v>
       </c>
-      <c r="C225" s="13"/>
-      <c r="D225" s="0" t="n">
+      <c r="C225" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D225" s="14">
         <v>-4.85593</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A226" s="15" t="s">
+    <row r="226" ht="12.75" customHeight="1">
+      <c r="A226" s="13" t="s">
         <v>450</v>
       </c>
-      <c r="B226" s="0" t="s">
+      <c r="B226" s="14" t="s">
         <v>451</v>
       </c>
-      <c r="C226" s="13"/>
-      <c r="D226" s="0" t="n">
+      <c r="C226" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D226" s="14">
         <v>-4.342866</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A227" s="15" t="s">
+    <row r="227" ht="12.75" customHeight="1">
+      <c r="A227" s="13" t="s">
         <v>452</v>
       </c>
-      <c r="B227" s="0" t="s">
+      <c r="B227" s="14" t="s">
         <v>453</v>
       </c>
-      <c r="C227" s="13"/>
-      <c r="D227" s="0" t="n">
+      <c r="C227" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D227" s="14">
         <v>-7.879355</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A228" s="15" t="s">
+    <row r="228" ht="12.75" customHeight="1">
+      <c r="A228" s="13" t="s">
         <v>454</v>
       </c>
-      <c r="B228" s="0" t="s">
+      <c r="B228" s="14" t="s">
         <v>455</v>
       </c>
-      <c r="C228" s="13"/>
-      <c r="D228" s="0" t="n">
+      <c r="C228" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D228" s="14">
         <v>-12.116191</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A229" s="15" t="s">
+    <row r="229" ht="12.75" customHeight="1">
+      <c r="A229" s="13" t="s">
         <v>456</v>
       </c>
-      <c r="B229" s="0" t="s">
+      <c r="B229" s="14" t="s">
         <v>457</v>
       </c>
-      <c r="C229" s="13"/>
-      <c r="D229" s="0" t="n">
+      <c r="C229" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D229" s="14">
         <v>-6.720209</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A230" s="15" t="s">
+    <row r="230" ht="12.75" customHeight="1">
+      <c r="A230" s="13" t="s">
         <v>458</v>
       </c>
-      <c r="B230" s="0" t="s">
+      <c r="B230" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="C230" s="13"/>
-      <c r="D230" s="0" t="n">
+      <c r="C230" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D230" s="14">
         <v>-11.696417</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A231" s="15" t="s">
+    <row r="231" ht="12.75" customHeight="1">
+      <c r="A231" s="13" t="s">
         <v>460</v>
       </c>
-      <c r="B231" s="0" t="s">
+      <c r="B231" s="14" t="s">
         <v>461</v>
       </c>
-      <c r="C231" s="13"/>
-      <c r="D231" s="0" t="n">
+      <c r="C231" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D231" s="14">
         <v>-14.6075</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A232" s="15" t="s">
+    <row r="232" ht="12.75" customHeight="1">
+      <c r="A232" s="13" t="s">
         <v>462</v>
       </c>
-      <c r="B232" s="0" t="s">
+      <c r="B232" s="14" t="s">
         <v>463</v>
       </c>
-      <c r="C232" s="13"/>
-      <c r="D232" s="0" t="n">
+      <c r="C232" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D232" s="14">
         <v>-17.075075</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A233" s="15" t="s">
+    <row r="233" ht="12.75" customHeight="1">
+      <c r="A233" s="13" t="s">
         <v>464</v>
       </c>
-      <c r="B233" s="0" t="s">
+      <c r="B233" s="14" t="s">
         <v>465</v>
       </c>
-      <c r="C233" s="13"/>
-      <c r="D233" s="0" t="n">
+      <c r="C233" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D233" s="14">
         <v>-16.30216</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A234" s="15" t="s">
+    <row r="234" ht="12.75" customHeight="1">
+      <c r="A234" s="13" t="s">
         <v>466</v>
       </c>
-      <c r="B234" s="0" t="s">
+      <c r="B234" s="14" t="s">
         <v>467</v>
       </c>
-      <c r="C234" s="13"/>
-      <c r="D234" s="0" t="n">
+      <c r="C234" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D234" s="14">
         <v>-22.58218</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A235" s="15" t="s">
+    <row r="235" ht="12.75" customHeight="1">
+      <c r="A235" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="B235" s="0" t="s">
+      <c r="B235" s="14" t="s">
         <v>469</v>
       </c>
-      <c r="C235" s="13"/>
-      <c r="D235" s="0" t="n">
+      <c r="C235" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D235" s="14">
         <v>-5.596937</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A236" s="15" t="s">
+    <row r="236" ht="12.75" customHeight="1">
+      <c r="A236" s="13" t="s">
         <v>470</v>
       </c>
-      <c r="B236" s="0" t="s">
+      <c r="B236" s="14" t="s">
         <v>471</v>
       </c>
-      <c r="C236" s="13"/>
-      <c r="D236" s="0" t="n">
+      <c r="C236" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D236" s="14">
         <v>-6.651099</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A237" s="15" t="s">
+    <row r="237" ht="12.75" customHeight="1">
+      <c r="A237" s="13" t="s">
         <v>472</v>
       </c>
-      <c r="B237" s="0" t="s">
+      <c r="B237" s="14" t="s">
         <v>473</v>
       </c>
-      <c r="C237" s="13"/>
-      <c r="D237" s="0" t="n">
+      <c r="C237" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D237" s="14">
         <v>-11.499342</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A238" s="15" t="s">
+    <row r="238" ht="12.75" customHeight="1">
+      <c r="A238" s="13" t="s">
         <v>474</v>
       </c>
-      <c r="B238" s="0" t="s">
+      <c r="B238" s="14" t="s">
         <v>475</v>
       </c>
-      <c r="C238" s="13"/>
-      <c r="D238" s="0" t="n">
+      <c r="C238" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D238" s="14">
         <v>-17.434584</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A239" s="15" t="s">
+    <row r="239" ht="12.75" customHeight="1">
+      <c r="A239" s="13" t="s">
         <v>476</v>
       </c>
-      <c r="B239" s="0" t="s">
+      <c r="B239" s="14" t="s">
         <v>477</v>
       </c>
-      <c r="C239" s="13"/>
-      <c r="D239" s="0" t="n">
+      <c r="C239" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D239" s="14">
         <v>-1.194894</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A240" s="15" t="s">
+    <row r="240" ht="12.75" customHeight="1">
+      <c r="A240" s="13" t="s">
         <v>478</v>
       </c>
-      <c r="B240" s="0" t="s">
+      <c r="B240" s="14" t="s">
         <v>479</v>
       </c>
-      <c r="C240" s="13"/>
-      <c r="D240" s="0" t="n">
+      <c r="C240" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D240" s="14">
         <v>-11.972279</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A241" s="15" t="s">
+    <row r="241" ht="12.75" customHeight="1">
+      <c r="A241" s="13" t="s">
         <v>480</v>
       </c>
-      <c r="B241" s="0" t="s">
+      <c r="B241" s="14" t="s">
         <v>481</v>
       </c>
-      <c r="C241" s="13"/>
-      <c r="D241" s="0" t="n">
+      <c r="C241" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D241" s="14">
         <v>-8.452143</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A242" s="15" t="s">
+    <row r="242" ht="12.75" customHeight="1">
+      <c r="A242" s="13" t="s">
         <v>482</v>
       </c>
-      <c r="B242" s="0" t="s">
+      <c r="B242" s="14" t="s">
         <v>483</v>
       </c>
-      <c r="C242" s="13"/>
-      <c r="D242" s="0" t="n">
+      <c r="C242" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D242" s="14">
         <v>-21.289764</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A243" s="15" t="s">
+    <row r="243" ht="12.75" customHeight="1">
+      <c r="A243" s="13" t="s">
         <v>484</v>
       </c>
-      <c r="B243" s="0" t="s">
+      <c r="B243" s="14" t="s">
         <v>485</v>
       </c>
-      <c r="C243" s="13"/>
-      <c r="D243" s="0" t="n">
+      <c r="C243" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D243" s="14">
         <v>-10.576501</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A244" s="15" t="s">
+    <row r="244" ht="12.75" customHeight="1">
+      <c r="A244" s="13" t="s">
         <v>486</v>
       </c>
-      <c r="B244" s="0" t="s">
+      <c r="B244" s="14" t="s">
         <v>487</v>
       </c>
-      <c r="C244" s="13"/>
-      <c r="D244" s="0" t="n">
+      <c r="C244" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D244" s="14">
         <v>-18.973986</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A245" s="15" t="s">
+    <row r="245" ht="12.75" customHeight="1">
+      <c r="A245" s="13" t="s">
         <v>488</v>
       </c>
-      <c r="B245" s="0" t="s">
+      <c r="B245" s="14" t="s">
         <v>489</v>
       </c>
-      <c r="C245" s="13"/>
-      <c r="D245" s="0" t="n">
+      <c r="C245" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D245" s="14">
         <v>-19.431311</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A246" s="15" t="s">
+    <row r="246" ht="12.75" customHeight="1">
+      <c r="A246" s="13" t="s">
         <v>490</v>
       </c>
-      <c r="B246" s="0" t="s">
+      <c r="B246" s="14" t="s">
         <v>491</v>
       </c>
-      <c r="C246" s="13"/>
-      <c r="D246" s="0" t="n">
+      <c r="C246" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D246" s="14">
         <v>-8.103479</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A247" s="15" t="s">
+    <row r="247" ht="12.75" customHeight="1">
+      <c r="A247" s="13" t="s">
         <v>492</v>
       </c>
-      <c r="B247" s="0" t="s">
+      <c r="B247" s="14" t="s">
         <v>493</v>
       </c>
-      <c r="C247" s="13"/>
-      <c r="D247" s="0" t="n">
+      <c r="C247" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D247" s="14">
         <v>-7.112474</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A248" s="15" t="s">
+    <row r="248" ht="12.75" customHeight="1">
+      <c r="A248" s="13" t="s">
         <v>494</v>
       </c>
-      <c r="B248" s="0" t="s">
+      <c r="B248" s="14" t="s">
         <v>495</v>
       </c>
-      <c r="C248" s="13"/>
-      <c r="D248" s="0" t="n">
+      <c r="C248" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D248" s="14">
         <v>-29.300627</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A249" s="15" t="s">
+    <row r="249" ht="12.75" customHeight="1">
+      <c r="A249" s="13" t="s">
         <v>496</v>
       </c>
-      <c r="B249" s="0" t="s">
+      <c r="B249" s="14" t="s">
         <v>497</v>
       </c>
-      <c r="C249" s="13"/>
-      <c r="D249" s="0" t="n">
+      <c r="C249" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D249" s="14">
         <v>-5.799254</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A250" s="15" t="s">
+    <row r="250" ht="12.75" customHeight="1">
+      <c r="A250" s="13" t="s">
         <v>498</v>
       </c>
-      <c r="B250" s="0" t="s">
+      <c r="B250" s="14" t="s">
         <v>499</v>
       </c>
-      <c r="C250" s="13"/>
-      <c r="D250" s="0" t="n">
+      <c r="C250" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D250" s="14">
         <v>-23.865952</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A251" s="15" t="s">
+    <row r="251" ht="12.75" customHeight="1">
+      <c r="A251" s="13" t="s">
         <v>500</v>
       </c>
-      <c r="B251" s="0" t="s">
+      <c r="B251" s="14" t="s">
         <v>501</v>
       </c>
-      <c r="C251" s="13"/>
-      <c r="D251" s="0" t="n">
+      <c r="C251" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D251" s="14">
         <v>-5.706405</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A252" s="15" t="s">
+    <row r="252" ht="12.75" customHeight="1">
+      <c r="A252" s="13" t="s">
         <v>502</v>
       </c>
-      <c r="B252" s="0" t="s">
+      <c r="B252" s="14" t="s">
         <v>503</v>
       </c>
-      <c r="C252" s="13"/>
-      <c r="D252" s="0" t="n">
+      <c r="C252" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D252" s="14">
         <v>-16.422207</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A253" s="15" t="s">
+    <row r="253" ht="12.75" customHeight="1">
+      <c r="A253" s="13" t="s">
         <v>504</v>
       </c>
-      <c r="B253" s="0" t="s">
+      <c r="B253" s="14" t="s">
         <v>505</v>
       </c>
-      <c r="C253" s="13"/>
-      <c r="D253" s="0" t="n">
+      <c r="C253" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D253" s="14">
         <v>-5.520868</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A254" s="15" t="s">
+    <row r="254" ht="12.75" customHeight="1">
+      <c r="A254" s="13" t="s">
         <v>506</v>
       </c>
-      <c r="B254" s="0" t="s">
+      <c r="B254" s="14" t="s">
         <v>507</v>
       </c>
-      <c r="C254" s="13"/>
-      <c r="D254" s="0" t="n">
+      <c r="C254" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D254" s="14">
         <v>-9.031754</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A255" s="15" t="s">
+    <row r="255" ht="12.75" customHeight="1">
+      <c r="A255" s="13" t="s">
         <v>508</v>
       </c>
-      <c r="B255" s="0" t="s">
+      <c r="B255" s="14" t="s">
         <v>509</v>
       </c>
-      <c r="C255" s="13"/>
-      <c r="D255" s="0" t="n">
+      <c r="C255" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D255" s="14">
         <v>-4.343132</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A256" s="0" t="s">
+    <row r="256" ht="12.75" customHeight="1">
+      <c r="A256" s="14" t="s">
         <v>510</v>
       </c>
-      <c r="B256" s="0" t="s">
+      <c r="B256" s="14" t="s">
         <v>511</v>
       </c>
-      <c r="C256" s="13"/>
-      <c r="D256" s="0" t="n">
+      <c r="C256" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D256" s="14">
         <v>-5.87863</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A257" s="0" t="s">
+    <row r="257" ht="12.75" customHeight="1">
+      <c r="A257" s="14" t="s">
         <v>512</v>
       </c>
-      <c r="B257" s="0" t="s">
+      <c r="B257" s="14" t="s">
         <v>513</v>
       </c>
-      <c r="C257" s="13"/>
-      <c r="D257" s="0" t="n">
+      <c r="C257" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D257" s="14">
         <v>-13.137159</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A258" s="0" t="s">
+    <row r="258" ht="12.75" customHeight="1">
+      <c r="A258" s="14" t="s">
         <v>514</v>
       </c>
-      <c r="B258" s="0" t="s">
+      <c r="B258" s="14" t="s">
         <v>515</v>
       </c>
-      <c r="C258" s="13"/>
-      <c r="D258" s="0" t="n">
+      <c r="C258" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D258" s="14">
         <v>-6.248622</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A259" s="0" t="s">
+    <row r="259" ht="12.75" customHeight="1">
+      <c r="A259" s="14" t="s">
         <v>516</v>
       </c>
-      <c r="B259" s="0" t="s">
+      <c r="B259" s="14" t="s">
         <v>517</v>
       </c>
-      <c r="C259" s="13"/>
-      <c r="D259" s="0" t="n">
+      <c r="C259" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D259" s="14">
         <v>-12.577385</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A260" s="0" t="s">
+    <row r="260" ht="12.75" customHeight="1">
+      <c r="A260" s="14" t="s">
         <v>518</v>
       </c>
-      <c r="B260" s="0" t="s">
+      <c r="B260" s="14" t="s">
         <v>519</v>
       </c>
-      <c r="C260" s="13"/>
-      <c r="D260" s="0" t="n">
+      <c r="C260" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D260" s="14">
         <v>-24.687393</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A261" s="0" t="s">
+    <row r="261" ht="12.75" customHeight="1">
+      <c r="A261" s="14" t="s">
         <v>520</v>
       </c>
-      <c r="B261" s="0" t="s">
+      <c r="B261" s="14" t="s">
         <v>521</v>
       </c>
-      <c r="C261" s="13"/>
-      <c r="D261" s="0" t="n">
+      <c r="C261" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D261" s="14">
         <v>-4.605865</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A262" s="0" t="s">
+    <row r="262" ht="12.75" customHeight="1">
+      <c r="A262" s="14" t="s">
         <v>522</v>
       </c>
-      <c r="B262" s="0" t="s">
+      <c r="B262" s="14" t="s">
         <v>523</v>
       </c>
-      <c r="C262" s="13"/>
-      <c r="D262" s="0" t="n">
+      <c r="C262" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D262" s="14">
         <v>-12.401551</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A263" s="0" t="s">
+    <row r="263" ht="12.75" customHeight="1">
+      <c r="A263" s="14" t="s">
         <v>524</v>
       </c>
-      <c r="B263" s="0" t="s">
+      <c r="B263" s="14" t="s">
         <v>525</v>
       </c>
-      <c r="C263" s="13"/>
-      <c r="D263" s="0" t="n">
+      <c r="C263" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D263" s="14">
         <v>-4.854081</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="264" ht="12.75" customHeight="1">
       <c r="C264" s="13"/>
     </row>
-    <row r="265" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="265" ht="12.75" customHeight="1">
       <c r="C265" s="13"/>
     </row>
-    <row r="266" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="266" ht="12.75" customHeight="1">
       <c r="C266" s="13"/>
     </row>
-    <row r="267" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="267" ht="12.75" customHeight="1">
       <c r="C267" s="13"/>
     </row>
-    <row r="268" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="268" ht="12.75" customHeight="1">
       <c r="C268" s="13"/>
     </row>
-    <row r="269" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="269" ht="12.75" customHeight="1">
       <c r="C269" s="13"/>
     </row>
-    <row r="270" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="270" ht="12.75" customHeight="1">
       <c r="C270" s="13"/>
     </row>
-    <row r="271" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="271" ht="12.75" customHeight="1">
       <c r="C271" s="13"/>
     </row>
-    <row r="272" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="272" ht="12.75" customHeight="1">
       <c r="C272" s="13"/>
     </row>
-    <row r="273" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="273" ht="12.75" customHeight="1">
       <c r="C273" s="13"/>
     </row>
-    <row r="274" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="274" ht="12.75" customHeight="1">
       <c r="C274" s="13"/>
     </row>
-    <row r="275" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="275" ht="12.75" customHeight="1">
       <c r="C275" s="13"/>
     </row>
-    <row r="276" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="276" ht="12.75" customHeight="1">
       <c r="C276" s="13"/>
     </row>
-    <row r="277" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="277" ht="12.75" customHeight="1">
       <c r="C277" s="13"/>
     </row>
-    <row r="278" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="278" ht="12.75" customHeight="1">
       <c r="C278" s="13"/>
     </row>
-    <row r="279" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="279" ht="12.75" customHeight="1">
       <c r="C279" s="13"/>
     </row>
-    <row r="280" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="280" ht="12.75" customHeight="1">
       <c r="C280" s="13"/>
     </row>
-    <row r="281" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="281" ht="12.75" customHeight="1">
       <c r="C281" s="13"/>
     </row>
-    <row r="282" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="282" ht="12.75" customHeight="1">
       <c r="C282" s="13"/>
     </row>
-    <row r="283" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="283" ht="12.75" customHeight="1">
       <c r="C283" s="13"/>
     </row>
-    <row r="284" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="284" ht="12.75" customHeight="1">
       <c r="C284" s="13"/>
     </row>
-    <row r="285" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="285" ht="12.75" customHeight="1">
       <c r="C285" s="13"/>
     </row>
-    <row r="286" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="286" ht="12.75" customHeight="1">
       <c r="C286" s="13"/>
     </row>
-    <row r="287" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="287" ht="12.75" customHeight="1">
       <c r="C287" s="13"/>
     </row>
-    <row r="288" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="288" ht="12.75" customHeight="1">
       <c r="C288" s="13"/>
     </row>
-    <row r="289" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="289" ht="12.75" customHeight="1">
       <c r="C289" s="13"/>
     </row>
-    <row r="290" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="290" ht="12.75" customHeight="1">
       <c r="C290" s="13"/>
     </row>
-    <row r="291" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="291" ht="12.75" customHeight="1">
       <c r="C291" s="13"/>
     </row>
-    <row r="292" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="292" ht="12.75" customHeight="1">
       <c r="C292" s="13"/>
     </row>
-    <row r="293" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="293" ht="12.75" customHeight="1">
       <c r="C293" s="13"/>
     </row>
-    <row r="294" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="294" ht="12.75" customHeight="1">
       <c r="C294" s="13"/>
     </row>
-    <row r="295" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="295" ht="12.75" customHeight="1">
       <c r="C295" s="13"/>
     </row>
-    <row r="296" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="296" ht="12.75" customHeight="1">
       <c r="C296" s="13"/>
     </row>
-    <row r="297" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="297" ht="12.75" customHeight="1">
       <c r="C297" s="13"/>
     </row>
-    <row r="298" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="298" ht="12.75" customHeight="1">
       <c r="C298" s="13"/>
     </row>
-    <row r="299" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="299" ht="12.75" customHeight="1">
       <c r="C299" s="13"/>
     </row>
-    <row r="300" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="300" ht="12.75" customHeight="1">
       <c r="C300" s="13"/>
     </row>
-    <row r="301" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="301" ht="12.75" customHeight="1">
       <c r="C301" s="13"/>
     </row>
-    <row r="302" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="302" ht="12.75" customHeight="1">
       <c r="C302" s="13"/>
     </row>
-    <row r="303" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="303" ht="12.75" customHeight="1">
       <c r="C303" s="13"/>
     </row>
-    <row r="304" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="304" ht="12.75" customHeight="1">
       <c r="C304" s="13"/>
     </row>
-    <row r="305" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="305" ht="12.75" customHeight="1">
       <c r="C305" s="13"/>
     </row>
-    <row r="306" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="306" ht="12.75" customHeight="1">
       <c r="C306" s="13"/>
     </row>
-    <row r="307" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="307" ht="12.75" customHeight="1">
       <c r="C307" s="13"/>
     </row>
-    <row r="308" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="308" ht="12.75" customHeight="1">
       <c r="C308" s="13"/>
     </row>
-    <row r="309" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="309" ht="12.75" customHeight="1">
       <c r="C309" s="13"/>
     </row>
-    <row r="310" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="310" ht="12.75" customHeight="1">
       <c r="C310" s="13"/>
     </row>
-    <row r="311" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="311" ht="12.75" customHeight="1">
       <c r="C311" s="13"/>
     </row>
-    <row r="312" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="312" ht="12.75" customHeight="1">
       <c r="C312" s="13"/>
     </row>
-    <row r="313" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="313" ht="12.75" customHeight="1">
       <c r="C313" s="13"/>
     </row>
-    <row r="314" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="314" ht="12.75" customHeight="1">
       <c r="C314" s="13"/>
     </row>
-    <row r="315" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="315" ht="12.75" customHeight="1">
       <c r="C315" s="13"/>
     </row>
-    <row r="316" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="316" ht="12.75" customHeight="1">
       <c r="C316" s="13"/>
     </row>
-    <row r="317" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="317" ht="12.75" customHeight="1">
       <c r="C317" s="13"/>
     </row>
-    <row r="318" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="318" ht="12.75" customHeight="1">
       <c r="C318" s="13"/>
     </row>
-    <row r="319" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="319" ht="12.75" customHeight="1">
       <c r="C319" s="13"/>
     </row>
-    <row r="320" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="320" ht="12.75" customHeight="1">
       <c r="C320" s="13"/>
     </row>
-    <row r="321" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="321" ht="12.75" customHeight="1">
       <c r="C321" s="13"/>
     </row>
-    <row r="322" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="322" ht="12.75" customHeight="1">
       <c r="C322" s="13"/>
     </row>
-    <row r="323" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="323" ht="12.75" customHeight="1">
       <c r="C323" s="13"/>
     </row>
-    <row r="324" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="324" ht="12.75" customHeight="1">
       <c r="C324" s="13"/>
     </row>
-    <row r="325" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="325" ht="12.75" customHeight="1">
       <c r="C325" s="13"/>
     </row>
-    <row r="326" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="326" ht="12.75" customHeight="1">
       <c r="C326" s="13"/>
     </row>
-    <row r="327" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="327" ht="12.75" customHeight="1">
       <c r="C327" s="13"/>
     </row>
-    <row r="328" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="328" ht="12.75" customHeight="1">
       <c r="C328" s="13"/>
     </row>
-    <row r="329" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="329" ht="12.75" customHeight="1">
       <c r="C329" s="13"/>
     </row>
-    <row r="330" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="330" ht="12.75" customHeight="1">
       <c r="C330" s="13"/>
     </row>
-    <row r="331" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="331" ht="12.75" customHeight="1">
       <c r="C331" s="13"/>
     </row>
-    <row r="332" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="332" ht="12.75" customHeight="1">
       <c r="C332" s="13"/>
     </row>
-    <row r="333" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="333" ht="12.75" customHeight="1">
       <c r="C333" s="13"/>
     </row>
-    <row r="334" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="334" ht="12.75" customHeight="1">
       <c r="C334" s="13"/>
     </row>
-    <row r="335" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="335" ht="12.75" customHeight="1">
       <c r="C335" s="13"/>
     </row>
-    <row r="336" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="336" ht="12.75" customHeight="1">
       <c r="C336" s="13"/>
     </row>
-    <row r="337" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="337" ht="12.75" customHeight="1">
       <c r="C337" s="13"/>
     </row>
-    <row r="338" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="338" ht="12.75" customHeight="1">
       <c r="C338" s="13"/>
     </row>
-    <row r="339" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="339" ht="12.75" customHeight="1">
       <c r="C339" s="13"/>
     </row>
-    <row r="340" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="340" ht="12.75" customHeight="1">
       <c r="C340" s="13"/>
     </row>
-    <row r="341" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="341" ht="12.75" customHeight="1">
       <c r="C341" s="13"/>
     </row>
-    <row r="342" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="342" ht="12.75" customHeight="1">
       <c r="C342" s="13"/>
     </row>
-    <row r="343" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="343" ht="12.75" customHeight="1">
       <c r="C343" s="13"/>
     </row>
-    <row r="344" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="344" ht="12.75" customHeight="1">
       <c r="C344" s="13"/>
     </row>
-    <row r="345" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="345" ht="12.75" customHeight="1">
       <c r="C345" s="13"/>
     </row>
-    <row r="346" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="346" ht="12.75" customHeight="1">
       <c r="C346" s="13"/>
     </row>
-    <row r="347" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="347" ht="12.75" customHeight="1">
       <c r="C347" s="13"/>
     </row>
-    <row r="348" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="348" ht="12.75" customHeight="1">
       <c r="C348" s="13"/>
     </row>
-    <row r="349" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="349" ht="12.75" customHeight="1">
       <c r="C349" s="13"/>
     </row>
-    <row r="350" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="350" ht="12.75" customHeight="1">
       <c r="C350" s="13"/>
     </row>
-    <row r="351" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="351" ht="12.75" customHeight="1">
       <c r="C351" s="13"/>
     </row>
-    <row r="352" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="352" ht="12.75" customHeight="1">
       <c r="C352" s="13"/>
     </row>
-    <row r="353" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="353" ht="12.75" customHeight="1">
       <c r="C353" s="13"/>
     </row>
-    <row r="354" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="354" ht="12.75" customHeight="1">
       <c r="C354" s="13"/>
     </row>
-    <row r="355" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="355" ht="12.75" customHeight="1">
       <c r="C355" s="13"/>
     </row>
-    <row r="356" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="356" ht="12.75" customHeight="1">
       <c r="C356" s="13"/>
     </row>
-    <row r="357" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="357" ht="12.75" customHeight="1">
       <c r="C357" s="13"/>
     </row>
-    <row r="358" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="358" ht="12.75" customHeight="1">
       <c r="C358" s="13"/>
     </row>
-    <row r="359" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="359" ht="12.75" customHeight="1">
       <c r="C359" s="13"/>
     </row>
-    <row r="360" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="360" ht="12.75" customHeight="1">
       <c r="C360" s="13"/>
     </row>
-    <row r="361" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="361" ht="12.75" customHeight="1">
       <c r="C361" s="13"/>
     </row>
-    <row r="362" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="362" ht="12.75" customHeight="1">
       <c r="C362" s="13"/>
     </row>
-    <row r="363" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="363" ht="12.75" customHeight="1">
       <c r="C363" s="13"/>
     </row>
-    <row r="364" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="364" ht="12.75" customHeight="1">
       <c r="C364" s="13"/>
     </row>
-    <row r="365" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="365" ht="12.75" customHeight="1">
       <c r="C365" s="13"/>
     </row>
-    <row r="366" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="366" ht="12.75" customHeight="1">
       <c r="C366" s="13"/>
     </row>
-    <row r="367" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="367" ht="12.75" customHeight="1">
       <c r="C367" s="13"/>
     </row>
-    <row r="368" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="368" ht="12.75" customHeight="1">
       <c r="C368" s="13"/>
     </row>
-    <row r="369" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="369" ht="12.75" customHeight="1">
       <c r="C369" s="13"/>
     </row>
-    <row r="370" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="370" ht="12.75" customHeight="1">
       <c r="C370" s="13"/>
     </row>
-    <row r="371" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="371" ht="12.75" customHeight="1">
       <c r="C371" s="13"/>
     </row>
-    <row r="372" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="372" ht="12.75" customHeight="1">
       <c r="C372" s="13"/>
     </row>
-    <row r="373" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="373" ht="12.75" customHeight="1">
       <c r="C373" s="13"/>
     </row>
-    <row r="374" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="374" ht="12.75" customHeight="1">
       <c r="C374" s="13"/>
     </row>
-    <row r="375" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="375" ht="12.75" customHeight="1">
       <c r="C375" s="13"/>
     </row>
-    <row r="376" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="376" ht="12.75" customHeight="1">
       <c r="C376" s="13"/>
     </row>
-    <row r="377" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="377" ht="12.75" customHeight="1">
       <c r="C377" s="13"/>
     </row>
-    <row r="378" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="378" ht="12.75" customHeight="1">
       <c r="C378" s="13"/>
     </row>
-    <row r="379" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="379" ht="12.75" customHeight="1">
       <c r="C379" s="13"/>
     </row>
-    <row r="380" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="380" ht="12.75" customHeight="1">
       <c r="C380" s="13"/>
     </row>
-    <row r="381" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="381" ht="12.75" customHeight="1">
       <c r="C381" s="13"/>
     </row>
-    <row r="382" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="382" ht="12.75" customHeight="1">
       <c r="C382" s="13"/>
     </row>
-    <row r="383" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="383" ht="12.75" customHeight="1">
       <c r="C383" s="13"/>
     </row>
-    <row r="384" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="384" ht="12.75" customHeight="1">
       <c r="C384" s="13"/>
     </row>
-    <row r="385" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="385" ht="12.75" customHeight="1">
       <c r="C385" s="13"/>
     </row>
-    <row r="386" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="386" ht="12.75" customHeight="1">
       <c r="C386" s="13"/>
     </row>
-    <row r="387" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="387" ht="12.75" customHeight="1">
       <c r="C387" s="13"/>
     </row>
-    <row r="388" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="388" ht="12.75" customHeight="1">
       <c r="C388" s="13"/>
     </row>
-    <row r="389" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="389" ht="12.75" customHeight="1">
       <c r="C389" s="13"/>
     </row>
-    <row r="390" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="390" ht="12.75" customHeight="1">
       <c r="C390" s="13"/>
     </row>
-    <row r="391" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="391" ht="12.75" customHeight="1">
       <c r="C391" s="13"/>
     </row>
-    <row r="392" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="392" ht="12.75" customHeight="1">
       <c r="C392" s="13"/>
     </row>
-    <row r="393" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="393" ht="12.75" customHeight="1">
       <c r="C393" s="13"/>
     </row>
-    <row r="394" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="394" ht="12.75" customHeight="1">
       <c r="C394" s="13"/>
     </row>
-    <row r="395" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="395" ht="12.75" customHeight="1">
       <c r="C395" s="13"/>
     </row>
-    <row r="396" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="396" ht="12.75" customHeight="1">
       <c r="C396" s="13"/>
     </row>
-    <row r="397" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="397" ht="12.75" customHeight="1">
       <c r="C397" s="13"/>
     </row>
-    <row r="398" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="398" ht="12.75" customHeight="1">
       <c r="C398" s="13"/>
     </row>
-    <row r="399" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="399" ht="12.75" customHeight="1">
       <c r="C399" s="13"/>
     </row>
-    <row r="400" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="400" ht="12.75" customHeight="1">
       <c r="C400" s="13"/>
     </row>
-    <row r="401" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="401" ht="12.75" customHeight="1">
       <c r="C401" s="13"/>
     </row>
-    <row r="402" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="402" ht="12.75" customHeight="1">
       <c r="C402" s="13"/>
     </row>
-    <row r="403" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="403" ht="12.75" customHeight="1">
       <c r="C403" s="13"/>
     </row>
-    <row r="404" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="404" ht="12.75" customHeight="1">
       <c r="C404" s="13"/>
     </row>
-    <row r="405" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="405" ht="12.75" customHeight="1">
       <c r="C405" s="13"/>
     </row>
-    <row r="406" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="406" ht="12.75" customHeight="1">
       <c r="C406" s="13"/>
     </row>
-    <row r="407" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="407" ht="12.75" customHeight="1">
       <c r="C407" s="13"/>
     </row>
-    <row r="408" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="408" ht="12.75" customHeight="1">
       <c r="C408" s="13"/>
     </row>
-    <row r="409" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="409" ht="12.75" customHeight="1">
       <c r="C409" s="13"/>
     </row>
-    <row r="410" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="410" ht="12.75" customHeight="1">
       <c r="C410" s="13"/>
     </row>
-    <row r="411" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="411" ht="12.75" customHeight="1">
       <c r="C411" s="13"/>
     </row>
-    <row r="412" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="412" ht="12.75" customHeight="1">
       <c r="C412" s="13"/>
     </row>
-    <row r="413" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="413" ht="12.75" customHeight="1">
       <c r="C413" s="13"/>
     </row>
-    <row r="414" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="414" ht="12.75" customHeight="1">
       <c r="C414" s="13"/>
     </row>
-    <row r="415" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="415" ht="12.75" customHeight="1">
       <c r="C415" s="13"/>
     </row>
-    <row r="416" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="416" ht="12.75" customHeight="1">
       <c r="C416" s="13"/>
     </row>
-    <row r="417" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="417" ht="12.75" customHeight="1">
       <c r="C417" s="13"/>
     </row>
-    <row r="418" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="418" ht="12.75" customHeight="1">
       <c r="C418" s="13"/>
     </row>
-    <row r="419" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="419" ht="12.75" customHeight="1">
       <c r="C419" s="13"/>
     </row>
-    <row r="420" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="420" ht="12.75" customHeight="1">
       <c r="C420" s="13"/>
     </row>
-    <row r="421" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="421" ht="12.75" customHeight="1">
       <c r="C421" s="13"/>
     </row>
-    <row r="422" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="422" ht="12.75" customHeight="1">
       <c r="C422" s="13"/>
     </row>
-    <row r="423" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="423" ht="12.75" customHeight="1">
       <c r="C423" s="13"/>
     </row>
-    <row r="424" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="424" ht="12.75" customHeight="1">
       <c r="C424" s="13"/>
     </row>
-    <row r="425" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="425" ht="12.75" customHeight="1">
       <c r="C425" s="13"/>
     </row>
-    <row r="426" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="426" ht="12.75" customHeight="1">
       <c r="C426" s="13"/>
     </row>
-    <row r="427" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="427" ht="12.75" customHeight="1">
       <c r="C427" s="13"/>
     </row>
-    <row r="428" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="428" ht="12.75" customHeight="1">
       <c r="C428" s="13"/>
     </row>
-    <row r="429" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="429" ht="12.75" customHeight="1">
       <c r="C429" s="13"/>
     </row>
-    <row r="430" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="430" ht="12.75" customHeight="1">
       <c r="C430" s="13"/>
     </row>
-    <row r="431" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="431" ht="12.75" customHeight="1">
       <c r="C431" s="13"/>
     </row>
-    <row r="432" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="432" ht="12.75" customHeight="1">
       <c r="C432" s="13"/>
     </row>
-    <row r="433" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="433" ht="12.75" customHeight="1">
       <c r="C433" s="13"/>
     </row>
-    <row r="434" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="434" ht="12.75" customHeight="1">
       <c r="C434" s="13"/>
     </row>
-    <row r="435" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="435" ht="12.75" customHeight="1">
       <c r="C435" s="13"/>
     </row>
-    <row r="436" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="436" ht="12.75" customHeight="1">
       <c r="C436" s="13"/>
     </row>
-    <row r="437" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="437" ht="12.75" customHeight="1">
       <c r="C437" s="13"/>
     </row>
-    <row r="438" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="438" ht="12.75" customHeight="1">
       <c r="C438" s="13"/>
     </row>
-    <row r="439" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="439" ht="12.75" customHeight="1">
       <c r="C439" s="13"/>
     </row>
-    <row r="440" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="440" ht="12.75" customHeight="1">
       <c r="C440" s="13"/>
     </row>
-    <row r="441" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="441" ht="12.75" customHeight="1">
       <c r="C441" s="13"/>
     </row>
-    <row r="442" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="442" ht="12.75" customHeight="1">
       <c r="C442" s="13"/>
     </row>
-    <row r="443" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="443" ht="12.75" customHeight="1">
       <c r="C443" s="13"/>
     </row>
-    <row r="444" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="444" ht="12.75" customHeight="1">
       <c r="C444" s="13"/>
     </row>
-    <row r="445" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="445" ht="12.75" customHeight="1">
       <c r="C445" s="13"/>
     </row>
-    <row r="446" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="446" ht="12.75" customHeight="1">
       <c r="C446" s="13"/>
     </row>
-    <row r="447" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="447" ht="12.75" customHeight="1">
       <c r="C447" s="13"/>
     </row>
-    <row r="448" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="448" ht="12.75" customHeight="1">
       <c r="C448" s="13"/>
     </row>
-    <row r="449" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="449" ht="12.75" customHeight="1">
       <c r="C449" s="13"/>
     </row>
-    <row r="450" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="450" ht="12.75" customHeight="1">
       <c r="C450" s="13"/>
     </row>
-    <row r="451" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="451" ht="12.75" customHeight="1">
       <c r="C451" s="13"/>
     </row>
-    <row r="452" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="452" ht="12.75" customHeight="1">
       <c r="C452" s="13"/>
     </row>
-    <row r="453" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="453" ht="12.75" customHeight="1">
       <c r="C453" s="13"/>
     </row>
-    <row r="454" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="454" ht="12.75" customHeight="1">
       <c r="C454" s="13"/>
     </row>
-    <row r="455" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="455" ht="12.75" customHeight="1">
       <c r="C455" s="13"/>
     </row>
+    <row r="456" ht="12.75" customHeight="1"/>
+    <row r="457" ht="12.75" customHeight="1"/>
+    <row r="458" ht="12.75" customHeight="1"/>
+    <row r="459" ht="12.75" customHeight="1"/>
+    <row r="460" ht="12.75" customHeight="1"/>
+    <row r="461" ht="12.75" customHeight="1"/>
+    <row r="462" ht="12.75" customHeight="1"/>
+    <row r="463" ht="12.75" customHeight="1"/>
+    <row r="464" ht="12.75" customHeight="1"/>
+    <row r="465" ht="12.75" customHeight="1"/>
+    <row r="466" ht="12.75" customHeight="1"/>
+    <row r="467" ht="12.75" customHeight="1"/>
+    <row r="468" ht="12.75" customHeight="1"/>
+    <row r="469" ht="12.75" customHeight="1"/>
+    <row r="470" ht="12.75" customHeight="1"/>
+    <row r="471" ht="12.75" customHeight="1"/>
+    <row r="472" ht="12.75" customHeight="1"/>
+    <row r="473" ht="12.75" customHeight="1"/>
+    <row r="474" ht="12.75" customHeight="1"/>
+    <row r="475" ht="12.75" customHeight="1"/>
+    <row r="476" ht="12.75" customHeight="1"/>
+    <row r="477" ht="12.75" customHeight="1"/>
+    <row r="478" ht="12.75" customHeight="1"/>
+    <row r="479" ht="12.75" customHeight="1"/>
+    <row r="480" ht="12.75" customHeight="1"/>
+    <row r="481" ht="12.75" customHeight="1"/>
+    <row r="482" ht="12.75" customHeight="1"/>
+    <row r="483" ht="12.75" customHeight="1"/>
+    <row r="484" ht="12.75" customHeight="1"/>
+    <row r="485" ht="12.75" customHeight="1"/>
+    <row r="486" ht="12.75" customHeight="1"/>
+    <row r="487" ht="12.75" customHeight="1"/>
+    <row r="488" ht="12.75" customHeight="1"/>
+    <row r="489" ht="12.75" customHeight="1"/>
+    <row r="490" ht="12.75" customHeight="1"/>
+    <row r="491" ht="12.75" customHeight="1"/>
+    <row r="492" ht="12.75" customHeight="1"/>
+    <row r="493" ht="12.75" customHeight="1"/>
+    <row r="494" ht="12.75" customHeight="1"/>
+    <row r="495" ht="12.75" customHeight="1"/>
+    <row r="496" ht="12.75" customHeight="1"/>
+    <row r="497" ht="12.75" customHeight="1"/>
+    <row r="498" ht="12.75" customHeight="1"/>
+    <row r="499" ht="12.75" customHeight="1"/>
+    <row r="500" ht="12.75" customHeight="1"/>
+    <row r="501" ht="12.75" customHeight="1"/>
+    <row r="502" ht="12.75" customHeight="1"/>
+    <row r="503" ht="12.75" customHeight="1"/>
+    <row r="504" ht="12.75" customHeight="1"/>
+    <row r="505" ht="12.75" customHeight="1"/>
+    <row r="506" ht="12.75" customHeight="1"/>
+    <row r="507" ht="12.75" customHeight="1"/>
+    <row r="508" ht="12.75" customHeight="1"/>
+    <row r="509" ht="12.75" customHeight="1"/>
+    <row r="510" ht="12.75" customHeight="1"/>
+    <row r="511" ht="12.75" customHeight="1"/>
+    <row r="512" ht="12.75" customHeight="1"/>
+    <row r="513" ht="12.75" customHeight="1"/>
+    <row r="514" ht="12.75" customHeight="1"/>
+    <row r="515" ht="12.75" customHeight="1"/>
+    <row r="516" ht="12.75" customHeight="1"/>
+    <row r="517" ht="12.75" customHeight="1"/>
+    <row r="518" ht="12.75" customHeight="1"/>
+    <row r="519" ht="12.75" customHeight="1"/>
+    <row r="520" ht="12.75" customHeight="1"/>
+    <row r="521" ht="12.75" customHeight="1"/>
+    <row r="522" ht="12.75" customHeight="1"/>
+    <row r="523" ht="12.75" customHeight="1"/>
+    <row r="524" ht="12.75" customHeight="1"/>
+    <row r="525" ht="12.75" customHeight="1"/>
+    <row r="526" ht="12.75" customHeight="1"/>
+    <row r="527" ht="12.75" customHeight="1"/>
+    <row r="528" ht="12.75" customHeight="1"/>
+    <row r="529" ht="12.75" customHeight="1"/>
+    <row r="530" ht="12.75" customHeight="1"/>
+    <row r="531" ht="12.75" customHeight="1"/>
+    <row r="532" ht="12.75" customHeight="1"/>
+    <row r="533" ht="12.75" customHeight="1"/>
+    <row r="534" ht="12.75" customHeight="1"/>
+    <row r="535" ht="12.75" customHeight="1"/>
+    <row r="536" ht="12.75" customHeight="1"/>
+    <row r="537" ht="12.75" customHeight="1"/>
+    <row r="538" ht="12.75" customHeight="1"/>
+    <row r="539" ht="12.75" customHeight="1"/>
+    <row r="540" ht="12.75" customHeight="1"/>
+    <row r="541" ht="12.75" customHeight="1"/>
+    <row r="542" ht="12.75" customHeight="1"/>
+    <row r="543" ht="12.75" customHeight="1"/>
+    <row r="544" ht="12.75" customHeight="1"/>
+    <row r="545" ht="12.75" customHeight="1"/>
+    <row r="546" ht="12.75" customHeight="1"/>
+    <row r="547" ht="12.75" customHeight="1"/>
+    <row r="548" ht="12.75" customHeight="1"/>
+    <row r="549" ht="12.75" customHeight="1"/>
+    <row r="550" ht="12.75" customHeight="1"/>
+    <row r="551" ht="12.75" customHeight="1"/>
+    <row r="552" ht="12.75" customHeight="1"/>
+    <row r="553" ht="12.75" customHeight="1"/>
+    <row r="554" ht="12.75" customHeight="1"/>
+    <row r="555" ht="12.75" customHeight="1"/>
+    <row r="556" ht="12.75" customHeight="1"/>
+    <row r="557" ht="12.75" customHeight="1"/>
+    <row r="558" ht="12.75" customHeight="1"/>
+    <row r="559" ht="12.75" customHeight="1"/>
+    <row r="560" ht="12.75" customHeight="1"/>
+    <row r="561" ht="12.75" customHeight="1"/>
+    <row r="562" ht="12.75" customHeight="1"/>
+    <row r="563" ht="12.75" customHeight="1"/>
+    <row r="564" ht="12.75" customHeight="1"/>
+    <row r="565" ht="12.75" customHeight="1"/>
+    <row r="566" ht="12.75" customHeight="1"/>
+    <row r="567" ht="12.75" customHeight="1"/>
+    <row r="568" ht="12.75" customHeight="1"/>
+    <row r="569" ht="12.75" customHeight="1"/>
+    <row r="570" ht="12.75" customHeight="1"/>
+    <row r="571" ht="12.75" customHeight="1"/>
+    <row r="572" ht="12.75" customHeight="1"/>
+    <row r="573" ht="12.75" customHeight="1"/>
+    <row r="574" ht="12.75" customHeight="1"/>
+    <row r="575" ht="12.75" customHeight="1"/>
+    <row r="576" ht="12.75" customHeight="1"/>
+    <row r="577" ht="12.75" customHeight="1"/>
+    <row r="578" ht="12.75" customHeight="1"/>
+    <row r="579" ht="12.75" customHeight="1"/>
+    <row r="580" ht="12.75" customHeight="1"/>
+    <row r="581" ht="12.75" customHeight="1"/>
+    <row r="582" ht="12.75" customHeight="1"/>
+    <row r="583" ht="12.75" customHeight="1"/>
+    <row r="584" ht="12.75" customHeight="1"/>
+    <row r="585" ht="12.75" customHeight="1"/>
+    <row r="586" ht="12.75" customHeight="1"/>
+    <row r="587" ht="12.75" customHeight="1"/>
+    <row r="588" ht="12.75" customHeight="1"/>
+    <row r="589" ht="12.75" customHeight="1"/>
+    <row r="590" ht="12.75" customHeight="1"/>
+    <row r="591" ht="12.75" customHeight="1"/>
+    <row r="592" ht="12.75" customHeight="1"/>
+    <row r="593" ht="12.75" customHeight="1"/>
+    <row r="594" ht="12.75" customHeight="1"/>
+    <row r="595" ht="12.75" customHeight="1"/>
+    <row r="596" ht="12.75" customHeight="1"/>
+    <row r="597" ht="12.75" customHeight="1"/>
+    <row r="598" ht="12.75" customHeight="1"/>
+    <row r="599" ht="12.75" customHeight="1"/>
+    <row r="600" ht="12.75" customHeight="1"/>
+    <row r="601" ht="12.75" customHeight="1"/>
+    <row r="602" ht="12.75" customHeight="1"/>
+    <row r="603" ht="12.75" customHeight="1"/>
+    <row r="604" ht="12.75" customHeight="1"/>
+    <row r="605" ht="12.75" customHeight="1"/>
+    <row r="606" ht="12.75" customHeight="1"/>
+    <row r="607" ht="12.75" customHeight="1"/>
+    <row r="608" ht="12.75" customHeight="1"/>
+    <row r="609" ht="12.75" customHeight="1"/>
+    <row r="610" ht="12.75" customHeight="1"/>
+    <row r="611" ht="12.75" customHeight="1"/>
+    <row r="612" ht="12.75" customHeight="1"/>
+    <row r="613" ht="12.75" customHeight="1"/>
+    <row r="614" ht="12.75" customHeight="1"/>
+    <row r="615" ht="12.75" customHeight="1"/>
+    <row r="616" ht="12.75" customHeight="1"/>
+    <row r="617" ht="12.75" customHeight="1"/>
+    <row r="618" ht="12.75" customHeight="1"/>
+    <row r="619" ht="12.75" customHeight="1"/>
+    <row r="620" ht="12.75" customHeight="1"/>
+    <row r="621" ht="12.75" customHeight="1"/>
+    <row r="622" ht="12.75" customHeight="1"/>
+    <row r="623" ht="12.75" customHeight="1"/>
+    <row r="624" ht="12.75" customHeight="1"/>
+    <row r="625" ht="12.75" customHeight="1"/>
+    <row r="626" ht="12.75" customHeight="1"/>
+    <row r="627" ht="12.75" customHeight="1"/>
+    <row r="628" ht="12.75" customHeight="1"/>
+    <row r="629" ht="12.75" customHeight="1"/>
+    <row r="630" ht="12.75" customHeight="1"/>
+    <row r="631" ht="12.75" customHeight="1"/>
+    <row r="632" ht="12.75" customHeight="1"/>
+    <row r="633" ht="12.75" customHeight="1"/>
+    <row r="634" ht="12.75" customHeight="1"/>
+    <row r="635" ht="12.75" customHeight="1"/>
+    <row r="636" ht="12.75" customHeight="1"/>
+    <row r="637" ht="12.75" customHeight="1"/>
+    <row r="638" ht="12.75" customHeight="1"/>
+    <row r="639" ht="12.75" customHeight="1"/>
+    <row r="640" ht="12.75" customHeight="1"/>
+    <row r="641" ht="12.75" customHeight="1"/>
+    <row r="642" ht="12.75" customHeight="1"/>
+    <row r="643" ht="12.75" customHeight="1"/>
+    <row r="644" ht="12.75" customHeight="1"/>
+    <row r="645" ht="12.75" customHeight="1"/>
+    <row r="646" ht="12.75" customHeight="1"/>
+    <row r="647" ht="12.75" customHeight="1"/>
+    <row r="648" ht="12.75" customHeight="1"/>
+    <row r="649" ht="12.75" customHeight="1"/>
+    <row r="650" ht="12.75" customHeight="1"/>
+    <row r="651" ht="12.75" customHeight="1"/>
+    <row r="652" ht="12.75" customHeight="1"/>
+    <row r="653" ht="12.75" customHeight="1"/>
+    <row r="654" ht="12.75" customHeight="1"/>
+    <row r="655" ht="12.75" customHeight="1"/>
+    <row r="656" ht="12.75" customHeight="1"/>
+    <row r="657" ht="12.75" customHeight="1"/>
+    <row r="658" ht="12.75" customHeight="1"/>
+    <row r="659" ht="12.75" customHeight="1"/>
+    <row r="660" ht="12.75" customHeight="1"/>
+    <row r="661" ht="12.75" customHeight="1"/>
+    <row r="662" ht="12.75" customHeight="1"/>
+    <row r="663" ht="12.75" customHeight="1"/>
+    <row r="664" ht="12.75" customHeight="1"/>
+    <row r="665" ht="12.75" customHeight="1"/>
+    <row r="666" ht="12.75" customHeight="1"/>
+    <row r="667" ht="12.75" customHeight="1"/>
+    <row r="668" ht="12.75" customHeight="1"/>
+    <row r="669" ht="12.75" customHeight="1"/>
+    <row r="670" ht="12.75" customHeight="1"/>
+    <row r="671" ht="12.75" customHeight="1"/>
+    <row r="672" ht="12.75" customHeight="1"/>
+    <row r="673" ht="12.75" customHeight="1"/>
+    <row r="674" ht="12.75" customHeight="1"/>
+    <row r="675" ht="12.75" customHeight="1"/>
+    <row r="676" ht="12.75" customHeight="1"/>
+    <row r="677" ht="12.75" customHeight="1"/>
+    <row r="678" ht="12.75" customHeight="1"/>
+    <row r="679" ht="12.75" customHeight="1"/>
+    <row r="680" ht="12.75" customHeight="1"/>
+    <row r="681" ht="12.75" customHeight="1"/>
+    <row r="682" ht="12.75" customHeight="1"/>
+    <row r="683" ht="12.75" customHeight="1"/>
+    <row r="684" ht="12.75" customHeight="1"/>
+    <row r="685" ht="12.75" customHeight="1"/>
+    <row r="686" ht="12.75" customHeight="1"/>
+    <row r="687" ht="12.75" customHeight="1"/>
+    <row r="688" ht="12.75" customHeight="1"/>
+    <row r="689" ht="12.75" customHeight="1"/>
+    <row r="690" ht="12.75" customHeight="1"/>
+    <row r="691" ht="12.75" customHeight="1"/>
+    <row r="692" ht="12.75" customHeight="1"/>
+    <row r="693" ht="12.75" customHeight="1"/>
+    <row r="694" ht="12.75" customHeight="1"/>
+    <row r="695" ht="12.75" customHeight="1"/>
+    <row r="696" ht="12.75" customHeight="1"/>
+    <row r="697" ht="12.75" customHeight="1"/>
+    <row r="698" ht="12.75" customHeight="1"/>
+    <row r="699" ht="12.75" customHeight="1"/>
+    <row r="700" ht="12.75" customHeight="1"/>
+    <row r="701" ht="12.75" customHeight="1"/>
+    <row r="702" ht="12.75" customHeight="1"/>
+    <row r="703" ht="12.75" customHeight="1"/>
+    <row r="704" ht="12.75" customHeight="1"/>
+    <row r="705" ht="12.75" customHeight="1"/>
+    <row r="706" ht="12.75" customHeight="1"/>
+    <row r="707" ht="12.75" customHeight="1"/>
+    <row r="708" ht="12.75" customHeight="1"/>
+    <row r="709" ht="12.75" customHeight="1"/>
+    <row r="710" ht="12.75" customHeight="1"/>
+    <row r="711" ht="12.75" customHeight="1"/>
+    <row r="712" ht="12.75" customHeight="1"/>
+    <row r="713" ht="12.75" customHeight="1"/>
+    <row r="714" ht="12.75" customHeight="1"/>
+    <row r="715" ht="12.75" customHeight="1"/>
+    <row r="716" ht="12.75" customHeight="1"/>
+    <row r="717" ht="12.75" customHeight="1"/>
+    <row r="718" ht="12.75" customHeight="1"/>
+    <row r="719" ht="12.75" customHeight="1"/>
+    <row r="720" ht="12.75" customHeight="1"/>
+    <row r="721" ht="12.75" customHeight="1"/>
+    <row r="722" ht="12.75" customHeight="1"/>
+    <row r="723" ht="12.75" customHeight="1"/>
+    <row r="724" ht="12.75" customHeight="1"/>
+    <row r="725" ht="12.75" customHeight="1"/>
+    <row r="726" ht="12.75" customHeight="1"/>
+    <row r="727" ht="12.75" customHeight="1"/>
+    <row r="728" ht="12.75" customHeight="1"/>
+    <row r="729" ht="12.75" customHeight="1"/>
+    <row r="730" ht="12.75" customHeight="1"/>
+    <row r="731" ht="12.75" customHeight="1"/>
+    <row r="732" ht="12.75" customHeight="1"/>
+    <row r="733" ht="12.75" customHeight="1"/>
+    <row r="734" ht="12.75" customHeight="1"/>
+    <row r="735" ht="12.75" customHeight="1"/>
+    <row r="736" ht="12.75" customHeight="1"/>
+    <row r="737" ht="12.75" customHeight="1"/>
+    <row r="738" ht="12.75" customHeight="1"/>
+    <row r="739" ht="12.75" customHeight="1"/>
+    <row r="740" ht="12.75" customHeight="1"/>
+    <row r="741" ht="12.75" customHeight="1"/>
+    <row r="742" ht="12.75" customHeight="1"/>
+    <row r="743" ht="12.75" customHeight="1"/>
+    <row r="744" ht="12.75" customHeight="1"/>
+    <row r="745" ht="12.75" customHeight="1"/>
+    <row r="746" ht="12.75" customHeight="1"/>
+    <row r="747" ht="12.75" customHeight="1"/>
+    <row r="748" ht="12.75" customHeight="1"/>
+    <row r="749" ht="12.75" customHeight="1"/>
+    <row r="750" ht="12.75" customHeight="1"/>
+    <row r="751" ht="12.75" customHeight="1"/>
+    <row r="752" ht="12.75" customHeight="1"/>
+    <row r="753" ht="12.75" customHeight="1"/>
+    <row r="754" ht="12.75" customHeight="1"/>
+    <row r="755" ht="12.75" customHeight="1"/>
+    <row r="756" ht="12.75" customHeight="1"/>
+    <row r="757" ht="12.75" customHeight="1"/>
+    <row r="758" ht="12.75" customHeight="1"/>
+    <row r="759" ht="12.75" customHeight="1"/>
+    <row r="760" ht="12.75" customHeight="1"/>
+    <row r="761" ht="12.75" customHeight="1"/>
+    <row r="762" ht="12.75" customHeight="1"/>
+    <row r="763" ht="12.75" customHeight="1"/>
+    <row r="764" ht="12.75" customHeight="1"/>
+    <row r="765" ht="12.75" customHeight="1"/>
+    <row r="766" ht="12.75" customHeight="1"/>
+    <row r="767" ht="12.75" customHeight="1"/>
+    <row r="768" ht="12.75" customHeight="1"/>
+    <row r="769" ht="12.75" customHeight="1"/>
+    <row r="770" ht="12.75" customHeight="1"/>
+    <row r="771" ht="12.75" customHeight="1"/>
+    <row r="772" ht="12.75" customHeight="1"/>
+    <row r="773" ht="12.75" customHeight="1"/>
+    <row r="774" ht="12.75" customHeight="1"/>
+    <row r="775" ht="12.75" customHeight="1"/>
+    <row r="776" ht="12.75" customHeight="1"/>
+    <row r="777" ht="12.75" customHeight="1"/>
+    <row r="778" ht="12.75" customHeight="1"/>
+    <row r="779" ht="12.75" customHeight="1"/>
+    <row r="780" ht="12.75" customHeight="1"/>
+    <row r="781" ht="12.75" customHeight="1"/>
+    <row r="782" ht="12.75" customHeight="1"/>
+    <row r="783" ht="12.75" customHeight="1"/>
+    <row r="784" ht="12.75" customHeight="1"/>
+    <row r="785" ht="12.75" customHeight="1"/>
+    <row r="786" ht="12.75" customHeight="1"/>
+    <row r="787" ht="12.75" customHeight="1"/>
+    <row r="788" ht="12.75" customHeight="1"/>
+    <row r="789" ht="12.75" customHeight="1"/>
+    <row r="790" ht="12.75" customHeight="1"/>
+    <row r="791" ht="12.75" customHeight="1"/>
+    <row r="792" ht="12.75" customHeight="1"/>
+    <row r="793" ht="12.75" customHeight="1"/>
+    <row r="794" ht="12.75" customHeight="1"/>
+    <row r="795" ht="12.75" customHeight="1"/>
+    <row r="796" ht="12.75" customHeight="1"/>
+    <row r="797" ht="12.75" customHeight="1"/>
+    <row r="798" ht="12.75" customHeight="1"/>
+    <row r="799" ht="12.75" customHeight="1"/>
+    <row r="800" ht="12.75" customHeight="1"/>
+    <row r="801" ht="12.75" customHeight="1"/>
+    <row r="802" ht="12.75" customHeight="1"/>
+    <row r="803" ht="12.75" customHeight="1"/>
+    <row r="804" ht="12.75" customHeight="1"/>
+    <row r="805" ht="12.75" customHeight="1"/>
+    <row r="806" ht="12.75" customHeight="1"/>
+    <row r="807" ht="12.75" customHeight="1"/>
+    <row r="808" ht="12.75" customHeight="1"/>
+    <row r="809" ht="12.75" customHeight="1"/>
+    <row r="810" ht="12.75" customHeight="1"/>
+    <row r="811" ht="12.75" customHeight="1"/>
+    <row r="812" ht="12.75" customHeight="1"/>
+    <row r="813" ht="12.75" customHeight="1"/>
+    <row r="814" ht="12.75" customHeight="1"/>
+    <row r="815" ht="12.75" customHeight="1"/>
+    <row r="816" ht="12.75" customHeight="1"/>
+    <row r="817" ht="12.75" customHeight="1"/>
+    <row r="818" ht="12.75" customHeight="1"/>
+    <row r="819" ht="12.75" customHeight="1"/>
+    <row r="820" ht="12.75" customHeight="1"/>
+    <row r="821" ht="12.75" customHeight="1"/>
+    <row r="822" ht="12.75" customHeight="1"/>
+    <row r="823" ht="12.75" customHeight="1"/>
+    <row r="824" ht="12.75" customHeight="1"/>
+    <row r="825" ht="12.75" customHeight="1"/>
+    <row r="826" ht="12.75" customHeight="1"/>
+    <row r="827" ht="12.75" customHeight="1"/>
+    <row r="828" ht="12.75" customHeight="1"/>
+    <row r="829" ht="12.75" customHeight="1"/>
+    <row r="830" ht="12.75" customHeight="1"/>
+    <row r="831" ht="12.75" customHeight="1"/>
+    <row r="832" ht="12.75" customHeight="1"/>
+    <row r="833" ht="12.75" customHeight="1"/>
+    <row r="834" ht="12.75" customHeight="1"/>
+    <row r="835" ht="12.75" customHeight="1"/>
+    <row r="836" ht="12.75" customHeight="1"/>
+    <row r="837" ht="12.75" customHeight="1"/>
+    <row r="838" ht="12.75" customHeight="1"/>
+    <row r="839" ht="12.75" customHeight="1"/>
+    <row r="840" ht="12.75" customHeight="1"/>
+    <row r="841" ht="12.75" customHeight="1"/>
+    <row r="842" ht="12.75" customHeight="1"/>
+    <row r="843" ht="12.75" customHeight="1"/>
+    <row r="844" ht="12.75" customHeight="1"/>
+    <row r="845" ht="12.75" customHeight="1"/>
+    <row r="846" ht="12.75" customHeight="1"/>
+    <row r="847" ht="12.75" customHeight="1"/>
+    <row r="848" ht="12.75" customHeight="1"/>
+    <row r="849" ht="12.75" customHeight="1"/>
+    <row r="850" ht="12.75" customHeight="1"/>
+    <row r="851" ht="12.75" customHeight="1"/>
+    <row r="852" ht="12.75" customHeight="1"/>
+    <row r="853" ht="12.75" customHeight="1"/>
+    <row r="854" ht="12.75" customHeight="1"/>
+    <row r="855" ht="12.75" customHeight="1"/>
+    <row r="856" ht="12.75" customHeight="1"/>
+    <row r="857" ht="12.75" customHeight="1"/>
+    <row r="858" ht="12.75" customHeight="1"/>
+    <row r="859" ht="12.75" customHeight="1"/>
+    <row r="860" ht="12.75" customHeight="1"/>
+    <row r="861" ht="12.75" customHeight="1"/>
+    <row r="862" ht="12.75" customHeight="1"/>
+    <row r="863" ht="12.75" customHeight="1"/>
+    <row r="864" ht="12.75" customHeight="1"/>
+    <row r="865" ht="12.75" customHeight="1"/>
+    <row r="866" ht="12.75" customHeight="1"/>
+    <row r="867" ht="12.75" customHeight="1"/>
+    <row r="868" ht="12.75" customHeight="1"/>
+    <row r="869" ht="12.75" customHeight="1"/>
+    <row r="870" ht="12.75" customHeight="1"/>
+    <row r="871" ht="12.75" customHeight="1"/>
+    <row r="872" ht="12.75" customHeight="1"/>
+    <row r="873" ht="12.75" customHeight="1"/>
+    <row r="874" ht="12.75" customHeight="1"/>
+    <row r="875" ht="12.75" customHeight="1"/>
+    <row r="876" ht="12.75" customHeight="1"/>
+    <row r="877" ht="12.75" customHeight="1"/>
+    <row r="878" ht="12.75" customHeight="1"/>
+    <row r="879" ht="12.75" customHeight="1"/>
+    <row r="880" ht="12.75" customHeight="1"/>
+    <row r="881" ht="12.75" customHeight="1"/>
+    <row r="882" ht="12.75" customHeight="1"/>
+    <row r="883" ht="12.75" customHeight="1"/>
+    <row r="884" ht="12.75" customHeight="1"/>
+    <row r="885" ht="12.75" customHeight="1"/>
+    <row r="886" ht="12.75" customHeight="1"/>
+    <row r="887" ht="12.75" customHeight="1"/>
+    <row r="888" ht="12.75" customHeight="1"/>
+    <row r="889" ht="12.75" customHeight="1"/>
+    <row r="890" ht="12.75" customHeight="1"/>
+    <row r="891" ht="12.75" customHeight="1"/>
+    <row r="892" ht="12.75" customHeight="1"/>
+    <row r="893" ht="12.75" customHeight="1"/>
+    <row r="894" ht="12.75" customHeight="1"/>
+    <row r="895" ht="12.75" customHeight="1"/>
+    <row r="896" ht="12.75" customHeight="1"/>
+    <row r="897" ht="12.75" customHeight="1"/>
+    <row r="898" ht="12.75" customHeight="1"/>
+    <row r="899" ht="12.75" customHeight="1"/>
+    <row r="900" ht="12.75" customHeight="1"/>
+    <row r="901" ht="12.75" customHeight="1"/>
+    <row r="902" ht="12.75" customHeight="1"/>
+    <row r="903" ht="12.75" customHeight="1"/>
+    <row r="904" ht="12.75" customHeight="1"/>
+    <row r="905" ht="12.75" customHeight="1"/>
+    <row r="906" ht="12.75" customHeight="1"/>
+    <row r="907" ht="12.75" customHeight="1"/>
+    <row r="908" ht="12.75" customHeight="1"/>
+    <row r="909" ht="12.75" customHeight="1"/>
+    <row r="910" ht="12.75" customHeight="1"/>
+    <row r="911" ht="12.75" customHeight="1"/>
+    <row r="912" ht="12.75" customHeight="1"/>
+    <row r="913" ht="12.75" customHeight="1"/>
+    <row r="914" ht="12.75" customHeight="1"/>
+    <row r="915" ht="12.75" customHeight="1"/>
+    <row r="916" ht="12.75" customHeight="1"/>
+    <row r="917" ht="12.75" customHeight="1"/>
+    <row r="918" ht="12.75" customHeight="1"/>
+    <row r="919" ht="12.75" customHeight="1"/>
+    <row r="920" ht="12.75" customHeight="1"/>
+    <row r="921" ht="12.75" customHeight="1"/>
+    <row r="922" ht="12.75" customHeight="1"/>
+    <row r="923" ht="12.75" customHeight="1"/>
+    <row r="924" ht="12.75" customHeight="1"/>
+    <row r="925" ht="12.75" customHeight="1"/>
+    <row r="926" ht="12.75" customHeight="1"/>
+    <row r="927" ht="12.75" customHeight="1"/>
+    <row r="928" ht="12.75" customHeight="1"/>
+    <row r="929" ht="12.75" customHeight="1"/>
+    <row r="930" ht="12.75" customHeight="1"/>
+    <row r="931" ht="12.75" customHeight="1"/>
+    <row r="932" ht="12.75" customHeight="1"/>
+    <row r="933" ht="12.75" customHeight="1"/>
+    <row r="934" ht="12.75" customHeight="1"/>
+    <row r="935" ht="12.75" customHeight="1"/>
+    <row r="936" ht="12.75" customHeight="1"/>
+    <row r="937" ht="12.75" customHeight="1"/>
+    <row r="938" ht="12.75" customHeight="1"/>
+    <row r="939" ht="12.75" customHeight="1"/>
+    <row r="940" ht="12.75" customHeight="1"/>
+    <row r="941" ht="12.75" customHeight="1"/>
+    <row r="942" ht="12.75" customHeight="1"/>
+    <row r="943" ht="12.75" customHeight="1"/>
+    <row r="944" ht="12.75" customHeight="1"/>
+    <row r="945" ht="12.75" customHeight="1"/>
+    <row r="946" ht="12.75" customHeight="1"/>
+    <row r="947" ht="12.75" customHeight="1"/>
+    <row r="948" ht="12.75" customHeight="1"/>
+    <row r="949" ht="12.75" customHeight="1"/>
+    <row r="950" ht="12.75" customHeight="1"/>
+    <row r="951" ht="12.75" customHeight="1"/>
+    <row r="952" ht="12.75" customHeight="1"/>
+    <row r="953" ht="12.75" customHeight="1"/>
+    <row r="954" ht="12.75" customHeight="1"/>
+    <row r="955" ht="12.75" customHeight="1"/>
+    <row r="956" ht="12.75" customHeight="1"/>
+    <row r="957" ht="12.75" customHeight="1"/>
+    <row r="958" ht="12.75" customHeight="1"/>
+    <row r="959" ht="12.75" customHeight="1"/>
+    <row r="960" ht="12.75" customHeight="1"/>
+    <row r="961" ht="12.75" customHeight="1"/>
+    <row r="962" ht="12.75" customHeight="1"/>
+    <row r="963" ht="12.75" customHeight="1"/>
+    <row r="964" ht="12.75" customHeight="1"/>
+    <row r="965" ht="12.75" customHeight="1"/>
+    <row r="966" ht="12.75" customHeight="1"/>
+    <row r="967" ht="12.75" customHeight="1"/>
+    <row r="968" ht="12.75" customHeight="1"/>
+    <row r="969" ht="12.75" customHeight="1"/>
+    <row r="970" ht="12.75" customHeight="1"/>
+    <row r="971" ht="12.75" customHeight="1"/>
+    <row r="972" ht="12.75" customHeight="1"/>
+    <row r="973" ht="12.75" customHeight="1"/>
+    <row r="974" ht="12.75" customHeight="1"/>
+    <row r="975" ht="12.75" customHeight="1"/>
+    <row r="976" ht="12.75" customHeight="1"/>
+    <row r="977" ht="12.75" customHeight="1"/>
+    <row r="978" ht="12.75" customHeight="1"/>
+    <row r="979" ht="12.75" customHeight="1"/>
+    <row r="980" ht="12.75" customHeight="1"/>
+    <row r="981" ht="12.75" customHeight="1"/>
+    <row r="982" ht="12.75" customHeight="1"/>
+    <row r="983" ht="12.75" customHeight="1"/>
+    <row r="984" ht="12.75" customHeight="1"/>
+    <row r="985" ht="12.75" customHeight="1"/>
+    <row r="986" ht="12.75" customHeight="1"/>
+    <row r="987" ht="12.75" customHeight="1"/>
+    <row r="988" ht="12.75" customHeight="1"/>
+    <row r="989" ht="12.75" customHeight="1"/>
+    <row r="990" ht="12.75" customHeight="1"/>
+    <row r="991" ht="12.75" customHeight="1"/>
+    <row r="992" ht="12.75" customHeight="1"/>
+    <row r="993" ht="12.75" customHeight="1"/>
+    <row r="994" ht="12.75" customHeight="1"/>
+    <row r="995" ht="12.75" customHeight="1"/>
+    <row r="996" ht="12.75" customHeight="1"/>
+    <row r="997" ht="12.75" customHeight="1"/>
+    <row r="998" ht="12.75" customHeight="1"/>
+    <row r="999" ht="12.75" customHeight="1"/>
+    <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:B7"/>
     <mergeCell ref="C2:C7"/>
   </mergeCells>
   <conditionalFormatting sqref="C9:C455">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C455">
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C455">
-    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C455">
-    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"C"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C9:C455" type="list">
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C9:C455">
       <formula1>"OK,A,B,C"</formula1>
-      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <printOptions/>
+  <pageMargins bottom="0.984027777777778" footer="0.0" header="0.0" left="0.747916666666667" right="0.747916666666667" top="0.984027777777778"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/nmt/астатистика/nmt_186k_saria.xlsx
+++ b/nmt/астатистика/nmt_186k_saria.xlsx
@@ -9,7 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="527">
   <si>
     <t xml:space="preserve">Instructions</t>
   </si>
@@ -61,6 +61,9 @@
     <t xml:space="preserve">C</t>
   </si>
   <si>
+    <t xml:space="preserve">bicleaner-ai</t>
+  </si>
+  <si>
     <t xml:space="preserve">Аԥсуа ҳәоу</t>
   </si>
   <si>
@@ -73,10 +76,10 @@
     <t xml:space="preserve">Ахәшьара</t>
   </si>
   <si>
-    <t xml:space="preserve">ab word tok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ru word tok</t>
+    <t xml:space="preserve">ab-ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ru-ab</t>
   </si>
   <si>
     <t xml:space="preserve">ихьаа хҽыгоуп ан лмыткәма, ахы злымҵыц лгәахы.</t>
@@ -1807,11 +1810,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1826,11 +1829,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1843,7 +1846,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="10">
     <dxf>
       <font>
         <name val="Arial"/>
@@ -1893,6 +1896,49 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF5429"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF5EB91E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD4EA6B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF5429"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFD428"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF7F7F7"/>
+          <bgColor rgb="FF272727"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1965,22 +2011,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1000"/>
+  <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="58.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="56.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="7" style="0" width="14.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1021" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="7" style="0" width="14.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1011" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2060,33 +2106,37 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
+      <c r="E7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="B8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>15</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>8</v>
@@ -2094,16 +2144,19 @@
       <c r="D9" s="14" t="n">
         <v>-15.064842</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="E9" s="0" t="n">
         <v>0.694</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0.615</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>9</v>
@@ -2111,16 +2164,19 @@
       <c r="D10" s="14" t="n">
         <v>-19.998878</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="E10" s="0" t="n">
         <v>0.015</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0.359</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>9</v>
@@ -2128,16 +2184,19 @@
       <c r="D11" s="14" t="n">
         <v>-6.254394</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="E11" s="0" t="n">
         <v>0.002</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0.343</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>9</v>
@@ -2145,16 +2204,19 @@
       <c r="D12" s="14" t="n">
         <v>-12.333876</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="E12" s="0" t="n">
         <v>0.093</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>7</v>
@@ -2162,16 +2224,19 @@
       <c r="D13" s="14" t="n">
         <v>-30.289677</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="E13" s="0" t="n">
         <v>0.511</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0.104</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>7</v>
@@ -2179,16 +2244,19 @@
       <c r="D14" s="14" t="n">
         <v>-6.067527</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="E14" s="0" t="n">
         <v>0.01</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0.208</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>8</v>
@@ -2196,16 +2264,19 @@
       <c r="D15" s="14" t="n">
         <v>-14.711241</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="E15" s="0" t="n">
         <v>0.518</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0.255</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>9</v>
@@ -2213,16 +2284,19 @@
       <c r="D16" s="14" t="n">
         <v>-6.144454</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="E16" s="0" t="n">
         <v>0.04</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0.859</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>9</v>
@@ -2230,16 +2304,19 @@
       <c r="D17" s="14" t="n">
         <v>-14.705292</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="E17" s="0" t="n">
         <v>0.185</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0.503</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>7</v>
@@ -2247,16 +2324,19 @@
       <c r="D18" s="14" t="n">
         <v>-8.845968</v>
       </c>
-      <c r="G18" s="0" t="n">
-        <v>0</v>
+      <c r="E18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0.258</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>8</v>
@@ -2264,16 +2344,19 @@
       <c r="D19" s="14" t="n">
         <v>-23.373587</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="E19" s="0" t="n">
         <v>0.578</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0.352</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>9</v>
@@ -2281,16 +2364,19 @@
       <c r="D20" s="14" t="n">
         <v>-5.908676</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="E20" s="0" t="n">
         <v>0.008</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0.326</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>9</v>
@@ -2298,16 +2384,19 @@
       <c r="D21" s="14" t="n">
         <v>-6.987658</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="E21" s="0" t="n">
         <v>0.009</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>0.217</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>8</v>
@@ -2315,16 +2404,19 @@
       <c r="D22" s="14" t="n">
         <v>-16.31897</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="E22" s="0" t="n">
         <v>0.125</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>0.621</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>9</v>
@@ -2332,16 +2424,19 @@
       <c r="D23" s="14" t="n">
         <v>-10.912862</v>
       </c>
-      <c r="G23" s="0" t="n">
+      <c r="E23" s="0" t="n">
         <v>0.49</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>0.359</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>9</v>
@@ -2349,16 +2444,19 @@
       <c r="D24" s="14" t="n">
         <v>-10.728935</v>
       </c>
-      <c r="G24" s="0" t="n">
-        <v>0</v>
+      <c r="E24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>0.014</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>9</v>
@@ -2366,16 +2464,19 @@
       <c r="D25" s="14" t="n">
         <v>-6.189813</v>
       </c>
-      <c r="G25" s="0" t="n">
+      <c r="E25" s="0" t="n">
         <v>0.61</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>0.403</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>7</v>
@@ -2383,16 +2484,19 @@
       <c r="D26" s="14" t="n">
         <v>-6.935772</v>
       </c>
-      <c r="G26" s="0" t="n">
+      <c r="E26" s="0" t="n">
         <v>0.682</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>0.635</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>9</v>
@@ -2400,16 +2504,19 @@
       <c r="D27" s="14" t="n">
         <v>-10.678959</v>
       </c>
-      <c r="G27" s="0" t="n">
+      <c r="E27" s="0" t="n">
         <v>0.013</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>0.024</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>8</v>
@@ -2417,16 +2524,19 @@
       <c r="D28" s="14" t="n">
         <v>-14.654676</v>
       </c>
-      <c r="G28" s="0" t="n">
+      <c r="E28" s="0" t="n">
         <v>0.001</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>0.518</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>9</v>
@@ -2434,16 +2544,19 @@
       <c r="D29" s="14" t="n">
         <v>-19.830212</v>
       </c>
-      <c r="G29" s="0" t="n">
+      <c r="E29" s="0" t="n">
         <v>0.046</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>0.066</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>9</v>
@@ -2451,16 +2564,19 @@
       <c r="D30" s="14" t="n">
         <v>-6.469986</v>
       </c>
-      <c r="G30" s="0" t="n">
+      <c r="E30" s="0" t="n">
         <v>0.001</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>0.841</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>9</v>
@@ -2468,16 +2584,19 @@
       <c r="D31" s="14" t="n">
         <v>-8.159056</v>
       </c>
-      <c r="G31" s="0" t="n">
+      <c r="E31" s="0" t="n">
         <v>0.167</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>0.323</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>9</v>
@@ -2485,16 +2604,19 @@
       <c r="D32" s="14" t="n">
         <v>-4.785454</v>
       </c>
-      <c r="G32" s="0" t="n">
+      <c r="E32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>9</v>
@@ -2502,16 +2624,19 @@
       <c r="D33" s="14" t="n">
         <v>-13.160986</v>
       </c>
-      <c r="G33" s="0" t="n">
+      <c r="E33" s="0" t="n">
         <v>0.014</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>0.553</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>7</v>
@@ -2519,16 +2644,19 @@
       <c r="D34" s="14" t="n">
         <v>-13.041681</v>
       </c>
-      <c r="G34" s="0" t="n">
+      <c r="E34" s="0" t="n">
         <v>0.867</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>0.004</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>9</v>
@@ -2536,16 +2664,19 @@
       <c r="D35" s="14" t="n">
         <v>-10.959138</v>
       </c>
-      <c r="G35" s="0" t="n">
+      <c r="E35" s="0" t="n">
         <v>0.147</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>0.484</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>6</v>
@@ -2553,16 +2684,19 @@
       <c r="D36" s="14" t="n">
         <v>-9.435273</v>
       </c>
-      <c r="G36" s="0" t="n">
+      <c r="E36" s="0" t="n">
         <v>0.002</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>0.451</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>9</v>
@@ -2570,16 +2704,19 @@
       <c r="D37" s="14" t="n">
         <v>-9.432914</v>
       </c>
-      <c r="G37" s="0" t="n">
+      <c r="E37" s="0" t="n">
         <v>0.004</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>0.036</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>9</v>
@@ -2587,16 +2724,19 @@
       <c r="D38" s="14" t="n">
         <v>-11.510379</v>
       </c>
-      <c r="G38" s="0" t="n">
+      <c r="E38" s="0" t="n">
         <v>0.131</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>0.747</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>9</v>
@@ -2604,16 +2744,19 @@
       <c r="D39" s="14" t="n">
         <v>-20.62512</v>
       </c>
-      <c r="G39" s="0" t="n">
+      <c r="E39" s="0" t="n">
         <v>0.235</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>0.748</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>9</v>
@@ -2621,16 +2764,19 @@
       <c r="D40" s="14" t="n">
         <v>-7.378895</v>
       </c>
-      <c r="G40" s="0" t="n">
-        <v>0</v>
+      <c r="E40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>0.326</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>6</v>
@@ -2638,16 +2784,19 @@
       <c r="D41" s="14" t="n">
         <v>-8.593046</v>
       </c>
-      <c r="G41" s="0" t="n">
+      <c r="E41" s="0" t="n">
         <v>0.775</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>0.985</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>9</v>
@@ -2655,16 +2804,19 @@
       <c r="D42" s="14" t="n">
         <v>-10.294157</v>
       </c>
-      <c r="G42" s="0" t="n">
+      <c r="E42" s="0" t="n">
         <v>0.182</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>0.784</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C43" s="15" t="s">
         <v>8</v>
@@ -2672,16 +2824,19 @@
       <c r="D43" s="14" t="n">
         <v>-22.440825</v>
       </c>
-      <c r="G43" s="0" t="n">
+      <c r="E43" s="0" t="n">
         <v>0.344</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>0.293</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C44" s="15" t="s">
         <v>9</v>
@@ -2689,16 +2844,19 @@
       <c r="D44" s="14" t="n">
         <v>-19.524223</v>
       </c>
-      <c r="G44" s="0" t="n">
+      <c r="E44" s="0" t="n">
         <v>0.44</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>0.172</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C45" s="15" t="s">
         <v>9</v>
@@ -2706,16 +2864,19 @@
       <c r="D45" s="14" t="n">
         <v>-12.956303</v>
       </c>
-      <c r="G45" s="0" t="n">
+      <c r="E45" s="0" t="n">
         <v>0.289</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>0.355</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>9</v>
@@ -2723,16 +2884,19 @@
       <c r="D46" s="14" t="n">
         <v>-10.617325</v>
       </c>
-      <c r="G46" s="0" t="n">
+      <c r="E46" s="0" t="n">
         <v>0.317</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>0.197</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C47" s="15" t="s">
         <v>9</v>
@@ -2740,16 +2904,19 @@
       <c r="D47" s="14" t="n">
         <v>-20.728273</v>
       </c>
-      <c r="G47" s="0" t="n">
+      <c r="E47" s="0" t="n">
         <v>0.001</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>0.202</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C48" s="15" t="s">
         <v>7</v>
@@ -2757,16 +2924,19 @@
       <c r="D48" s="14" t="n">
         <v>-6.552161</v>
       </c>
-      <c r="G48" s="0" t="n">
-        <v>0</v>
+      <c r="E48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>0.337</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C49" s="15" t="s">
         <v>8</v>
@@ -2774,16 +2944,19 @@
       <c r="D49" s="14" t="n">
         <v>-5.523206</v>
       </c>
-      <c r="G49" s="0" t="n">
+      <c r="E49" s="0" t="n">
         <v>0.07</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>0.568</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>9</v>
@@ -2791,16 +2964,19 @@
       <c r="D50" s="14" t="n">
         <v>-6.549099</v>
       </c>
-      <c r="G50" s="0" t="n">
+      <c r="E50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C51" s="15" t="s">
         <v>8</v>
@@ -2808,16 +2984,19 @@
       <c r="D51" s="14" t="n">
         <v>-21.949421</v>
       </c>
-      <c r="G51" s="0" t="n">
+      <c r="E51" s="0" t="n">
         <v>0.465</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C52" s="15" t="s">
         <v>9</v>
@@ -2825,16 +3004,19 @@
       <c r="D52" s="14" t="n">
         <v>-13.643909</v>
       </c>
-      <c r="G52" s="0" t="n">
+      <c r="E52" s="0" t="n">
         <v>0.149</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>0.454</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C53" s="15" t="s">
         <v>9</v>
@@ -2842,16 +3024,19 @@
       <c r="D53" s="14" t="n">
         <v>-12.232562</v>
       </c>
-      <c r="G53" s="0" t="n">
-        <v>0</v>
+      <c r="E53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>0.512</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C54" s="15" t="s">
         <v>6</v>
@@ -2859,16 +3044,19 @@
       <c r="D54" s="14" t="n">
         <v>-1.862609</v>
       </c>
-      <c r="G54" s="0" t="n">
+      <c r="E54" s="0" t="n">
         <v>0.001</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>0.792</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C55" s="15" t="s">
         <v>7</v>
@@ -2876,16 +3064,19 @@
       <c r="D55" s="14" t="n">
         <v>-5.352446</v>
       </c>
-      <c r="G55" s="0" t="n">
+      <c r="E55" s="0" t="n">
         <v>0.086</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>0.316</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C56" s="15" t="s">
         <v>9</v>
@@ -2893,16 +3084,19 @@
       <c r="D56" s="14" t="n">
         <v>-10.593581</v>
       </c>
-      <c r="G56" s="0" t="n">
+      <c r="E56" s="0" t="n">
         <v>0.382</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>0.085</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C57" s="15" t="s">
         <v>7</v>
@@ -2910,16 +3104,19 @@
       <c r="D57" s="14" t="n">
         <v>-4.746859</v>
       </c>
-      <c r="G57" s="0" t="n">
+      <c r="E57" s="0" t="n">
         <v>0.742</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>0.295</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C58" s="15" t="s">
         <v>9</v>
@@ -2927,16 +3124,19 @@
       <c r="D58" s="14" t="n">
         <v>-12.3089</v>
       </c>
-      <c r="G58" s="0" t="n">
+      <c r="E58" s="0" t="n">
         <v>0.076</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <v>0.498</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C59" s="15" t="s">
         <v>9</v>
@@ -2944,16 +3144,19 @@
       <c r="D59" s="14" t="n">
         <v>-20.166504</v>
       </c>
-      <c r="G59" s="0" t="n">
+      <c r="E59" s="0" t="n">
         <v>0.001</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>0.991</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C60" s="15" t="s">
         <v>9</v>
@@ -2961,16 +3164,19 @@
       <c r="D60" s="14" t="n">
         <v>-10.593797</v>
       </c>
-      <c r="G60" s="0" t="n">
+      <c r="E60" s="0" t="n">
         <v>0.273</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <v>0.541</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C61" s="15" t="s">
         <v>7</v>
@@ -2978,16 +3184,19 @@
       <c r="D61" s="14" t="n">
         <v>-10.644281</v>
       </c>
-      <c r="G61" s="0" t="n">
+      <c r="E61" s="0" t="n">
         <v>0.559</v>
+      </c>
+      <c r="F61" s="0" t="n">
+        <v>0.556</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C62" s="15" t="s">
         <v>7</v>
@@ -2995,16 +3204,19 @@
       <c r="D62" s="14" t="n">
         <v>-2.239403</v>
       </c>
-      <c r="G62" s="0" t="n">
+      <c r="E62" s="0" t="n">
         <v>0.015</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <v>0.367</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C63" s="15" t="s">
         <v>7</v>
@@ -3012,16 +3224,19 @@
       <c r="D63" s="14" t="n">
         <v>-5.218282</v>
       </c>
-      <c r="G63" s="0" t="n">
+      <c r="E63" s="0" t="n">
         <v>0.004</v>
+      </c>
+      <c r="F63" s="0" t="n">
+        <v>0.866</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C64" s="15" t="s">
         <v>7</v>
@@ -3029,16 +3244,19 @@
       <c r="D64" s="14" t="n">
         <v>-12.54251</v>
       </c>
-      <c r="G64" s="0" t="n">
+      <c r="E64" s="0" t="n">
         <v>0.469</v>
+      </c>
+      <c r="F64" s="0" t="n">
+        <v>0.851</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C65" s="15" t="s">
         <v>9</v>
@@ -3046,16 +3264,19 @@
       <c r="D65" s="14" t="n">
         <v>-3.938524</v>
       </c>
-      <c r="G65" s="0" t="n">
-        <v>0</v>
+      <c r="E65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" s="0" t="n">
+        <v>0.296</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C66" s="15" t="s">
         <v>8</v>
@@ -3063,16 +3284,19 @@
       <c r="D66" s="14" t="n">
         <v>-24.846251</v>
       </c>
-      <c r="G66" s="0" t="n">
+      <c r="E66" s="0" t="n">
         <v>0.001</v>
+      </c>
+      <c r="F66" s="0" t="n">
+        <v>0.343</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C67" s="15" t="s">
         <v>7</v>
@@ -3080,16 +3304,19 @@
       <c r="D67" s="14" t="n">
         <v>-1.807638</v>
       </c>
-      <c r="G67" s="0" t="n">
+      <c r="E67" s="0" t="n">
         <v>0.629</v>
+      </c>
+      <c r="F67" s="0" t="n">
+        <v>0.487</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C68" s="15" t="s">
         <v>9</v>
@@ -3097,16 +3324,19 @@
       <c r="D68" s="14" t="n">
         <v>-8.306674</v>
       </c>
-      <c r="G68" s="0" t="n">
+      <c r="E68" s="0" t="n">
         <v>0.147</v>
+      </c>
+      <c r="F68" s="0" t="n">
+        <v>0.023</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C69" s="15" t="s">
         <v>8</v>
@@ -3114,16 +3344,19 @@
       <c r="D69" s="14" t="n">
         <v>-9.074951</v>
       </c>
-      <c r="G69" s="0" t="n">
+      <c r="E69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C70" s="15" t="s">
         <v>7</v>
@@ -3131,16 +3364,19 @@
       <c r="D70" s="14" t="n">
         <v>-7.357095</v>
       </c>
-      <c r="G70" s="0" t="n">
+      <c r="E70" s="0" t="n">
         <v>0.026</v>
+      </c>
+      <c r="F70" s="0" t="n">
+        <v>0.854</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C71" s="15" t="s">
         <v>9</v>
@@ -3148,16 +3384,19 @@
       <c r="D71" s="14" t="n">
         <v>-11.356088</v>
       </c>
-      <c r="G71" s="0" t="n">
+      <c r="E71" s="0" t="n">
         <v>0.467</v>
+      </c>
+      <c r="F71" s="0" t="n">
+        <v>0.205</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C72" s="15" t="s">
         <v>6</v>
@@ -3165,16 +3404,19 @@
       <c r="D72" s="14" t="n">
         <v>-1.120566</v>
       </c>
-      <c r="G72" s="0" t="n">
+      <c r="E72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C73" s="15" t="s">
         <v>9</v>
@@ -3182,16 +3424,19 @@
       <c r="D73" s="14" t="n">
         <v>-24.38624</v>
       </c>
-      <c r="G73" s="0" t="n">
+      <c r="E73" s="0" t="n">
         <v>0.031</v>
+      </c>
+      <c r="F73" s="0" t="n">
+        <v>0.447</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C74" s="15" t="s">
         <v>9</v>
@@ -3199,16 +3444,19 @@
       <c r="D74" s="14" t="n">
         <v>-6.632557</v>
       </c>
-      <c r="G74" s="0" t="n">
+      <c r="E74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C75" s="15" t="s">
         <v>9</v>
@@ -3216,16 +3464,19 @@
       <c r="D75" s="14" t="n">
         <v>-6.059063</v>
       </c>
-      <c r="G75" s="0" t="n">
+      <c r="E75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C76" s="15" t="s">
         <v>9</v>
@@ -3233,16 +3484,19 @@
       <c r="D76" s="14" t="n">
         <v>-6.443359</v>
       </c>
-      <c r="G76" s="0" t="n">
-        <v>0</v>
+      <c r="E76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" s="0" t="n">
+        <v>0.218</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C77" s="15" t="s">
         <v>6</v>
@@ -3250,16 +3504,19 @@
       <c r="D77" s="14" t="n">
         <v>-4.874355</v>
       </c>
-      <c r="G77" s="0" t="n">
+      <c r="E77" s="0" t="n">
         <v>0.345</v>
+      </c>
+      <c r="F77" s="0" t="n">
+        <v>0.546</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C78" s="15" t="s">
         <v>9</v>
@@ -3267,16 +3524,19 @@
       <c r="D78" s="14" t="n">
         <v>-20.141909</v>
       </c>
-      <c r="G78" s="0" t="n">
+      <c r="E78" s="0" t="n">
         <v>0.55</v>
+      </c>
+      <c r="F78" s="0" t="n">
+        <v>0.357</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C79" s="15" t="s">
         <v>7</v>
@@ -3284,16 +3544,19 @@
       <c r="D79" s="14" t="n">
         <v>-5.727359</v>
       </c>
-      <c r="G79" s="0" t="n">
+      <c r="E79" s="0" t="n">
         <v>0.003</v>
+      </c>
+      <c r="F79" s="0" t="n">
+        <v>0.99</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C80" s="15" t="s">
         <v>8</v>
@@ -3301,16 +3564,19 @@
       <c r="D80" s="14" t="n">
         <v>-18.662731</v>
       </c>
-      <c r="G80" s="0" t="n">
+      <c r="E80" s="0" t="n">
         <v>0.74</v>
+      </c>
+      <c r="F80" s="0" t="n">
+        <v>0.56</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C81" s="15" t="s">
         <v>9</v>
@@ -3318,16 +3584,19 @@
       <c r="D81" s="14" t="n">
         <v>-3.338736</v>
       </c>
-      <c r="G81" s="0" t="n">
-        <v>0</v>
+      <c r="E81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" s="0" t="n">
+        <v>0.808</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C82" s="15" t="s">
         <v>9</v>
@@ -3335,16 +3604,19 @@
       <c r="D82" s="14" t="n">
         <v>-9.180112</v>
       </c>
-      <c r="G82" s="0" t="n">
+      <c r="E82" s="0" t="n">
         <v>0.209</v>
+      </c>
+      <c r="F82" s="0" t="n">
+        <v>0.989</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C83" s="15" t="s">
         <v>9</v>
@@ -3352,16 +3624,19 @@
       <c r="D83" s="14" t="n">
         <v>-2.859193</v>
       </c>
-      <c r="G83" s="0" t="n">
+      <c r="E83" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C84" s="15" t="s">
         <v>9</v>
@@ -3369,16 +3644,19 @@
       <c r="D84" s="14" t="n">
         <v>-8.753551</v>
       </c>
-      <c r="G84" s="0" t="n">
+      <c r="E84" s="0" t="n">
         <v>0.845</v>
+      </c>
+      <c r="F84" s="0" t="n">
+        <v>0.223</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C85" s="15" t="s">
         <v>9</v>
@@ -3386,16 +3664,19 @@
       <c r="D85" s="14" t="n">
         <v>-18.514925</v>
       </c>
-      <c r="G85" s="0" t="n">
+      <c r="E85" s="0" t="n">
         <v>0.193</v>
+      </c>
+      <c r="F85" s="0" t="n">
+        <v>0.283</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C86" s="15" t="s">
         <v>9</v>
@@ -3403,16 +3684,19 @@
       <c r="D86" s="14" t="n">
         <v>-2.504482</v>
       </c>
-      <c r="G86" s="0" t="n">
+      <c r="E86" s="0" t="n">
         <v>0.046</v>
+      </c>
+      <c r="F86" s="0" t="n">
+        <v>0.645</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C87" s="15" t="s">
         <v>9</v>
@@ -3420,16 +3704,19 @@
       <c r="D87" s="14" t="n">
         <v>-14.09967</v>
       </c>
-      <c r="G87" s="0" t="n">
+      <c r="E87" s="0" t="n">
         <v>0.428</v>
+      </c>
+      <c r="F87" s="0" t="n">
+        <v>0.711</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B88" s="14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C88" s="15" t="s">
         <v>6</v>
@@ -3437,16 +3724,19 @@
       <c r="D88" s="14" t="n">
         <v>-2.807416</v>
       </c>
-      <c r="G88" s="0" t="n">
+      <c r="E88" s="0" t="n">
         <v>0.068</v>
+      </c>
+      <c r="F88" s="0" t="n">
+        <v>0.885</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C89" s="15" t="s">
         <v>7</v>
@@ -3454,16 +3744,19 @@
       <c r="D89" s="14" t="n">
         <v>-6.597188</v>
       </c>
-      <c r="G89" s="0" t="n">
+      <c r="E89" s="0" t="n">
         <v>0.938</v>
+      </c>
+      <c r="F89" s="0" t="n">
+        <v>0.841</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C90" s="15" t="s">
         <v>9</v>
@@ -3471,16 +3764,19 @@
       <c r="D90" s="14" t="n">
         <v>-18.645123</v>
       </c>
-      <c r="G90" s="0" t="n">
+      <c r="E90" s="0" t="n">
         <v>0.009</v>
+      </c>
+      <c r="F90" s="0" t="n">
+        <v>0.436</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C91" s="15" t="s">
         <v>9</v>
@@ -3488,16 +3784,19 @@
       <c r="D91" s="14" t="n">
         <v>-9.452602</v>
       </c>
-      <c r="G91" s="0" t="n">
+      <c r="E91" s="0" t="n">
         <v>0.525</v>
+      </c>
+      <c r="F91" s="0" t="n">
+        <v>0.288</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C92" s="15" t="s">
         <v>9</v>
@@ -3505,16 +3804,19 @@
       <c r="D92" s="14" t="n">
         <v>-7.278611</v>
       </c>
-      <c r="G92" s="0" t="n">
+      <c r="E92" s="0" t="n">
         <v>0.002</v>
+      </c>
+      <c r="F92" s="0" t="n">
+        <v>0.9</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C93" s="15" t="s">
         <v>6</v>
@@ -3522,16 +3824,19 @@
       <c r="D93" s="14" t="n">
         <v>-5.660374</v>
       </c>
-      <c r="G93" s="0" t="n">
+      <c r="E93" s="0" t="n">
         <v>0.579</v>
+      </c>
+      <c r="F93" s="0" t="n">
+        <v>0.332</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C94" s="15" t="s">
         <v>9</v>
@@ -3539,16 +3844,19 @@
       <c r="D94" s="14" t="n">
         <v>-8.190646</v>
       </c>
-      <c r="G94" s="0" t="n">
+      <c r="E94" s="0" t="n">
         <v>0.003</v>
+      </c>
+      <c r="F94" s="0" t="n">
+        <v>0.143</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C95" s="15" t="s">
         <v>7</v>
@@ -3556,16 +3864,19 @@
       <c r="D95" s="14" t="n">
         <v>-13.754396</v>
       </c>
-      <c r="G95" s="0" t="n">
+      <c r="E95" s="0" t="n">
         <v>0.614</v>
+      </c>
+      <c r="F95" s="0" t="n">
+        <v>0.353</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C96" s="15" t="s">
         <v>9</v>
@@ -3573,16 +3884,19 @@
       <c r="D96" s="14" t="n">
         <v>-17.178558</v>
       </c>
-      <c r="G96" s="0" t="n">
+      <c r="E96" s="0" t="n">
         <v>0.441</v>
+      </c>
+      <c r="F96" s="0" t="n">
+        <v>0.364</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C97" s="15" t="s">
         <v>9</v>
@@ -3590,16 +3904,19 @@
       <c r="D97" s="14" t="n">
         <v>-22.017006</v>
       </c>
-      <c r="G97" s="0" t="n">
+      <c r="E97" s="0" t="n">
         <v>0.038</v>
+      </c>
+      <c r="F97" s="0" t="n">
+        <v>0.155</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C98" s="15" t="s">
         <v>7</v>
@@ -3607,16 +3924,19 @@
       <c r="D98" s="14" t="n">
         <v>-4.777613</v>
       </c>
-      <c r="G98" s="0" t="n">
+      <c r="E98" s="0" t="n">
         <v>0.731</v>
+      </c>
+      <c r="F98" s="0" t="n">
+        <v>0.503</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C99" s="15" t="s">
         <v>9</v>
@@ -3624,16 +3944,19 @@
       <c r="D99" s="14" t="n">
         <v>-11.257434</v>
       </c>
-      <c r="G99" s="0" t="n">
+      <c r="E99" s="0" t="n">
         <v>0.001</v>
+      </c>
+      <c r="F99" s="0" t="n">
+        <v>0.868</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C100" s="15" t="s">
         <v>9</v>
@@ -3641,16 +3964,19 @@
       <c r="D100" s="14" t="n">
         <v>-15.47692</v>
       </c>
-      <c r="G100" s="0" t="n">
+      <c r="E100" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C101" s="15" t="s">
         <v>9</v>
@@ -3658,16 +3984,19 @@
       <c r="D101" s="14" t="n">
         <v>-13.592758</v>
       </c>
-      <c r="G101" s="0" t="n">
+      <c r="E101" s="0" t="n">
         <v>0.386</v>
+      </c>
+      <c r="F101" s="0" t="n">
+        <v>0.172</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C102" s="15" t="s">
         <v>7</v>
@@ -3675,16 +4004,19 @@
       <c r="D102" s="14" t="n">
         <v>-6.348107</v>
       </c>
-      <c r="G102" s="0" t="n">
+      <c r="E102" s="0" t="n">
         <v>0.422</v>
+      </c>
+      <c r="F102" s="0" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C103" s="15" t="s">
         <v>9</v>
@@ -3692,16 +4024,19 @@
       <c r="D103" s="14" t="n">
         <v>-17.213507</v>
       </c>
-      <c r="G103" s="0" t="n">
+      <c r="E103" s="0" t="n">
         <v>0.425</v>
+      </c>
+      <c r="F103" s="0" t="n">
+        <v>0.552</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C104" s="15" t="s">
         <v>7</v>
@@ -3709,16 +4044,19 @@
       <c r="D104" s="14" t="n">
         <v>-10.779181</v>
       </c>
-      <c r="G104" s="0" t="n">
+      <c r="E104" s="0" t="n">
         <v>0.498</v>
+      </c>
+      <c r="F104" s="0" t="n">
+        <v>0.518</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C105" s="15" t="s">
         <v>7</v>
@@ -3726,16 +4064,19 @@
       <c r="D105" s="14" t="n">
         <v>-2.081456</v>
       </c>
-      <c r="G105" s="0" t="n">
-        <v>0</v>
+      <c r="E105" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" s="0" t="n">
+        <v>0.181</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B106" s="14" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C106" s="15" t="s">
         <v>6</v>
@@ -3743,16 +4084,19 @@
       <c r="D106" s="14" t="n">
         <v>-11.999055</v>
       </c>
-      <c r="G106" s="0" t="n">
-        <v>0</v>
+      <c r="E106" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" s="0" t="n">
+        <v>0.127</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B107" s="14" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C107" s="15" t="s">
         <v>9</v>
@@ -3760,16 +4104,19 @@
       <c r="D107" s="14" t="n">
         <v>-20.75519</v>
       </c>
-      <c r="G107" s="0" t="n">
+      <c r="E107" s="0" t="n">
         <v>0.002</v>
+      </c>
+      <c r="F107" s="0" t="n">
+        <v>0.003</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B108" s="14" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C108" s="15" t="s">
         <v>9</v>
@@ -3777,16 +4124,19 @@
       <c r="D108" s="14" t="n">
         <v>-9.422607</v>
       </c>
-      <c r="G108" s="0" t="n">
-        <v>0</v>
+      <c r="E108" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" s="0" t="n">
+        <v>0.002</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="13" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C109" s="15" t="s">
         <v>6</v>
@@ -3794,16 +4144,19 @@
       <c r="D109" s="14" t="n">
         <v>-1.292716</v>
       </c>
-      <c r="G109" s="0" t="n">
-        <v>0</v>
+      <c r="E109" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" s="0" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="13" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B110" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C110" s="15" t="s">
         <v>9</v>
@@ -3811,16 +4164,19 @@
       <c r="D110" s="14" t="n">
         <v>-17.679373</v>
       </c>
-      <c r="G110" s="0" t="n">
+      <c r="E110" s="0" t="n">
         <v>0.023</v>
+      </c>
+      <c r="F110" s="0" t="n">
+        <v>0.113</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C111" s="15" t="s">
         <v>9</v>
@@ -3828,16 +4184,19 @@
       <c r="D111" s="14" t="n">
         <v>-7.82951</v>
       </c>
-      <c r="G111" s="0" t="n">
-        <v>0</v>
+      <c r="E111" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F111" s="0" t="n">
+        <v>0.377</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="13" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C112" s="15" t="s">
         <v>9</v>
@@ -3845,16 +4204,19 @@
       <c r="D112" s="14" t="n">
         <v>-6.910029</v>
       </c>
-      <c r="G112" s="0" t="n">
-        <v>0</v>
+      <c r="E112" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" s="0" t="n">
+        <v>0.183</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="13" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C113" s="15" t="s">
         <v>6</v>
@@ -3862,16 +4224,19 @@
       <c r="D113" s="14" t="n">
         <v>-7.173606</v>
       </c>
-      <c r="G113" s="0" t="n">
+      <c r="E113" s="0" t="n">
         <v>0.919</v>
+      </c>
+      <c r="F113" s="0" t="n">
+        <v>0.473</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="13" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B114" s="14" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C114" s="15" t="s">
         <v>9</v>
@@ -3879,16 +4244,19 @@
       <c r="D114" s="14" t="n">
         <v>-23.865791</v>
       </c>
-      <c r="G114" s="0" t="n">
+      <c r="E114" s="0" t="n">
         <v>0.094</v>
+      </c>
+      <c r="F114" s="0" t="n">
+        <v>0.438</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="13" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B115" s="14" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C115" s="15" t="s">
         <v>9</v>
@@ -3896,16 +4264,19 @@
       <c r="D115" s="14" t="n">
         <v>-28.110891</v>
       </c>
-      <c r="G115" s="0" t="n">
+      <c r="E115" s="0" t="n">
         <v>0.042</v>
+      </c>
+      <c r="F115" s="0" t="n">
+        <v>0.979</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="13" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B116" s="14" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C116" s="15" t="s">
         <v>9</v>
@@ -3913,16 +4284,19 @@
       <c r="D116" s="14" t="n">
         <v>-9.017548</v>
       </c>
-      <c r="G116" s="0" t="n">
+      <c r="E116" s="0" t="n">
         <v>0.395</v>
+      </c>
+      <c r="F116" s="0" t="n">
+        <v>0.414</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="13" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B117" s="14" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C117" s="15" t="s">
         <v>9</v>
@@ -3930,16 +4304,19 @@
       <c r="D117" s="14" t="n">
         <v>-13.899189</v>
       </c>
-      <c r="G117" s="0" t="n">
+      <c r="E117" s="0" t="n">
         <v>0.644</v>
+      </c>
+      <c r="F117" s="0" t="n">
+        <v>0.427</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="13" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C118" s="15" t="s">
         <v>6</v>
@@ -3947,16 +4324,19 @@
       <c r="D118" s="14" t="n">
         <v>-3.12992</v>
       </c>
-      <c r="G118" s="0" t="n">
+      <c r="E118" s="0" t="n">
         <v>0.027</v>
+      </c>
+      <c r="F118" s="0" t="n">
+        <v>0.431</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="13" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C119" s="15" t="s">
         <v>8</v>
@@ -3964,16 +4344,19 @@
       <c r="D119" s="14" t="n">
         <v>-9.935709</v>
       </c>
-      <c r="G119" s="0" t="n">
+      <c r="E119" s="0" t="n">
         <v>0.105</v>
+      </c>
+      <c r="F119" s="0" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="13" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B120" s="14" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C120" s="15" t="s">
         <v>6</v>
@@ -3981,16 +4364,19 @@
       <c r="D120" s="14" t="n">
         <v>-4.462554</v>
       </c>
-      <c r="G120" s="0" t="n">
+      <c r="E120" s="0" t="n">
         <v>0.031</v>
+      </c>
+      <c r="F120" s="0" t="n">
+        <v>0.419</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="13" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B121" s="14" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C121" s="15" t="s">
         <v>6</v>
@@ -3998,16 +4384,19 @@
       <c r="D121" s="14" t="n">
         <v>-2.623697</v>
       </c>
-      <c r="G121" s="0" t="n">
-        <v>0</v>
+      <c r="E121" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" s="0" t="n">
+        <v>0.686</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="13" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C122" s="15" t="s">
         <v>9</v>
@@ -4015,16 +4404,19 @@
       <c r="D122" s="14" t="n">
         <v>-12.191505</v>
       </c>
-      <c r="G122" s="0" t="n">
+      <c r="E122" s="0" t="n">
         <v>0.586</v>
+      </c>
+      <c r="F122" s="0" t="n">
+        <v>0.777</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="13" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C123" s="15" t="s">
         <v>9</v>
@@ -4032,16 +4424,19 @@
       <c r="D123" s="14" t="n">
         <v>-7.079466</v>
       </c>
-      <c r="G123" s="0" t="n">
+      <c r="E123" s="0" t="n">
         <v>0.117</v>
+      </c>
+      <c r="F123" s="0" t="n">
+        <v>0.436</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B124" s="14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C124" s="15" t="s">
         <v>6</v>
@@ -4049,16 +4444,19 @@
       <c r="D124" s="14" t="n">
         <v>-2.373612</v>
       </c>
-      <c r="G124" s="0" t="n">
+      <c r="E124" s="0" t="n">
         <v>0.465</v>
+      </c>
+      <c r="F124" s="0" t="n">
+        <v>0.988</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B125" s="14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C125" s="15" t="s">
         <v>7</v>
@@ -4066,16 +4464,19 @@
       <c r="D125" s="14" t="n">
         <v>-1.740417</v>
       </c>
-      <c r="G125" s="0" t="n">
+      <c r="E125" s="0" t="n">
         <v>0.002</v>
+      </c>
+      <c r="F125" s="0" t="n">
+        <v>0.476</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="13" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B126" s="14" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C126" s="15" t="s">
         <v>9</v>
@@ -4083,16 +4484,19 @@
       <c r="D126" s="14" t="n">
         <v>-19.51564</v>
       </c>
-      <c r="G126" s="0" t="n">
+      <c r="E126" s="0" t="n">
         <v>0.529</v>
+      </c>
+      <c r="F126" s="0" t="n">
+        <v>0.246</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B127" s="14" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C127" s="15" t="s">
         <v>9</v>
@@ -4100,16 +4504,19 @@
       <c r="D127" s="14" t="n">
         <v>-17.448063</v>
       </c>
-      <c r="G127" s="0" t="n">
-        <v>0</v>
+      <c r="E127" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F127" s="0" t="n">
+        <v>0.048</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="13" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C128" s="15" t="s">
         <v>9</v>
@@ -4117,16 +4524,19 @@
       <c r="D128" s="14" t="n">
         <v>-11.561208</v>
       </c>
-      <c r="G128" s="0" t="n">
+      <c r="E128" s="0" t="n">
         <v>0.004</v>
+      </c>
+      <c r="F128" s="0" t="n">
+        <v>0.152</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="13" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C129" s="15" t="s">
         <v>9</v>
@@ -4134,16 +4544,19 @@
       <c r="D129" s="14" t="n">
         <v>-15.500088</v>
       </c>
-      <c r="G129" s="0" t="n">
+      <c r="E129" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F129" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="13" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B130" s="14" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C130" s="15" t="s">
         <v>9</v>
@@ -4151,16 +4564,19 @@
       <c r="D130" s="14" t="n">
         <v>-5.833067</v>
       </c>
-      <c r="G130" s="0" t="n">
-        <v>0</v>
+      <c r="E130" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F130" s="0" t="n">
+        <v>0.352</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="13" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B131" s="14" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C131" s="15" t="s">
         <v>7</v>
@@ -4168,16 +4584,19 @@
       <c r="D131" s="14" t="n">
         <v>-12.278006</v>
       </c>
-      <c r="G131" s="0" t="n">
+      <c r="E131" s="0" t="n">
         <v>0.688</v>
+      </c>
+      <c r="F131" s="0" t="n">
+        <v>0.251</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="13" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B132" s="14" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C132" s="15" t="s">
         <v>6</v>
@@ -4185,16 +4604,19 @@
       <c r="D132" s="14" t="n">
         <v>-9.332382</v>
       </c>
-      <c r="G132" s="0" t="n">
+      <c r="E132" s="0" t="n">
         <v>0.159</v>
+      </c>
+      <c r="F132" s="0" t="n">
+        <v>0.717</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="13" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B133" s="14" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C133" s="15" t="s">
         <v>6</v>
@@ -4202,16 +4624,19 @@
       <c r="D133" s="14" t="n">
         <v>-3.338428</v>
       </c>
-      <c r="G133" s="0" t="n">
+      <c r="E133" s="0" t="n">
         <v>0.017</v>
+      </c>
+      <c r="F133" s="0" t="n">
+        <v>0.325</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="13" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B134" s="14" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C134" s="15" t="s">
         <v>6</v>
@@ -4219,16 +4644,19 @@
       <c r="D134" s="14" t="n">
         <v>-11.129417</v>
       </c>
-      <c r="G134" s="0" t="n">
+      <c r="E134" s="0" t="n">
         <v>0.004</v>
+      </c>
+      <c r="F134" s="0" t="n">
+        <v>0.903</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B135" s="14" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C135" s="15" t="s">
         <v>7</v>
@@ -4236,16 +4664,19 @@
       <c r="D135" s="14" t="n">
         <v>-18.191303</v>
       </c>
-      <c r="G135" s="0" t="n">
+      <c r="E135" s="0" t="n">
         <v>0.619</v>
+      </c>
+      <c r="F135" s="0" t="n">
+        <v>0.303</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="13" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B136" s="14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C136" s="15" t="s">
         <v>9</v>
@@ -4253,16 +4684,19 @@
       <c r="D136" s="14" t="n">
         <v>-13.898367</v>
       </c>
-      <c r="G136" s="0" t="n">
+      <c r="E136" s="0" t="n">
         <v>0.013</v>
+      </c>
+      <c r="F136" s="0" t="n">
+        <v>0.263</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="13" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C137" s="15" t="s">
         <v>9</v>
@@ -4270,16 +4704,19 @@
       <c r="D137" s="14" t="n">
         <v>-21.366289</v>
       </c>
-      <c r="G137" s="0" t="n">
+      <c r="E137" s="0" t="n">
         <v>0.007</v>
+      </c>
+      <c r="F137" s="0" t="n">
+        <v>0.258</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="13" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B138" s="14" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C138" s="15" t="s">
         <v>7</v>
@@ -4287,16 +4724,19 @@
       <c r="D138" s="14" t="n">
         <v>-4.152591</v>
       </c>
-      <c r="G138" s="0" t="n">
+      <c r="E138" s="0" t="n">
         <v>0.067</v>
+      </c>
+      <c r="F138" s="0" t="n">
+        <v>0.966</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="13" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B139" s="14" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C139" s="15" t="s">
         <v>9</v>
@@ -4304,16 +4744,19 @@
       <c r="D139" s="14" t="n">
         <v>-5.323892</v>
       </c>
-      <c r="G139" s="0" t="n">
+      <c r="E139" s="0" t="n">
         <v>0.014</v>
+      </c>
+      <c r="F139" s="0" t="n">
+        <v>0.333</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="13" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B140" s="14" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C140" s="15" t="s">
         <v>9</v>
@@ -4321,16 +4764,19 @@
       <c r="D140" s="14" t="n">
         <v>-16.678364</v>
       </c>
-      <c r="G140" s="0" t="n">
+      <c r="E140" s="0" t="n">
         <v>0.258</v>
+      </c>
+      <c r="F140" s="0" t="n">
+        <v>0.664</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="13" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B141" s="14" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C141" s="15" t="s">
         <v>9</v>
@@ -4338,16 +4784,19 @@
       <c r="D141" s="14" t="n">
         <v>-7.682549</v>
       </c>
-      <c r="G141" s="0" t="n">
+      <c r="E141" s="0" t="n">
         <v>0.796</v>
+      </c>
+      <c r="F141" s="0" t="n">
+        <v>0.326</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B142" s="14" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C142" s="15" t="s">
         <v>9</v>
@@ -4355,16 +4804,19 @@
       <c r="D142" s="14" t="n">
         <v>-4.637291</v>
       </c>
-      <c r="G142" s="0" t="n">
+      <c r="E142" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F142" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B143" s="14" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C143" s="15" t="s">
         <v>7</v>
@@ -4372,16 +4824,19 @@
       <c r="D143" s="14" t="n">
         <v>-7.676635</v>
       </c>
-      <c r="G143" s="0" t="n">
+      <c r="E143" s="0" t="n">
         <v>0.704</v>
+      </c>
+      <c r="F143" s="0" t="n">
+        <v>0.989</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="13" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B144" s="14" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C144" s="15" t="s">
         <v>9</v>
@@ -4389,16 +4844,19 @@
       <c r="D144" s="14" t="n">
         <v>-9.364107</v>
       </c>
-      <c r="G144" s="0" t="n">
+      <c r="E144" s="0" t="n">
         <v>0.329</v>
+      </c>
+      <c r="F144" s="0" t="n">
+        <v>0.88</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B145" s="14" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C145" s="15" t="s">
         <v>7</v>
@@ -4406,16 +4864,19 @@
       <c r="D145" s="14" t="n">
         <v>-3.917899</v>
       </c>
-      <c r="G145" s="0" t="n">
+      <c r="E145" s="0" t="n">
         <v>0.699</v>
+      </c>
+      <c r="F145" s="0" t="n">
+        <v>0.444</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="13" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B146" s="14" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C146" s="15" t="s">
         <v>6</v>
@@ -4423,16 +4884,19 @@
       <c r="D146" s="14" t="n">
         <v>-4.227817</v>
       </c>
-      <c r="G146" s="0" t="n">
+      <c r="E146" s="0" t="n">
         <v>0.001</v>
+      </c>
+      <c r="F146" s="0" t="n">
+        <v>0.49</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="13" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B147" s="14" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C147" s="15" t="s">
         <v>7</v>
@@ -4440,16 +4904,19 @@
       <c r="D147" s="14" t="n">
         <v>-18.207949</v>
       </c>
-      <c r="G147" s="0" t="n">
+      <c r="E147" s="0" t="n">
         <v>0.001</v>
+      </c>
+      <c r="F147" s="0" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="13" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B148" s="14" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C148" s="15" t="s">
         <v>6</v>
@@ -4457,16 +4924,19 @@
       <c r="D148" s="14" t="n">
         <v>-2.550832</v>
       </c>
-      <c r="G148" s="0" t="n">
-        <v>0</v>
+      <c r="E148" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F148" s="0" t="n">
+        <v>0.249</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="13" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B149" s="14" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C149" s="15" t="s">
         <v>9</v>
@@ -4474,16 +4944,19 @@
       <c r="D149" s="14" t="n">
         <v>-12.614557</v>
       </c>
-      <c r="G149" s="0" t="n">
+      <c r="E149" s="0" t="n">
         <v>0.014</v>
+      </c>
+      <c r="F149" s="0" t="n">
+        <v>0.035</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="13" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B150" s="14" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C150" s="15" t="s">
         <v>6</v>
@@ -4491,16 +4964,19 @@
       <c r="D150" s="14" t="n">
         <v>-10.562798</v>
       </c>
-      <c r="G150" s="0" t="n">
+      <c r="E150" s="0" t="n">
         <v>0.588</v>
+      </c>
+      <c r="F150" s="0" t="n">
+        <v>0.314</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B151" s="14" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C151" s="15" t="s">
         <v>9</v>
@@ -4508,16 +4984,19 @@
       <c r="D151" s="14" t="n">
         <v>-5.292717</v>
       </c>
-      <c r="G151" s="0" t="n">
+      <c r="E151" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F151" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="13" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B152" s="14" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C152" s="15" t="s">
         <v>8</v>
@@ -4525,16 +5004,19 @@
       <c r="D152" s="14" t="n">
         <v>-18.811943</v>
       </c>
-      <c r="G152" s="0" t="n">
+      <c r="E152" s="0" t="n">
         <v>0.096</v>
+      </c>
+      <c r="F152" s="0" t="n">
+        <v>0.419</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="13" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B153" s="14" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C153" s="15" t="s">
         <v>7</v>
@@ -4542,16 +5024,19 @@
       <c r="D153" s="14" t="n">
         <v>-4.920273</v>
       </c>
-      <c r="G153" s="0" t="n">
+      <c r="E153" s="0" t="n">
         <v>0.001</v>
+      </c>
+      <c r="F153" s="0" t="n">
+        <v>0.514</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B154" s="14" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C154" s="15" t="s">
         <v>9</v>
@@ -4559,16 +5044,19 @@
       <c r="D154" s="14" t="n">
         <v>-10.450993</v>
       </c>
-      <c r="G154" s="0" t="n">
+      <c r="E154" s="0" t="n">
         <v>0.279</v>
+      </c>
+      <c r="F154" s="0" t="n">
+        <v>0.557</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="13" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B155" s="14" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C155" s="15" t="s">
         <v>9</v>
@@ -4576,16 +5064,19 @@
       <c r="D155" s="14" t="n">
         <v>-23.027756</v>
       </c>
-      <c r="G155" s="0" t="n">
+      <c r="E155" s="0" t="n">
         <v>0.143</v>
+      </c>
+      <c r="F155" s="0" t="n">
+        <v>0.56</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="13" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B156" s="14" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C156" s="15" t="s">
         <v>8</v>
@@ -4593,16 +5084,19 @@
       <c r="D156" s="14" t="n">
         <v>-6.828304</v>
       </c>
-      <c r="G156" s="0" t="n">
+      <c r="E156" s="0" t="n">
         <v>0.394</v>
+      </c>
+      <c r="F156" s="0" t="n">
+        <v>0.026</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="13" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B157" s="14" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C157" s="15" t="s">
         <v>9</v>
@@ -4610,16 +5104,19 @@
       <c r="D157" s="14" t="n">
         <v>-8.629434</v>
       </c>
-      <c r="G157" s="0" t="n">
+      <c r="E157" s="0" t="n">
         <v>0.655</v>
+      </c>
+      <c r="F157" s="0" t="n">
+        <v>0.322</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="13" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B158" s="14" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C158" s="15" t="s">
         <v>9</v>
@@ -4627,16 +5124,19 @@
       <c r="D158" s="14" t="n">
         <v>-20.767727</v>
       </c>
-      <c r="G158" s="0" t="n">
+      <c r="E158" s="0" t="n">
         <v>0.477</v>
+      </c>
+      <c r="F158" s="0" t="n">
+        <v>0.277</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="13" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B159" s="14" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C159" s="15" t="s">
         <v>9</v>
@@ -4644,16 +5144,19 @@
       <c r="D159" s="14" t="n">
         <v>-8.109913</v>
       </c>
-      <c r="G159" s="0" t="n">
-        <v>0</v>
+      <c r="E159" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F159" s="0" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="13" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B160" s="14" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C160" s="15" t="s">
         <v>9</v>
@@ -4661,16 +5164,19 @@
       <c r="D160" s="14" t="n">
         <v>-6.301604</v>
       </c>
-      <c r="G160" s="0" t="n">
+      <c r="E160" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F160" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="13" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B161" s="14" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C161" s="15" t="s">
         <v>9</v>
@@ -4678,16 +5184,19 @@
       <c r="D161" s="14" t="n">
         <v>-6.255212</v>
       </c>
-      <c r="G161" s="0" t="n">
+      <c r="E161" s="0" t="n">
         <v>0.147</v>
+      </c>
+      <c r="F161" s="0" t="n">
+        <v>0.77</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="13" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B162" s="14" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C162" s="15" t="s">
         <v>9</v>
@@ -4695,16 +5204,19 @@
       <c r="D162" s="14" t="n">
         <v>-0.179785</v>
       </c>
-      <c r="G162" s="0" t="n">
+      <c r="E162" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F162" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="13" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B163" s="14" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C163" s="15" t="s">
         <v>9</v>
@@ -4712,16 +5224,19 @@
       <c r="D163" s="14" t="n">
         <v>-8.947755</v>
       </c>
-      <c r="G163" s="0" t="n">
-        <v>0</v>
+      <c r="E163" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F163" s="0" t="n">
+        <v>0.889</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="13" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C164" s="15" t="s">
         <v>9</v>
@@ -4729,16 +5244,19 @@
       <c r="D164" s="14" t="n">
         <v>-27.871868</v>
       </c>
-      <c r="G164" s="0" t="n">
+      <c r="E164" s="0" t="n">
         <v>0.269</v>
+      </c>
+      <c r="F164" s="0" t="n">
+        <v>0.313</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="13" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B165" s="14" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C165" s="15" t="s">
         <v>9</v>
@@ -4746,16 +5264,19 @@
       <c r="D165" s="14" t="n">
         <v>-11.757116</v>
       </c>
-      <c r="G165" s="0" t="n">
+      <c r="E165" s="0" t="n">
         <v>0.188</v>
+      </c>
+      <c r="F165" s="0" t="n">
+        <v>0.257</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B166" s="14" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C166" s="15" t="s">
         <v>9</v>
@@ -4763,16 +5284,19 @@
       <c r="D166" s="14" t="n">
         <v>-8.610485</v>
       </c>
-      <c r="G166" s="0" t="n">
+      <c r="E166" s="0" t="n">
         <v>0.036</v>
+      </c>
+      <c r="F166" s="0" t="n">
+        <v>0.364</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="13" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B167" s="14" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C167" s="15" t="s">
         <v>9</v>
@@ -4780,16 +5304,19 @@
       <c r="D167" s="14" t="n">
         <v>-16.144535</v>
       </c>
-      <c r="G167" s="0" t="n">
+      <c r="E167" s="0" t="n">
         <v>0.658</v>
+      </c>
+      <c r="F167" s="0" t="n">
+        <v>0.573</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="13" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B168" s="14" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C168" s="15" t="s">
         <v>9</v>
@@ -4797,16 +5324,19 @@
       <c r="D168" s="14" t="n">
         <v>-14.938411</v>
       </c>
-      <c r="G168" s="0" t="n">
+      <c r="E168" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F168" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="13" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B169" s="14" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C169" s="15" t="s">
         <v>7</v>
@@ -4814,16 +5344,19 @@
       <c r="D169" s="14" t="n">
         <v>-8.350466</v>
       </c>
-      <c r="G169" s="0" t="n">
+      <c r="E169" s="0" t="n">
         <v>0.079</v>
+      </c>
+      <c r="F169" s="0" t="n">
+        <v>0.974</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="13" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B170" s="14" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C170" s="15" t="s">
         <v>7</v>
@@ -4831,16 +5364,19 @@
       <c r="D170" s="14" t="n">
         <v>-5.105698</v>
       </c>
-      <c r="G170" s="0" t="n">
-        <v>0</v>
+      <c r="E170" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F170" s="0" t="n">
+        <v>0.324</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="13" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B171" s="14" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C171" s="15" t="s">
         <v>9</v>
@@ -4848,16 +5384,19 @@
       <c r="D171" s="14" t="n">
         <v>-15.302095</v>
       </c>
-      <c r="G171" s="0" t="n">
+      <c r="E171" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F171" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="13" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B172" s="14" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C172" s="15" t="s">
         <v>9</v>
@@ -4865,16 +5404,19 @@
       <c r="D172" s="14" t="n">
         <v>-10.73418</v>
       </c>
-      <c r="G172" s="0" t="n">
+      <c r="E172" s="0" t="n">
         <v>0.27</v>
+      </c>
+      <c r="F172" s="0" t="n">
+        <v>0.314</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B173" s="14" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C173" s="15" t="s">
         <v>7</v>
@@ -4882,16 +5424,19 @@
       <c r="D173" s="14" t="n">
         <v>-4.65468</v>
       </c>
-      <c r="G173" s="0" t="n">
-        <v>0</v>
+      <c r="E173" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F173" s="0" t="n">
+        <v>0.182</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="13" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B174" s="14" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C174" s="15" t="s">
         <v>9</v>
@@ -4899,16 +5444,19 @@
       <c r="D174" s="14" t="n">
         <v>-17.082779</v>
       </c>
-      <c r="G174" s="0" t="n">
-        <v>0</v>
+      <c r="E174" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F174" s="0" t="n">
+        <v>0.576</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="13" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B175" s="14" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C175" s="15" t="s">
         <v>9</v>
@@ -4916,16 +5464,19 @@
       <c r="D175" s="14" t="n">
         <v>-16.882992</v>
       </c>
-      <c r="G175" s="0" t="n">
+      <c r="E175" s="0" t="n">
         <v>0.012</v>
+      </c>
+      <c r="F175" s="0" t="n">
+        <v>0.495</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="13" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B176" s="14" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C176" s="15" t="s">
         <v>8</v>
@@ -4933,16 +5484,19 @@
       <c r="D176" s="14" t="n">
         <v>-12.25057</v>
       </c>
-      <c r="G176" s="0" t="n">
+      <c r="E176" s="0" t="n">
         <v>0.002</v>
+      </c>
+      <c r="F176" s="0" t="n">
+        <v>0.772</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="13" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B177" s="14" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C177" s="15" t="s">
         <v>9</v>
@@ -4950,16 +5504,19 @@
       <c r="D177" s="14" t="n">
         <v>-9.437716</v>
       </c>
-      <c r="G177" s="0" t="n">
+      <c r="E177" s="0" t="n">
         <v>0.151</v>
+      </c>
+      <c r="F177" s="0" t="n">
+        <v>0.415</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="13" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B178" s="14" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C178" s="15" t="s">
         <v>9</v>
@@ -4967,16 +5524,19 @@
       <c r="D178" s="14" t="n">
         <v>-5.539958</v>
       </c>
-      <c r="G178" s="0" t="n">
+      <c r="E178" s="0" t="n">
         <v>0.003</v>
+      </c>
+      <c r="F178" s="0" t="n">
+        <v>0.523</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="13" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B179" s="14" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C179" s="15" t="s">
         <v>9</v>
@@ -4984,16 +5544,19 @@
       <c r="D179" s="14" t="n">
         <v>-4.260259</v>
       </c>
-      <c r="G179" s="0" t="n">
-        <v>0</v>
+      <c r="E179" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F179" s="0" t="n">
+        <v>0.887</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="13" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B180" s="14" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C180" s="15" t="s">
         <v>9</v>
@@ -5001,16 +5564,19 @@
       <c r="D180" s="14" t="n">
         <v>-5.848882</v>
       </c>
-      <c r="G180" s="0" t="n">
+      <c r="E180" s="0" t="n">
         <v>0.002</v>
+      </c>
+      <c r="F180" s="0" t="n">
+        <v>0.295</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="13" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B181" s="14" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C181" s="15" t="s">
         <v>9</v>
@@ -5018,16 +5584,19 @@
       <c r="D181" s="14" t="n">
         <v>-17.356564</v>
       </c>
-      <c r="G181" s="0" t="n">
+      <c r="E181" s="0" t="n">
         <v>0.084</v>
+      </c>
+      <c r="F181" s="0" t="n">
+        <v>0.668</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B182" s="14" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C182" s="15" t="s">
         <v>8</v>
@@ -5035,16 +5604,19 @@
       <c r="D182" s="14" t="n">
         <v>-8.861169</v>
       </c>
-      <c r="G182" s="0" t="n">
+      <c r="E182" s="0" t="n">
         <v>0.115</v>
+      </c>
+      <c r="F182" s="0" t="n">
+        <v>0.764</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="13" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B183" s="14" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C183" s="15" t="s">
         <v>9</v>
@@ -5052,16 +5624,19 @@
       <c r="D183" s="14" t="n">
         <v>-5.407864</v>
       </c>
-      <c r="G183" s="0" t="n">
+      <c r="E183" s="0" t="n">
         <v>0.036</v>
+      </c>
+      <c r="F183" s="0" t="n">
+        <v>0.155</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="13" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B184" s="14" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C184" s="15" t="s">
         <v>9</v>
@@ -5069,16 +5644,19 @@
       <c r="D184" s="14" t="n">
         <v>-4.329374</v>
       </c>
-      <c r="G184" s="0" t="n">
-        <v>0</v>
+      <c r="E184" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F184" s="0" t="n">
+        <v>0.518</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B185" s="14" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C185" s="15" t="s">
         <v>9</v>
@@ -5086,16 +5664,19 @@
       <c r="D185" s="14" t="n">
         <v>-9.426005</v>
       </c>
-      <c r="G185" s="0" t="n">
+      <c r="E185" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F185" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="13" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B186" s="14" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C186" s="15" t="s">
         <v>7</v>
@@ -5103,16 +5684,19 @@
       <c r="D186" s="14" t="n">
         <v>-7.049429</v>
       </c>
-      <c r="G186" s="0" t="n">
+      <c r="E186" s="0" t="n">
         <v>0.044</v>
+      </c>
+      <c r="F186" s="0" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="13" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B187" s="14" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C187" s="15" t="s">
         <v>9</v>
@@ -5120,16 +5704,19 @@
       <c r="D187" s="14" t="n">
         <v>-9.957476</v>
       </c>
-      <c r="G187" s="0" t="n">
+      <c r="E187" s="0" t="n">
         <v>0.546</v>
+      </c>
+      <c r="F187" s="0" t="n">
+        <v>0.498</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="13" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B188" s="14" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C188" s="15" t="s">
         <v>9</v>
@@ -5137,16 +5724,19 @@
       <c r="D188" s="14" t="n">
         <v>-15.082711</v>
       </c>
-      <c r="G188" s="0" t="n">
+      <c r="E188" s="0" t="n">
         <v>0.359</v>
+      </c>
+      <c r="F188" s="0" t="n">
+        <v>0.492</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="13" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B189" s="14" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C189" s="15" t="s">
         <v>9</v>
@@ -5154,16 +5744,19 @@
       <c r="D189" s="14" t="n">
         <v>-4.50828</v>
       </c>
-      <c r="G189" s="0" t="n">
-        <v>0</v>
+      <c r="E189" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F189" s="0" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="13" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B190" s="14" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C190" s="15" t="s">
         <v>7</v>
@@ -5171,16 +5764,19 @@
       <c r="D190" s="14" t="n">
         <v>-5.853317</v>
       </c>
-      <c r="G190" s="0" t="n">
+      <c r="E190" s="0" t="n">
         <v>0.156</v>
+      </c>
+      <c r="F190" s="0" t="n">
+        <v>0.912</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B191" s="14" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C191" s="15" t="s">
         <v>7</v>
@@ -5188,16 +5784,19 @@
       <c r="D191" s="14" t="n">
         <v>-13.254848</v>
       </c>
-      <c r="G191" s="0" t="n">
+      <c r="E191" s="0" t="n">
         <v>0.705</v>
+      </c>
+      <c r="F191" s="0" t="n">
+        <v>0.194</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="13" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B192" s="14" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C192" s="15" t="s">
         <v>9</v>
@@ -5205,16 +5804,19 @@
       <c r="D192" s="14" t="n">
         <v>-25.39699</v>
       </c>
-      <c r="G192" s="0" t="n">
+      <c r="E192" s="0" t="n">
         <v>0.094</v>
+      </c>
+      <c r="F192" s="0" t="n">
+        <v>0.206</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="13" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B193" s="14" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C193" s="15" t="s">
         <v>9</v>
@@ -5222,16 +5824,19 @@
       <c r="D193" s="14" t="n">
         <v>-16.972139</v>
       </c>
-      <c r="G193" s="0" t="n">
+      <c r="E193" s="0" t="n">
         <v>0.244</v>
+      </c>
+      <c r="F193" s="0" t="n">
+        <v>0.387</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="13" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B194" s="14" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C194" s="15" t="s">
         <v>9</v>
@@ -5239,16 +5844,19 @@
       <c r="D194" s="14" t="n">
         <v>-18.898565</v>
       </c>
-      <c r="G194" s="0" t="n">
+      <c r="E194" s="0" t="n">
         <v>0.16</v>
+      </c>
+      <c r="F194" s="0" t="n">
+        <v>0.816</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="13" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B195" s="14" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C195" s="15" t="s">
         <v>9</v>
@@ -5256,16 +5864,19 @@
       <c r="D195" s="14" t="n">
         <v>-12.815823</v>
       </c>
-      <c r="G195" s="0" t="n">
+      <c r="E195" s="0" t="n">
         <v>0.661</v>
+      </c>
+      <c r="F195" s="0" t="n">
+        <v>0.992</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="13" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B196" s="14" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C196" s="15" t="s">
         <v>8</v>
@@ -5273,16 +5884,19 @@
       <c r="D196" s="14" t="n">
         <v>-11.951353</v>
       </c>
-      <c r="G196" s="0" t="n">
+      <c r="E196" s="0" t="n">
         <v>0.852</v>
+      </c>
+      <c r="F196" s="0" t="n">
+        <v>0.786</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="13" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B197" s="14" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C197" s="15" t="s">
         <v>9</v>
@@ -5290,16 +5904,19 @@
       <c r="D197" s="14" t="n">
         <v>-15.975968</v>
       </c>
-      <c r="G197" s="0" t="n">
+      <c r="E197" s="0" t="n">
         <v>0.016</v>
+      </c>
+      <c r="F197" s="0" t="n">
+        <v>0.005</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="13" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B198" s="14" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C198" s="15" t="s">
         <v>6</v>
@@ -5307,16 +5924,19 @@
       <c r="D198" s="14" t="n">
         <v>-20.851952</v>
       </c>
-      <c r="G198" s="0" t="n">
+      <c r="E198" s="0" t="n">
         <v>0.033</v>
+      </c>
+      <c r="F198" s="0" t="n">
+        <v>0.007</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="13" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B199" s="14" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C199" s="15" t="s">
         <v>9</v>
@@ -5324,16 +5944,19 @@
       <c r="D199" s="14" t="n">
         <v>-6.245928</v>
       </c>
-      <c r="G199" s="0" t="n">
+      <c r="E199" s="0" t="n">
         <v>0.011</v>
+      </c>
+      <c r="F199" s="0" t="n">
+        <v>0.86</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="13" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B200" s="14" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C200" s="15" t="s">
         <v>6</v>
@@ -5341,16 +5964,19 @@
       <c r="D200" s="14" t="n">
         <v>-2.761617</v>
       </c>
-      <c r="G200" s="0" t="n">
+      <c r="E200" s="0" t="n">
         <v>0.006</v>
+      </c>
+      <c r="F200" s="0" t="n">
+        <v>0.366</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="13" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B201" s="14" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C201" s="15" t="s">
         <v>9</v>
@@ -5358,16 +5984,19 @@
       <c r="D201" s="14" t="n">
         <v>-14.063344</v>
       </c>
-      <c r="G201" s="0" t="n">
+      <c r="E201" s="0" t="n">
         <v>0.303</v>
+      </c>
+      <c r="F201" s="0" t="n">
+        <v>0.309</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="13" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B202" s="14" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C202" s="15" t="s">
         <v>7</v>
@@ -5375,16 +6004,19 @@
       <c r="D202" s="14" t="n">
         <v>-14.693025</v>
       </c>
-      <c r="G202" s="0" t="n">
+      <c r="E202" s="0" t="n">
         <v>0.69</v>
+      </c>
+      <c r="F202" s="0" t="n">
+        <v>0.979</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="13" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B203" s="14" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C203" s="15" t="s">
         <v>9</v>
@@ -5392,16 +6024,19 @@
       <c r="D203" s="14" t="n">
         <v>-11.038934</v>
       </c>
-      <c r="G203" s="0" t="n">
+      <c r="E203" s="0" t="n">
         <v>0.82</v>
+      </c>
+      <c r="F203" s="0" t="n">
+        <v>0.912</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="13" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B204" s="14" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C204" s="15" t="s">
         <v>7</v>
@@ -5409,16 +6044,19 @@
       <c r="D204" s="14" t="n">
         <v>-5.600537</v>
       </c>
-      <c r="G204" s="0" t="n">
+      <c r="E204" s="0" t="n">
         <v>0.001</v>
+      </c>
+      <c r="F204" s="0" t="n">
+        <v>0.199</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="13" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B205" s="14" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C205" s="15" t="s">
         <v>9</v>
@@ -5426,16 +6064,19 @@
       <c r="D205" s="14" t="n">
         <v>-13.406603</v>
       </c>
-      <c r="G205" s="0" t="n">
+      <c r="E205" s="0" t="n">
         <v>0.689</v>
+      </c>
+      <c r="F205" s="0" t="n">
+        <v>0.991</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="13" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B206" s="14" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C206" s="15" t="s">
         <v>9</v>
@@ -5443,16 +6084,19 @@
       <c r="D206" s="14" t="n">
         <v>-14.030838</v>
       </c>
-      <c r="G206" s="0" t="n">
+      <c r="E206" s="0" t="n">
         <v>0.072</v>
+      </c>
+      <c r="F206" s="0" t="n">
+        <v>0.401</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="13" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B207" s="14" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C207" s="15" t="s">
         <v>9</v>
@@ -5460,16 +6104,19 @@
       <c r="D207" s="14" t="n">
         <v>-10.390188</v>
       </c>
-      <c r="G207" s="0" t="n">
+      <c r="E207" s="0" t="n">
         <v>0.27</v>
+      </c>
+      <c r="F207" s="0" t="n">
+        <v>0.154</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="13" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B208" s="14" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C208" s="15" t="s">
         <v>9</v>
@@ -5477,16 +6124,19 @@
       <c r="D208" s="14" t="n">
         <v>-11.613878</v>
       </c>
-      <c r="G208" s="0" t="n">
-        <v>0</v>
+      <c r="E208" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F208" s="0" t="n">
+        <v>0.285</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="13" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B209" s="14" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C209" s="13" t="s">
         <v>9</v>
@@ -5494,16 +6144,19 @@
       <c r="D209" s="14" t="n">
         <v>-7.458743</v>
       </c>
-      <c r="G209" s="0" t="n">
+      <c r="E209" s="0" t="n">
         <v>0.423</v>
+      </c>
+      <c r="F209" s="0" t="n">
+        <v>0.962</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="13" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B210" s="14" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C210" s="13" t="s">
         <v>9</v>
@@ -5511,16 +6164,19 @@
       <c r="D210" s="14" t="n">
         <v>-17.564453</v>
       </c>
-      <c r="G210" s="0" t="n">
+      <c r="E210" s="0" t="n">
         <v>0.015</v>
+      </c>
+      <c r="F210" s="0" t="n">
+        <v>0.138</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="13" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B211" s="14" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C211" s="13" t="s">
         <v>6</v>
@@ -5528,16 +6184,19 @@
       <c r="D211" s="14" t="n">
         <v>-5.141925</v>
       </c>
-      <c r="G211" s="0" t="n">
+      <c r="E211" s="0" t="n">
         <v>0.876</v>
+      </c>
+      <c r="F211" s="0" t="n">
+        <v>0.921</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="13" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B212" s="14" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C212" s="13" t="s">
         <v>6</v>
@@ -5545,16 +6204,19 @@
       <c r="D212" s="14" t="n">
         <v>-6.39706</v>
       </c>
-      <c r="G212" s="0" t="n">
+      <c r="E212" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F212" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="13" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B213" s="14" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C213" s="13" t="s">
         <v>9</v>
@@ -5562,16 +6224,19 @@
       <c r="D213" s="14" t="n">
         <v>-8.136557</v>
       </c>
-      <c r="G213" s="0" t="n">
+      <c r="E213" s="0" t="n">
         <v>0.254</v>
+      </c>
+      <c r="F213" s="0" t="n">
+        <v>0.487</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="13" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B214" s="14" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C214" s="13" t="s">
         <v>7</v>
@@ -5579,16 +6244,19 @@
       <c r="D214" s="14" t="n">
         <v>-5.545853</v>
       </c>
-      <c r="G214" s="0" t="n">
+      <c r="E214" s="0" t="n">
         <v>0.092</v>
+      </c>
+      <c r="F214" s="0" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="13" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B215" s="14" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C215" s="13" t="s">
         <v>9</v>
@@ -5596,16 +6264,19 @@
       <c r="D215" s="14" t="n">
         <v>-20.602449</v>
       </c>
-      <c r="G215" s="0" t="n">
+      <c r="E215" s="0" t="n">
         <v>0.209</v>
+      </c>
+      <c r="F215" s="0" t="n">
+        <v>0.249</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="13" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B216" s="14" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C216" s="13" t="s">
         <v>9</v>
@@ -5613,16 +6284,19 @@
       <c r="D216" s="14" t="n">
         <v>-11.387711</v>
       </c>
-      <c r="G216" s="0" t="n">
+      <c r="E216" s="0" t="n">
         <v>0.467</v>
+      </c>
+      <c r="F216" s="0" t="n">
+        <v>0.316</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="13" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B217" s="14" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C217" s="13" t="s">
         <v>9</v>
@@ -5630,16 +6304,19 @@
       <c r="D217" s="14" t="n">
         <v>-18.360571</v>
       </c>
-      <c r="G217" s="0" t="n">
+      <c r="E217" s="0" t="n">
         <v>0.405</v>
+      </c>
+      <c r="F217" s="0" t="n">
+        <v>0.116</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="13" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B218" s="14" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C218" s="13" t="s">
         <v>7</v>
@@ -5647,16 +6324,19 @@
       <c r="D218" s="14" t="n">
         <v>-12.613346</v>
       </c>
-      <c r="G218" s="0" t="n">
+      <c r="E218" s="0" t="n">
         <v>0.92</v>
+      </c>
+      <c r="F218" s="0" t="n">
+        <v>0.876</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="13" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B219" s="14" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C219" s="13" t="s">
         <v>9</v>
@@ -5664,16 +6344,19 @@
       <c r="D219" s="14" t="n">
         <v>-16.727413</v>
       </c>
-      <c r="G219" s="0" t="n">
+      <c r="E219" s="0" t="n">
         <v>0.761</v>
+      </c>
+      <c r="F219" s="0" t="n">
+        <v>0.432</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A220" s="13" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B220" s="14" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C220" s="13" t="s">
         <v>6</v>
@@ -5681,16 +6364,19 @@
       <c r="D220" s="14" t="n">
         <v>-3.803594</v>
       </c>
-      <c r="G220" s="0" t="n">
+      <c r="E220" s="0" t="n">
         <v>0.14</v>
+      </c>
+      <c r="F220" s="0" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A221" s="13" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B221" s="14" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C221" s="13" t="s">
         <v>7</v>
@@ -5698,16 +6384,19 @@
       <c r="D221" s="14" t="n">
         <v>-6.792498</v>
       </c>
-      <c r="G221" s="0" t="n">
+      <c r="E221" s="0" t="n">
         <v>0.005</v>
+      </c>
+      <c r="F221" s="0" t="n">
+        <v>0.051</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A222" s="13" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B222" s="14" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C222" s="13" t="s">
         <v>7</v>
@@ -5715,16 +6404,19 @@
       <c r="D222" s="14" t="n">
         <v>-9.789886</v>
       </c>
-      <c r="G222" s="0" t="n">
+      <c r="E222" s="0" t="n">
         <v>0.001</v>
+      </c>
+      <c r="F222" s="0" t="n">
+        <v>0.469</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="13" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B223" s="14" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C223" s="13" t="s">
         <v>9</v>
@@ -5732,16 +6424,19 @@
       <c r="D223" s="14" t="n">
         <v>-12.309748</v>
       </c>
-      <c r="G223" s="0" t="n">
+      <c r="E223" s="0" t="n">
         <v>0.147</v>
+      </c>
+      <c r="F223" s="0" t="n">
+        <v>0.987</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="13" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B224" s="14" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C224" s="13" t="s">
         <v>9</v>
@@ -5749,16 +6444,19 @@
       <c r="D224" s="14" t="n">
         <v>-4.620458</v>
       </c>
-      <c r="G224" s="0" t="n">
+      <c r="E224" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F224" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="13" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B225" s="14" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C225" s="13" t="s">
         <v>9</v>
@@ -5766,16 +6464,19 @@
       <c r="D225" s="14" t="n">
         <v>-4.85593</v>
       </c>
-      <c r="G225" s="0" t="n">
+      <c r="E225" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F225" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="13" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B226" s="14" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C226" s="13" t="s">
         <v>9</v>
@@ -5783,16 +6484,19 @@
       <c r="D226" s="14" t="n">
         <v>-4.342866</v>
       </c>
-      <c r="G226" s="0" t="n">
-        <v>0</v>
+      <c r="E226" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F226" s="0" t="n">
+        <v>0.234</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A227" s="13" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B227" s="14" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C227" s="13" t="s">
         <v>9</v>
@@ -5800,16 +6504,19 @@
       <c r="D227" s="14" t="n">
         <v>-7.879355</v>
       </c>
-      <c r="G227" s="0" t="n">
+      <c r="E227" s="0" t="n">
         <v>0.122</v>
+      </c>
+      <c r="F227" s="0" t="n">
+        <v>0.147</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="13" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B228" s="14" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C228" s="13" t="s">
         <v>9</v>
@@ -5817,16 +6524,19 @@
       <c r="D228" s="14" t="n">
         <v>-12.116191</v>
       </c>
-      <c r="G228" s="0" t="n">
+      <c r="E228" s="0" t="n">
         <v>0.108</v>
+      </c>
+      <c r="F228" s="0" t="n">
+        <v>0.341</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A229" s="13" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B229" s="14" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C229" s="13" t="s">
         <v>7</v>
@@ -5834,16 +6544,19 @@
       <c r="D229" s="14" t="n">
         <v>-6.720209</v>
       </c>
-      <c r="G229" s="0" t="n">
+      <c r="E229" s="0" t="n">
         <v>0.486</v>
+      </c>
+      <c r="F229" s="0" t="n">
+        <v>0.314</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A230" s="13" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B230" s="14" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C230" s="13" t="s">
         <v>7</v>
@@ -5851,16 +6564,19 @@
       <c r="D230" s="14" t="n">
         <v>-11.696417</v>
       </c>
-      <c r="G230" s="0" t="n">
+      <c r="E230" s="0" t="n">
         <v>0.225</v>
+      </c>
+      <c r="F230" s="0" t="n">
+        <v>0.227</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="13" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B231" s="14" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C231" s="13" t="s">
         <v>9</v>
@@ -5868,16 +6584,19 @@
       <c r="D231" s="14" t="n">
         <v>-14.6075</v>
       </c>
-      <c r="G231" s="0" t="n">
+      <c r="E231" s="0" t="n">
         <v>0.001</v>
+      </c>
+      <c r="F231" s="0" t="n">
+        <v>0.387</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A232" s="13" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B232" s="14" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C232" s="13" t="s">
         <v>9</v>
@@ -5885,16 +6604,19 @@
       <c r="D232" s="14" t="n">
         <v>-17.075075</v>
       </c>
-      <c r="G232" s="0" t="n">
+      <c r="E232" s="0" t="n">
         <v>0.614</v>
+      </c>
+      <c r="F232" s="0" t="n">
+        <v>0.991</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="13" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B233" s="14" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C233" s="13" t="s">
         <v>9</v>
@@ -5902,16 +6624,19 @@
       <c r="D233" s="14" t="n">
         <v>-16.30216</v>
       </c>
-      <c r="G233" s="0" t="n">
+      <c r="E233" s="0" t="n">
         <v>0.003</v>
+      </c>
+      <c r="F233" s="0" t="n">
+        <v>0.054</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A234" s="13" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B234" s="14" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C234" s="13" t="s">
         <v>9</v>
@@ -5919,16 +6644,19 @@
       <c r="D234" s="14" t="n">
         <v>-22.58218</v>
       </c>
-      <c r="G234" s="0" t="n">
+      <c r="E234" s="0" t="n">
         <v>0.095</v>
+      </c>
+      <c r="F234" s="0" t="n">
+        <v>0.512</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A235" s="13" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B235" s="14" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C235" s="13" t="s">
         <v>7</v>
@@ -5936,16 +6664,19 @@
       <c r="D235" s="14" t="n">
         <v>-5.596937</v>
       </c>
-      <c r="G235" s="0" t="n">
+      <c r="E235" s="0" t="n">
         <v>0.699</v>
+      </c>
+      <c r="F235" s="0" t="n">
+        <v>0.493</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A236" s="13" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B236" s="14" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C236" s="13" t="s">
         <v>9</v>
@@ -5953,16 +6684,19 @@
       <c r="D236" s="14" t="n">
         <v>-6.651099</v>
       </c>
-      <c r="G236" s="0" t="n">
+      <c r="E236" s="0" t="n">
         <v>0.663</v>
+      </c>
+      <c r="F236" s="0" t="n">
+        <v>0.512</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="13" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B237" s="14" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C237" s="13" t="s">
         <v>9</v>
@@ -5970,16 +6704,19 @@
       <c r="D237" s="14" t="n">
         <v>-11.499342</v>
       </c>
-      <c r="G237" s="0" t="n">
+      <c r="E237" s="0" t="n">
         <v>0.001</v>
+      </c>
+      <c r="F237" s="0" t="n">
+        <v>0.221</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A238" s="13" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B238" s="14" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C238" s="13" t="s">
         <v>9</v>
@@ -5987,16 +6724,19 @@
       <c r="D238" s="14" t="n">
         <v>-17.434584</v>
       </c>
-      <c r="G238" s="0" t="n">
+      <c r="E238" s="0" t="n">
         <v>0.389</v>
+      </c>
+      <c r="F238" s="0" t="n">
+        <v>0.543</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="13" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B239" s="14" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C239" s="13" t="s">
         <v>9</v>
@@ -6004,16 +6744,19 @@
       <c r="D239" s="14" t="n">
         <v>-1.194894</v>
       </c>
-      <c r="G239" s="0" t="n">
+      <c r="E239" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F239" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A240" s="13" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B240" s="14" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C240" s="13" t="s">
         <v>9</v>
@@ -6021,16 +6764,19 @@
       <c r="D240" s="14" t="n">
         <v>-11.972279</v>
       </c>
-      <c r="G240" s="0" t="n">
+      <c r="E240" s="0" t="n">
         <v>0.493</v>
+      </c>
+      <c r="F240" s="0" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A241" s="13" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B241" s="14" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C241" s="13" t="s">
         <v>9</v>
@@ -6038,16 +6784,19 @@
       <c r="D241" s="14" t="n">
         <v>-8.452143</v>
       </c>
-      <c r="G241" s="0" t="n">
+      <c r="E241" s="0" t="n">
         <v>0.003</v>
+      </c>
+      <c r="F241" s="0" t="n">
+        <v>0.479</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A242" s="13" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B242" s="14" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C242" s="13" t="s">
         <v>9</v>
@@ -6055,16 +6804,19 @@
       <c r="D242" s="14" t="n">
         <v>-21.289764</v>
       </c>
-      <c r="G242" s="0" t="n">
+      <c r="E242" s="0" t="n">
         <v>0.011</v>
+      </c>
+      <c r="F242" s="0" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A243" s="13" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B243" s="14" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C243" s="13" t="s">
         <v>6</v>
@@ -6072,16 +6824,19 @@
       <c r="D243" s="14" t="n">
         <v>-10.576501</v>
       </c>
-      <c r="G243" s="0" t="n">
+      <c r="E243" s="0" t="n">
         <v>0.43</v>
+      </c>
+      <c r="F243" s="0" t="n">
+        <v>0.925</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A244" s="13" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B244" s="14" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C244" s="13" t="s">
         <v>7</v>
@@ -6089,16 +6844,19 @@
       <c r="D244" s="14" t="n">
         <v>-18.973986</v>
       </c>
-      <c r="G244" s="0" t="n">
+      <c r="E244" s="0" t="n">
         <v>0.065</v>
+      </c>
+      <c r="F244" s="0" t="n">
+        <v>0.894</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A245" s="13" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B245" s="14" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C245" s="13" t="s">
         <v>9</v>
@@ -6106,16 +6864,19 @@
       <c r="D245" s="14" t="n">
         <v>-19.431311</v>
       </c>
-      <c r="G245" s="0" t="n">
+      <c r="E245" s="0" t="n">
         <v>0.108</v>
+      </c>
+      <c r="F245" s="0" t="n">
+        <v>0.992</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A246" s="13" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B246" s="14" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C246" s="13" t="s">
         <v>9</v>
@@ -6123,16 +6884,19 @@
       <c r="D246" s="14" t="n">
         <v>-8.103479</v>
       </c>
-      <c r="G246" s="0" t="n">
-        <v>0</v>
+      <c r="E246" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F246" s="0" t="n">
+        <v>0.378</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A247" s="13" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B247" s="14" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C247" s="13" t="s">
         <v>9</v>
@@ -6140,16 +6904,19 @@
       <c r="D247" s="14" t="n">
         <v>-7.112474</v>
       </c>
-      <c r="G247" s="0" t="n">
-        <v>0</v>
+      <c r="E247" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F247" s="0" t="n">
+        <v>0.992</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A248" s="13" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B248" s="14" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C248" s="13" t="s">
         <v>9</v>
@@ -6157,16 +6924,19 @@
       <c r="D248" s="14" t="n">
         <v>-29.300627</v>
       </c>
-      <c r="G248" s="0" t="n">
+      <c r="E248" s="0" t="n">
         <v>0.522</v>
+      </c>
+      <c r="F248" s="0" t="n">
+        <v>0.261</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A249" s="13" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B249" s="14" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C249" s="13" t="s">
         <v>6</v>
@@ -6174,16 +6944,19 @@
       <c r="D249" s="14" t="n">
         <v>-5.799254</v>
       </c>
-      <c r="G249" s="0" t="n">
+      <c r="E249" s="0" t="n">
         <v>0.589</v>
+      </c>
+      <c r="F249" s="0" t="n">
+        <v>0.115</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A250" s="13" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B250" s="14" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C250" s="13" t="s">
         <v>9</v>
@@ -6191,16 +6964,19 @@
       <c r="D250" s="14" t="n">
         <v>-23.865952</v>
       </c>
-      <c r="G250" s="0" t="n">
+      <c r="E250" s="0" t="n">
         <v>0.042</v>
+      </c>
+      <c r="F250" s="0" t="n">
+        <v>0.074</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A251" s="13" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B251" s="14" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C251" s="13" t="s">
         <v>9</v>
@@ -6208,16 +6984,19 @@
       <c r="D251" s="14" t="n">
         <v>-5.706405</v>
       </c>
-      <c r="G251" s="0" t="n">
-        <v>0</v>
+      <c r="E251" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F251" s="0" t="n">
+        <v>0.202</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A252" s="13" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B252" s="14" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C252" s="13" t="s">
         <v>9</v>
@@ -6225,16 +7004,19 @@
       <c r="D252" s="14" t="n">
         <v>-16.422207</v>
       </c>
-      <c r="G252" s="0" t="n">
+      <c r="E252" s="0" t="n">
         <v>0.253</v>
+      </c>
+      <c r="F252" s="0" t="n">
+        <v>0.614</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A253" s="13" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B253" s="14" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C253" s="13" t="s">
         <v>9</v>
@@ -6242,16 +7024,19 @@
       <c r="D253" s="14" t="n">
         <v>-5.520868</v>
       </c>
-      <c r="G253" s="0" t="n">
-        <v>0</v>
+      <c r="E253" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F253" s="0" t="n">
+        <v>0.184</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A254" s="13" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B254" s="14" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C254" s="13" t="s">
         <v>7</v>
@@ -6259,16 +7044,19 @@
       <c r="D254" s="14" t="n">
         <v>-9.031754</v>
       </c>
-      <c r="G254" s="0" t="n">
+      <c r="E254" s="0" t="n">
         <v>0.793</v>
+      </c>
+      <c r="F254" s="0" t="n">
+        <v>0.959</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A255" s="13" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B255" s="14" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C255" s="13" t="s">
         <v>7</v>
@@ -6276,16 +7064,19 @@
       <c r="D255" s="14" t="n">
         <v>-4.343132</v>
       </c>
-      <c r="G255" s="0" t="n">
-        <v>0</v>
+      <c r="E255" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F255" s="0" t="n">
+        <v>0.743</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A256" s="14" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B256" s="14" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C256" s="13" t="s">
         <v>9</v>
@@ -6293,16 +7084,19 @@
       <c r="D256" s="14" t="n">
         <v>-5.87863</v>
       </c>
-      <c r="G256" s="0" t="n">
+      <c r="E256" s="0" t="n">
         <v>0.08</v>
+      </c>
+      <c r="F256" s="0" t="n">
+        <v>0.465</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A257" s="14" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B257" s="14" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C257" s="13" t="s">
         <v>9</v>
@@ -6310,16 +7104,19 @@
       <c r="D257" s="14" t="n">
         <v>-13.137159</v>
       </c>
-      <c r="G257" s="0" t="n">
+      <c r="E257" s="0" t="n">
         <v>0.164</v>
+      </c>
+      <c r="F257" s="0" t="n">
+        <v>0.987</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A258" s="14" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B258" s="14" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C258" s="13" t="s">
         <v>9</v>
@@ -6327,16 +7124,19 @@
       <c r="D258" s="14" t="n">
         <v>-6.248622</v>
       </c>
-      <c r="G258" s="0" t="n">
+      <c r="E258" s="0" t="n">
         <v>0.525</v>
+      </c>
+      <c r="F258" s="0" t="n">
+        <v>0.642</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A259" s="14" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B259" s="14" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C259" s="13" t="s">
         <v>8</v>
@@ -6344,16 +7144,19 @@
       <c r="D259" s="14" t="n">
         <v>-12.577385</v>
       </c>
-      <c r="G259" s="0" t="n">
+      <c r="E259" s="0" t="n">
         <v>0.85</v>
+      </c>
+      <c r="F259" s="0" t="n">
+        <v>0.82</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A260" s="14" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B260" s="14" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C260" s="13" t="s">
         <v>8</v>
@@ -6361,16 +7164,19 @@
       <c r="D260" s="14" t="n">
         <v>-24.687393</v>
       </c>
-      <c r="G260" s="0" t="n">
+      <c r="E260" s="0" t="n">
         <v>0.171</v>
+      </c>
+      <c r="F260" s="0" t="n">
+        <v>0.989</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A261" s="14" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B261" s="14" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C261" s="13" t="s">
         <v>9</v>
@@ -6378,16 +7184,19 @@
       <c r="D261" s="14" t="n">
         <v>-4.605865</v>
       </c>
-      <c r="G261" s="0" t="n">
+      <c r="E261" s="0" t="n">
         <v>0.022</v>
+      </c>
+      <c r="F261" s="0" t="n">
+        <v>0.337</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A262" s="14" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B262" s="14" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C262" s="13" t="s">
         <v>9</v>
@@ -6395,16 +7204,19 @@
       <c r="D262" s="14" t="n">
         <v>-12.401551</v>
       </c>
-      <c r="G262" s="0" t="n">
-        <v>0</v>
+      <c r="E262" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F262" s="0" t="n">
+        <v>0.99</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A263" s="14" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B263" s="14" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C263" s="13" t="s">
         <v>9</v>
@@ -6412,8 +7224,11 @@
       <c r="D263" s="14" t="n">
         <v>-4.854081</v>
       </c>
-      <c r="G263" s="0" t="n">
+      <c r="E263" s="0" t="n">
         <v>0.558</v>
+      </c>
+      <c r="F263" s="0" t="n">
+        <v>0.584</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7538,9 +8353,10 @@
     <row r="999" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1000" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:B7"/>
     <mergeCell ref="C2:C7"/>
+    <mergeCell ref="E7:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="C9:C455">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
@@ -7583,16 +8399,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I255"/>
+  <dimension ref="A1:L255"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="16" width="11.52"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="15" t="s">
@@ -7601,30 +8414,48 @@
       <c r="B1" s="0" t="n">
         <v>0.938</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="0" t="n">
+        <v>0.841</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <f aca="false">B1+C1</f>
+        <v>1.779</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="7" t="n">
+      <c r="G1" s="7" t="n">
         <f aca="false">COUNTIF($A$1:$A$26, "OK")/26</f>
         <v>0.115384615384615</v>
       </c>
-      <c r="E1" s="17" t="n">
+      <c r="H1" s="16" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.92</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="0" t="n">
+        <v>0.876</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <f aca="false">B2+C2</f>
+        <v>1.796</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="7" t="n">
+      <c r="G2" s="7" t="n">
         <f aca="false">COUNTIF($A$1:$A$26, "A")/26</f>
         <v>0.5</v>
+      </c>
+      <c r="H2" s="17" t="n">
+        <f aca="false">G1+G2</f>
+        <v>0.615384615384615</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7634,25 +8465,39 @@
       <c r="B3" s="0" t="n">
         <v>0.919</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="0" t="n">
+        <v>0.473</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <f aca="false">B3+C3</f>
+        <v>1.392</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="7" t="n">
+      <c r="G3" s="7" t="n">
         <f aca="false">COUNTIF($A$1:$A$26, "B")/26</f>
         <v>0.153846153846154</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.876</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="10" t="n">
+      <c r="C4" s="0" t="n">
+        <v>0.921</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <f aca="false">B4+C4</f>
+        <v>1.797</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="10" t="n">
         <f aca="false">COUNTIF($A$1:$A$26, "C")/26</f>
         <v>0.230769230769231</v>
       </c>
@@ -7664,14 +8509,21 @@
       <c r="B5" s="0" t="n">
         <v>0.867</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="C5" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <f aca="false">B5+C5</f>
+        <v>0.871</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="7" t="n">
+      <c r="I5" s="7" t="n">
         <f aca="false">COUNTIF($A$1:$A$77, "OK")/77</f>
         <v>0.116883116883117</v>
       </c>
-      <c r="G5" s="17" t="n">
+      <c r="J5" s="16" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -7682,25 +8534,43 @@
       <c r="B6" s="0" t="n">
         <v>0.852</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="C6" s="0" t="n">
+        <v>0.786</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <f aca="false">B6+C6</f>
+        <v>1.638</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="7" t="n">
+      <c r="I6" s="7" t="n">
         <f aca="false">COUNTIF($A$1:$A$77, "A")/77</f>
         <v>0.285714285714286</v>
       </c>
+      <c r="J6" s="17" t="n">
+        <f aca="false">I5+I6</f>
+        <v>0.402597402597403</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.85</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="C7" s="0" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <f aca="false">B7+C7</f>
+        <v>1.67</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="7" t="n">
+      <c r="I7" s="7" t="n">
         <f aca="false">COUNTIF($A$1:$A$77, "B")/77</f>
         <v>0.116883116883117</v>
       </c>
@@ -7712,10 +8582,17 @@
       <c r="B8" s="0" t="n">
         <v>0.845</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="10" t="n">
+      <c r="C8" s="0" t="n">
+        <v>0.223</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <f aca="false">B8+C8</f>
+        <v>1.068</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="10" t="n">
         <f aca="false">COUNTIF($A$1:$A$77, "C")/77</f>
         <v>0.480519480519481</v>
       </c>
@@ -7727,14 +8604,21 @@
       <c r="B9" s="0" t="n">
         <v>0.82</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="C9" s="0" t="n">
+        <v>0.912</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <f aca="false">B9+C9</f>
+        <v>1.732</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="7" t="n">
+      <c r="K9" s="7" t="n">
         <f aca="false">COUNTIF($A$1:$A$128, "OK")/128</f>
         <v>0.0859375</v>
       </c>
-      <c r="I9" s="17" t="n">
+      <c r="L9" s="16" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -7745,25 +8629,43 @@
       <c r="B10" s="0" t="n">
         <v>0.796</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="C10" s="0" t="n">
+        <v>0.326</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <f aca="false">B10+C10</f>
+        <v>1.122</v>
+      </c>
+      <c r="J10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="7" t="n">
+      <c r="K10" s="7" t="n">
         <f aca="false">COUNTIF($A$1:$A$128, "A")/128</f>
         <v>0.203125</v>
       </c>
+      <c r="L10" s="17" t="n">
+        <f aca="false">K9+K10</f>
+        <v>0.2890625</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.793</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="C11" s="0" t="n">
+        <v>0.959</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <f aca="false">B11+C11</f>
+        <v>1.752</v>
+      </c>
+      <c r="J11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="7" t="n">
+      <c r="K11" s="7" t="n">
         <f aca="false">COUNTIF($A$1:$A$128, "B")/128</f>
         <v>0.109375</v>
       </c>
@@ -7775,20 +8677,34 @@
       <c r="B12" s="0" t="n">
         <v>0.775</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="10" t="n">
+      <c r="C12" s="0" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <f aca="false">B12+C12</f>
+        <v>1.76</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="10" t="n">
         <f aca="false">COUNTIF($A$1:$A$128, "C")/128</f>
         <v>0.6015625</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.761</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.432</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <f aca="false">B13+C13</f>
+        <v>1.193</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7798,6 +8714,13 @@
       <c r="B14" s="0" t="n">
         <v>0.742</v>
       </c>
+      <c r="C14" s="0" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <f aca="false">B14+C14</f>
+        <v>1.037</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="15" t="s">
@@ -7806,6 +8729,13 @@
       <c r="B15" s="0" t="n">
         <v>0.74</v>
       </c>
+      <c r="C15" s="0" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <f aca="false">B15+C15</f>
+        <v>1.3</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="15" t="s">
@@ -7814,6 +8744,13 @@
       <c r="B16" s="0" t="n">
         <v>0.731</v>
       </c>
+      <c r="C16" s="0" t="n">
+        <v>0.503</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <f aca="false">B16+C16</f>
+        <v>1.234</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="15" t="s">
@@ -7822,6 +8759,13 @@
       <c r="B17" s="0" t="n">
         <v>0.705</v>
       </c>
+      <c r="C17" s="0" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <f aca="false">B17+C17</f>
+        <v>0.899</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="15" t="s">
@@ -7830,13 +8774,27 @@
       <c r="B18" s="0" t="n">
         <v>0.704</v>
       </c>
+      <c r="C18" s="0" t="n">
+        <v>0.989</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <f aca="false">B18+C18</f>
+        <v>1.693</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.699</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0.493</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <f aca="false">B19+C19</f>
+        <v>1.192</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7846,6 +8804,13 @@
       <c r="B20" s="0" t="n">
         <v>0.699</v>
       </c>
+      <c r="C20" s="0" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <f aca="false">B20+C20</f>
+        <v>1.143</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="15" t="s">
@@ -7854,6 +8819,13 @@
       <c r="B21" s="0" t="n">
         <v>0.694</v>
       </c>
+      <c r="C21" s="0" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <f aca="false">B21+C21</f>
+        <v>1.309</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="15" t="s">
@@ -7862,6 +8834,13 @@
       <c r="B22" s="0" t="n">
         <v>0.69</v>
       </c>
+      <c r="C22" s="0" t="n">
+        <v>0.979</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <f aca="false">B22+C22</f>
+        <v>1.669</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="15" t="s">
@@ -7869,6 +8848,13 @@
       </c>
       <c r="B23" s="0" t="n">
         <v>0.689</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <f aca="false">B23+C23</f>
+        <v>1.68</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7878,6 +8864,13 @@
       <c r="B24" s="0" t="n">
         <v>0.688</v>
       </c>
+      <c r="C24" s="0" t="n">
+        <v>0.251</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <f aca="false">B24+C24</f>
+        <v>0.939</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="15" t="s">
@@ -7886,14 +8879,28 @@
       <c r="B25" s="0" t="n">
         <v>0.682</v>
       </c>
+      <c r="C25" s="0" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <f aca="false">B25+C25</f>
+        <v>1.317</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0.663</v>
       </c>
+      <c r="C26" s="0" t="n">
+        <v>0.512</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <f aca="false">B26+C26</f>
+        <v>1.175</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="15" t="s">
@@ -7902,6 +8909,13 @@
       <c r="B27" s="0" t="n">
         <v>0.661</v>
       </c>
+      <c r="C27" s="0" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <f aca="false">B27+C27</f>
+        <v>1.653</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="15" t="s">
@@ -7910,6 +8924,13 @@
       <c r="B28" s="0" t="n">
         <v>0.658</v>
       </c>
+      <c r="C28" s="0" t="n">
+        <v>0.573</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <f aca="false">B28+C28</f>
+        <v>1.231</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="15" t="s">
@@ -7918,6 +8939,13 @@
       <c r="B29" s="0" t="n">
         <v>0.655</v>
       </c>
+      <c r="C29" s="0" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <f aca="false">B29+C29</f>
+        <v>0.977</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="15" t="s">
@@ -7925,6 +8953,13 @@
       </c>
       <c r="B30" s="0" t="n">
         <v>0.644</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0.427</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <f aca="false">B30+C30</f>
+        <v>1.071</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7934,6 +8969,13 @@
       <c r="B31" s="0" t="n">
         <v>0.629</v>
       </c>
+      <c r="C31" s="0" t="n">
+        <v>0.487</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <f aca="false">B31+C31</f>
+        <v>1.116</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="15" t="s">
@@ -7942,22 +8984,43 @@
       <c r="B32" s="0" t="n">
         <v>0.619</v>
       </c>
+      <c r="C32" s="0" t="n">
+        <v>0.303</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <f aca="false">B32+C32</f>
+        <v>0.922</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="15" t="s">
-        <v>7</v>
+      <c r="A33" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0.614</v>
       </c>
+      <c r="C33" s="0" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <f aca="false">B33+C33</f>
+        <v>1.605</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0.614</v>
       </c>
+      <c r="C34" s="0" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <f aca="false">B34+C34</f>
+        <v>0.967</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="15" t="s">
@@ -7966,13 +9029,27 @@
       <c r="B35" s="0" t="n">
         <v>0.61</v>
       </c>
+      <c r="C35" s="0" t="n">
+        <v>0.403</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <f aca="false">B35+C35</f>
+        <v>1.013</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0.589</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <f aca="false">B36+C36</f>
+        <v>0.704</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7982,6 +9059,13 @@
       <c r="B37" s="0" t="n">
         <v>0.588</v>
       </c>
+      <c r="C37" s="0" t="n">
+        <v>0.314</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <f aca="false">B37+C37</f>
+        <v>0.902</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="15" t="s">
@@ -7989,6 +9073,13 @@
       </c>
       <c r="B38" s="0" t="n">
         <v>0.586</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0.777</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <f aca="false">B38+C38</f>
+        <v>1.363</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7998,6 +9089,13 @@
       <c r="B39" s="0" t="n">
         <v>0.579</v>
       </c>
+      <c r="C39" s="0" t="n">
+        <v>0.332</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <f aca="false">B39+C39</f>
+        <v>0.911</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="15" t="s">
@@ -8006,6 +9104,13 @@
       <c r="B40" s="0" t="n">
         <v>0.578</v>
       </c>
+      <c r="C40" s="0" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <f aca="false">B40+C40</f>
+        <v>0.93</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="15" t="s">
@@ -8014,14 +9119,28 @@
       <c r="B41" s="0" t="n">
         <v>0.559</v>
       </c>
+      <c r="C41" s="0" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <f aca="false">B41+C41</f>
+        <v>1.115</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0.558</v>
       </c>
+      <c r="C42" s="0" t="n">
+        <v>0.584</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <f aca="false">B42+C42</f>
+        <v>1.142</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="15" t="s">
@@ -8030,6 +9149,13 @@
       <c r="B43" s="0" t="n">
         <v>0.55</v>
       </c>
+      <c r="C43" s="0" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <f aca="false">B43+C43</f>
+        <v>0.907</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="15" t="s">
@@ -8038,6 +9164,13 @@
       <c r="B44" s="0" t="n">
         <v>0.546</v>
       </c>
+      <c r="C44" s="0" t="n">
+        <v>0.498</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <f aca="false">B44+C44</f>
+        <v>1.044</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="15" t="s">
@@ -8046,14 +9179,28 @@
       <c r="B45" s="0" t="n">
         <v>0.529</v>
       </c>
+      <c r="C45" s="0" t="n">
+        <v>0.246</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <f aca="false">B45+C45</f>
+        <v>0.775</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0.525</v>
       </c>
+      <c r="C46" s="0" t="n">
+        <v>0.642</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <f aca="false">B46+C46</f>
+        <v>1.167</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="15" t="s">
@@ -8062,13 +9209,27 @@
       <c r="B47" s="0" t="n">
         <v>0.525</v>
       </c>
+      <c r="C47" s="0" t="n">
+        <v>0.288</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <f aca="false">B47+C47</f>
+        <v>0.813</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0.522</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>0.261</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <f aca="false">B48+C48</f>
+        <v>0.783</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8078,6 +9239,13 @@
       <c r="B49" s="0" t="n">
         <v>0.518</v>
       </c>
+      <c r="C49" s="0" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <f aca="false">B49+C49</f>
+        <v>0.773</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="15" t="s">
@@ -8086,6 +9254,13 @@
       <c r="B50" s="0" t="n">
         <v>0.511</v>
       </c>
+      <c r="C50" s="0" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <f aca="false">B50+C50</f>
+        <v>0.615</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="15" t="s">
@@ -8094,14 +9269,28 @@
       <c r="B51" s="0" t="n">
         <v>0.498</v>
       </c>
+      <c r="C51" s="0" t="n">
+        <v>0.518</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <f aca="false">B51+C51</f>
+        <v>1.016</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>0.493</v>
       </c>
+      <c r="C52" s="0" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <f aca="false">B52+C52</f>
+        <v>0.933</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="15" t="s">
@@ -8110,14 +9299,28 @@
       <c r="B53" s="0" t="n">
         <v>0.49</v>
       </c>
+      <c r="C53" s="0" t="n">
+        <v>0.359</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <f aca="false">B53+C53</f>
+        <v>0.849</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>0.486</v>
       </c>
+      <c r="C54" s="0" t="n">
+        <v>0.314</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <f aca="false">B54+C54</f>
+        <v>0.8</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="15" t="s">
@@ -8125,6 +9328,13 @@
       </c>
       <c r="B55" s="0" t="n">
         <v>0.477</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>0.277</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <f aca="false">B55+C55</f>
+        <v>0.754</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8134,14 +9344,28 @@
       <c r="B56" s="0" t="n">
         <v>0.469</v>
       </c>
+      <c r="C56" s="0" t="n">
+        <v>0.851</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <f aca="false">B56+C56</f>
+        <v>1.32</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>0.467</v>
       </c>
+      <c r="C57" s="0" t="n">
+        <v>0.316</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <f aca="false">B57+C57</f>
+        <v>0.783</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="15" t="s">
@@ -8150,22 +9374,43 @@
       <c r="B58" s="0" t="n">
         <v>0.467</v>
       </c>
+      <c r="C58" s="0" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <f aca="false">B58+C58</f>
+        <v>0.672</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>0.465</v>
       </c>
+      <c r="C59" s="0" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <f aca="false">B59+C59</f>
+        <v>1.453</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>0.465</v>
       </c>
+      <c r="C60" s="0" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <f aca="false">B60+C60</f>
+        <v>0.635</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="15" t="s">
@@ -8174,6 +9419,13 @@
       <c r="B61" s="0" t="n">
         <v>0.441</v>
       </c>
+      <c r="C61" s="0" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <f aca="false">B61+C61</f>
+        <v>0.805</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="15" t="s">
@@ -8182,14 +9434,28 @@
       <c r="B62" s="0" t="n">
         <v>0.44</v>
       </c>
+      <c r="C62" s="0" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <f aca="false">B62+C62</f>
+        <v>0.612</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="15" t="s">
+      <c r="A63" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>0.43</v>
       </c>
+      <c r="C63" s="0" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <f aca="false">B63+C63</f>
+        <v>1.355</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="15" t="s">
@@ -8198,6 +9464,13 @@
       <c r="B64" s="0" t="n">
         <v>0.428</v>
       </c>
+      <c r="C64" s="0" t="n">
+        <v>0.711</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <f aca="false">B64+C64</f>
+        <v>1.139</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="15" t="s">
@@ -8206,13 +9479,27 @@
       <c r="B65" s="0" t="n">
         <v>0.425</v>
       </c>
+      <c r="C65" s="0" t="n">
+        <v>0.552</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <f aca="false">B65+C65</f>
+        <v>0.977</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="15" t="s">
+      <c r="A66" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>0.423</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>0.962</v>
+      </c>
+      <c r="D66" s="0" t="n">
+        <f aca="false">B66+C66</f>
+        <v>1.385</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8222,14 +9509,28 @@
       <c r="B67" s="0" t="n">
         <v>0.422</v>
       </c>
+      <c r="C67" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <f aca="false">B67+C67</f>
+        <v>0.722</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="15" t="s">
+      <c r="A68" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>0.405</v>
       </c>
+      <c r="C68" s="0" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <f aca="false">B68+C68</f>
+        <v>0.521</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="15" t="s">
@@ -8237,6 +9538,13 @@
       </c>
       <c r="B69" s="0" t="n">
         <v>0.395</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>0.414</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <f aca="false">B69+C69</f>
+        <v>0.809</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8246,14 +9554,28 @@
       <c r="B70" s="0" t="n">
         <v>0.394</v>
       </c>
+      <c r="C70" s="0" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="D70" s="0" t="n">
+        <f aca="false">B70+C70</f>
+        <v>0.42</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="15" t="s">
+      <c r="A71" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>0.389</v>
       </c>
+      <c r="C71" s="0" t="n">
+        <v>0.543</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <f aca="false">B71+C71</f>
+        <v>0.932</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="15" t="s">
@@ -8262,6 +9584,13 @@
       <c r="B72" s="0" t="n">
         <v>0.386</v>
       </c>
+      <c r="C72" s="0" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <f aca="false">B72+C72</f>
+        <v>0.558</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="15" t="s">
@@ -8270,6 +9599,13 @@
       <c r="B73" s="0" t="n">
         <v>0.382</v>
       </c>
+      <c r="C73" s="0" t="n">
+        <v>0.085</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <f aca="false">B73+C73</f>
+        <v>0.467</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="15" t="s">
@@ -8277,6 +9613,13 @@
       </c>
       <c r="B74" s="0" t="n">
         <v>0.359</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>0.492</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <f aca="false">B74+C74</f>
+        <v>0.851</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8286,6 +9629,13 @@
       <c r="B75" s="0" t="n">
         <v>0.345</v>
       </c>
+      <c r="C75" s="0" t="n">
+        <v>0.546</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <f aca="false">B75+C75</f>
+        <v>0.891</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="15" t="s">
@@ -8294,6 +9644,13 @@
       <c r="B76" s="0" t="n">
         <v>0.344</v>
       </c>
+      <c r="C76" s="0" t="n">
+        <v>0.293</v>
+      </c>
+      <c r="D76" s="0" t="n">
+        <f aca="false">B76+C76</f>
+        <v>0.637</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="15" t="s">
@@ -8302,6 +9659,13 @@
       <c r="B77" s="0" t="n">
         <v>0.329</v>
       </c>
+      <c r="C77" s="0" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="D77" s="0" t="n">
+        <f aca="false">B77+C77</f>
+        <v>1.209</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="15" t="s">
@@ -8310,6 +9674,13 @@
       <c r="B78" s="0" t="n">
         <v>0.317</v>
       </c>
+      <c r="C78" s="0" t="n">
+        <v>0.197</v>
+      </c>
+      <c r="D78" s="0" t="n">
+        <f aca="false">B78+C78</f>
+        <v>0.514</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="15" t="s">
@@ -8318,6 +9689,13 @@
       <c r="B79" s="0" t="n">
         <v>0.303</v>
       </c>
+      <c r="C79" s="0" t="n">
+        <v>0.309</v>
+      </c>
+      <c r="D79" s="0" t="n">
+        <f aca="false">B79+C79</f>
+        <v>0.612</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="15" t="s">
@@ -8326,6 +9704,13 @@
       <c r="B80" s="0" t="n">
         <v>0.289</v>
       </c>
+      <c r="C80" s="0" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="D80" s="0" t="n">
+        <f aca="false">B80+C80</f>
+        <v>0.644</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="15" t="s">
@@ -8334,6 +9719,13 @@
       <c r="B81" s="0" t="n">
         <v>0.279</v>
       </c>
+      <c r="C81" s="0" t="n">
+        <v>0.557</v>
+      </c>
+      <c r="D81" s="0" t="n">
+        <f aca="false">B81+C81</f>
+        <v>0.836</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="15" t="s">
@@ -8342,6 +9734,13 @@
       <c r="B82" s="0" t="n">
         <v>0.273</v>
       </c>
+      <c r="C82" s="0" t="n">
+        <v>0.541</v>
+      </c>
+      <c r="D82" s="0" t="n">
+        <f aca="false">B82+C82</f>
+        <v>0.814</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="15" t="s">
@@ -8350,6 +9749,13 @@
       <c r="B83" s="0" t="n">
         <v>0.27</v>
       </c>
+      <c r="C83" s="0" t="n">
+        <v>0.314</v>
+      </c>
+      <c r="D83" s="0" t="n">
+        <f aca="false">B83+C83</f>
+        <v>0.584</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="15" t="s">
@@ -8358,6 +9764,13 @@
       <c r="B84" s="0" t="n">
         <v>0.27</v>
       </c>
+      <c r="C84" s="0" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="D84" s="0" t="n">
+        <f aca="false">B84+C84</f>
+        <v>0.424</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="15" t="s">
@@ -8366,6 +9779,13 @@
       <c r="B85" s="0" t="n">
         <v>0.269</v>
       </c>
+      <c r="C85" s="0" t="n">
+        <v>0.313</v>
+      </c>
+      <c r="D85" s="0" t="n">
+        <f aca="false">B85+C85</f>
+        <v>0.582</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="15" t="s">
@@ -8374,22 +9794,43 @@
       <c r="B86" s="0" t="n">
         <v>0.258</v>
       </c>
+      <c r="C86" s="0" t="n">
+        <v>0.664</v>
+      </c>
+      <c r="D86" s="0" t="n">
+        <f aca="false">B86+C86</f>
+        <v>0.922</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="15" t="s">
+      <c r="A87" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>0.254</v>
       </c>
+      <c r="C87" s="0" t="n">
+        <v>0.487</v>
+      </c>
+      <c r="D87" s="0" t="n">
+        <f aca="false">B87+C87</f>
+        <v>0.741</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="15" t="s">
+      <c r="A88" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>0.253</v>
       </c>
+      <c r="C88" s="0" t="n">
+        <v>0.614</v>
+      </c>
+      <c r="D88" s="0" t="n">
+        <f aca="false">B88+C88</f>
+        <v>0.867</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="15" t="s">
@@ -8398,6 +9839,13 @@
       <c r="B89" s="0" t="n">
         <v>0.244</v>
       </c>
+      <c r="C89" s="0" t="n">
+        <v>0.387</v>
+      </c>
+      <c r="D89" s="0" t="n">
+        <f aca="false">B89+C89</f>
+        <v>0.631</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="15" t="s">
@@ -8406,14 +9854,28 @@
       <c r="B90" s="0" t="n">
         <v>0.235</v>
       </c>
+      <c r="C90" s="0" t="n">
+        <v>0.748</v>
+      </c>
+      <c r="D90" s="0" t="n">
+        <f aca="false">B90+C90</f>
+        <v>0.983</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="15" t="s">
+      <c r="A91" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>0.225</v>
       </c>
+      <c r="C91" s="0" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="D91" s="0" t="n">
+        <f aca="false">B91+C91</f>
+        <v>0.452</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="15" t="s">
@@ -8422,14 +9884,28 @@
       <c r="B92" s="0" t="n">
         <v>0.209</v>
       </c>
+      <c r="C92" s="0" t="n">
+        <v>0.989</v>
+      </c>
+      <c r="D92" s="0" t="n">
+        <f aca="false">B92+C92</f>
+        <v>1.198</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="15" t="s">
+      <c r="A93" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>0.209</v>
       </c>
+      <c r="C93" s="0" t="n">
+        <v>0.249</v>
+      </c>
+      <c r="D93" s="0" t="n">
+        <f aca="false">B93+C93</f>
+        <v>0.458</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="15" t="s">
@@ -8438,6 +9914,13 @@
       <c r="B94" s="0" t="n">
         <v>0.193</v>
       </c>
+      <c r="C94" s="0" t="n">
+        <v>0.283</v>
+      </c>
+      <c r="D94" s="0" t="n">
+        <f aca="false">B94+C94</f>
+        <v>0.476</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="15" t="s">
@@ -8446,6 +9929,13 @@
       <c r="B95" s="0" t="n">
         <v>0.188</v>
       </c>
+      <c r="C95" s="0" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="D95" s="0" t="n">
+        <f aca="false">B95+C95</f>
+        <v>0.445</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="15" t="s">
@@ -8454,6 +9944,13 @@
       <c r="B96" s="0" t="n">
         <v>0.185</v>
       </c>
+      <c r="C96" s="0" t="n">
+        <v>0.503</v>
+      </c>
+      <c r="D96" s="0" t="n">
+        <f aca="false">B96+C96</f>
+        <v>0.688</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="15" t="s">
@@ -8462,14 +9959,28 @@
       <c r="B97" s="0" t="n">
         <v>0.182</v>
       </c>
+      <c r="C97" s="0" t="n">
+        <v>0.784</v>
+      </c>
+      <c r="D97" s="0" t="n">
+        <f aca="false">B97+C97</f>
+        <v>0.966</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="15" t="s">
+      <c r="A98" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>0.171</v>
       </c>
+      <c r="C98" s="0" t="n">
+        <v>0.989</v>
+      </c>
+      <c r="D98" s="0" t="n">
+        <f aca="false">B98+C98</f>
+        <v>1.16</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="15" t="s">
@@ -8478,14 +9989,28 @@
       <c r="B99" s="0" t="n">
         <v>0.167</v>
       </c>
+      <c r="C99" s="0" t="n">
+        <v>0.323</v>
+      </c>
+      <c r="D99" s="0" t="n">
+        <f aca="false">B99+C99</f>
+        <v>0.49</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="15" t="s">
+      <c r="A100" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>0.164</v>
       </c>
+      <c r="C100" s="0" t="n">
+        <v>0.987</v>
+      </c>
+      <c r="D100" s="0" t="n">
+        <f aca="false">B100+C100</f>
+        <v>1.151</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="15" t="s">
@@ -8493,6 +10018,13 @@
       </c>
       <c r="B101" s="0" t="n">
         <v>0.16</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>0.816</v>
+      </c>
+      <c r="D101" s="0" t="n">
+        <f aca="false">B101+C101</f>
+        <v>0.976</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8502,6 +10034,13 @@
       <c r="B102" s="0" t="n">
         <v>0.159</v>
       </c>
+      <c r="C102" s="0" t="n">
+        <v>0.717</v>
+      </c>
+      <c r="D102" s="0" t="n">
+        <f aca="false">B102+C102</f>
+        <v>0.876</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="15" t="s">
@@ -8510,6 +10049,13 @@
       <c r="B103" s="0" t="n">
         <v>0.156</v>
       </c>
+      <c r="C103" s="0" t="n">
+        <v>0.912</v>
+      </c>
+      <c r="D103" s="0" t="n">
+        <f aca="false">B103+C103</f>
+        <v>1.068</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="15" t="s">
@@ -8518,6 +10064,13 @@
       <c r="B104" s="0" t="n">
         <v>0.151</v>
       </c>
+      <c r="C104" s="0" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="D104" s="0" t="n">
+        <f aca="false">B104+C104</f>
+        <v>0.566</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="15" t="s">
@@ -8526,14 +10079,28 @@
       <c r="B105" s="0" t="n">
         <v>0.149</v>
       </c>
+      <c r="C105" s="0" t="n">
+        <v>0.454</v>
+      </c>
+      <c r="D105" s="0" t="n">
+        <f aca="false">B105+C105</f>
+        <v>0.603</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="15" t="s">
+      <c r="A106" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>0.147</v>
       </c>
+      <c r="C106" s="0" t="n">
+        <v>0.987</v>
+      </c>
+      <c r="D106" s="0" t="n">
+        <f aca="false">B106+C106</f>
+        <v>1.134</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="15" t="s">
@@ -8542,6 +10109,13 @@
       <c r="B107" s="0" t="n">
         <v>0.147</v>
       </c>
+      <c r="C107" s="0" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="D107" s="0" t="n">
+        <f aca="false">B107+C107</f>
+        <v>0.917</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="15" t="s">
@@ -8550,6 +10124,13 @@
       <c r="B108" s="0" t="n">
         <v>0.147</v>
       </c>
+      <c r="C108" s="0" t="n">
+        <v>0.484</v>
+      </c>
+      <c r="D108" s="0" t="n">
+        <f aca="false">B108+C108</f>
+        <v>0.631</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="15" t="s">
@@ -8558,6 +10139,13 @@
       <c r="B109" s="0" t="n">
         <v>0.147</v>
       </c>
+      <c r="C109" s="0" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="D109" s="0" t="n">
+        <f aca="false">B109+C109</f>
+        <v>0.17</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="15" t="s">
@@ -8566,14 +10154,28 @@
       <c r="B110" s="0" t="n">
         <v>0.143</v>
       </c>
+      <c r="C110" s="0" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="D110" s="0" t="n">
+        <f aca="false">B110+C110</f>
+        <v>0.703</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="15" t="s">
+      <c r="A111" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B111" s="0" t="n">
         <v>0.14</v>
       </c>
+      <c r="C111" s="0" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D111" s="0" t="n">
+        <f aca="false">B111+C111</f>
+        <v>0.23</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="15" t="s">
@@ -8581,6 +10183,13 @@
       </c>
       <c r="B112" s="0" t="n">
         <v>0.131</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>0.747</v>
+      </c>
+      <c r="D112" s="0" t="n">
+        <f aca="false">B112+C112</f>
+        <v>0.878</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8590,14 +10199,28 @@
       <c r="B113" s="0" t="n">
         <v>0.125</v>
       </c>
+      <c r="C113" s="0" t="n">
+        <v>0.621</v>
+      </c>
+      <c r="D113" s="0" t="n">
+        <f aca="false">B113+C113</f>
+        <v>0.746</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="15" t="s">
+      <c r="A114" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B114" s="0" t="n">
         <v>0.122</v>
       </c>
+      <c r="C114" s="0" t="n">
+        <v>0.147</v>
+      </c>
+      <c r="D114" s="0" t="n">
+        <f aca="false">B114+C114</f>
+        <v>0.269</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="15" t="s">
@@ -8605,6 +10228,13 @@
       </c>
       <c r="B115" s="0" t="n">
         <v>0.117</v>
+      </c>
+      <c r="C115" s="0" t="n">
+        <v>0.436</v>
+      </c>
+      <c r="D115" s="0" t="n">
+        <f aca="false">B115+C115</f>
+        <v>0.553</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8614,21 +10244,42 @@
       <c r="B116" s="0" t="n">
         <v>0.115</v>
       </c>
+      <c r="C116" s="0" t="n">
+        <v>0.764</v>
+      </c>
+      <c r="D116" s="0" t="n">
+        <f aca="false">B116+C116</f>
+        <v>0.879</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="15" t="s">
+      <c r="A117" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B117" s="0" t="n">
         <v>0.108</v>
       </c>
+      <c r="C117" s="0" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="D117" s="0" t="n">
+        <f aca="false">B117+C117</f>
+        <v>1.1</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="15" t="s">
+      <c r="A118" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B118" s="0" t="n">
         <v>0.108</v>
+      </c>
+      <c r="C118" s="0" t="n">
+        <v>0.341</v>
+      </c>
+      <c r="D118" s="0" t="n">
+        <f aca="false">B118+C118</f>
+        <v>0.449</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8638,6 +10289,13 @@
       <c r="B119" s="0" t="n">
         <v>0.105</v>
       </c>
+      <c r="C119" s="0" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D119" s="0" t="n">
+        <f aca="false">B119+C119</f>
+        <v>0.195</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="15" t="s">
@@ -8646,14 +10304,28 @@
       <c r="B120" s="0" t="n">
         <v>0.096</v>
       </c>
+      <c r="C120" s="0" t="n">
+        <v>0.419</v>
+      </c>
+      <c r="D120" s="0" t="n">
+        <f aca="false">B120+C120</f>
+        <v>0.515</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="15" t="s">
+      <c r="A121" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B121" s="0" t="n">
         <v>0.095</v>
       </c>
+      <c r="C121" s="0" t="n">
+        <v>0.512</v>
+      </c>
+      <c r="D121" s="0" t="n">
+        <f aca="false">B121+C121</f>
+        <v>0.607</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="15" t="s">
@@ -8662,6 +10334,13 @@
       <c r="B122" s="0" t="n">
         <v>0.094</v>
       </c>
+      <c r="C122" s="0" t="n">
+        <v>0.438</v>
+      </c>
+      <c r="D122" s="0" t="n">
+        <f aca="false">B122+C122</f>
+        <v>0.532</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="15" t="s">
@@ -8670,6 +10349,13 @@
       <c r="B123" s="0" t="n">
         <v>0.094</v>
       </c>
+      <c r="C123" s="0" t="n">
+        <v>0.206</v>
+      </c>
+      <c r="D123" s="0" t="n">
+        <f aca="false">B123+C123</f>
+        <v>0.3</v>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="15" t="s">
@@ -8678,13 +10364,27 @@
       <c r="B124" s="0" t="n">
         <v>0.093</v>
       </c>
+      <c r="C124" s="0" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D124" s="0" t="n">
+        <f aca="false">B124+C124</f>
+        <v>0.183</v>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="15" t="s">
+      <c r="A125" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B125" s="0" t="n">
         <v>0.092</v>
+      </c>
+      <c r="C125" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D125" s="0" t="n">
+        <f aca="false">B125+C125</f>
+        <v>0.892</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8694,6 +10394,13 @@
       <c r="B126" s="0" t="n">
         <v>0.086</v>
       </c>
+      <c r="C126" s="0" t="n">
+        <v>0.316</v>
+      </c>
+      <c r="D126" s="0" t="n">
+        <f aca="false">B126+C126</f>
+        <v>0.402</v>
+      </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="15" t="s">
@@ -8702,13 +10409,27 @@
       <c r="B127" s="0" t="n">
         <v>0.084</v>
       </c>
+      <c r="C127" s="0" t="n">
+        <v>0.668</v>
+      </c>
+      <c r="D127" s="0" t="n">
+        <f aca="false">B127+C127</f>
+        <v>0.752</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="15" t="s">
+      <c r="A128" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B128" s="0" t="n">
         <v>0.08</v>
+      </c>
+      <c r="C128" s="0" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="D128" s="0" t="n">
+        <f aca="false">B128+C128</f>
+        <v>0.545</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8718,6 +10439,13 @@
       <c r="B129" s="0" t="n">
         <v>0.079</v>
       </c>
+      <c r="C129" s="0" t="n">
+        <v>0.974</v>
+      </c>
+      <c r="D129" s="0" t="n">
+        <f aca="false">B129+C129</f>
+        <v>1.053</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="15" t="s">
@@ -8726,6 +10454,13 @@
       <c r="B130" s="0" t="n">
         <v>0.076</v>
       </c>
+      <c r="C130" s="0" t="n">
+        <v>0.498</v>
+      </c>
+      <c r="D130" s="0" t="n">
+        <f aca="false">B130+C130</f>
+        <v>0.574</v>
+      </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="15" t="s">
@@ -8733,6 +10468,13 @@
       </c>
       <c r="B131" s="0" t="n">
         <v>0.072</v>
+      </c>
+      <c r="C131" s="0" t="n">
+        <v>0.401</v>
+      </c>
+      <c r="D131" s="0" t="n">
+        <f aca="false">B131+C131</f>
+        <v>0.473</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8742,6 +10484,13 @@
       <c r="B132" s="0" t="n">
         <v>0.07</v>
       </c>
+      <c r="C132" s="0" t="n">
+        <v>0.568</v>
+      </c>
+      <c r="D132" s="0" t="n">
+        <f aca="false">B132+C132</f>
+        <v>0.638</v>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="15" t="s">
@@ -8750,6 +10499,13 @@
       <c r="B133" s="0" t="n">
         <v>0.068</v>
       </c>
+      <c r="C133" s="0" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="D133" s="0" t="n">
+        <f aca="false">B133+C133</f>
+        <v>0.953</v>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="15" t="s">
@@ -8758,14 +10514,28 @@
       <c r="B134" s="0" t="n">
         <v>0.067</v>
       </c>
+      <c r="C134" s="0" t="n">
+        <v>0.966</v>
+      </c>
+      <c r="D134" s="0" t="n">
+        <f aca="false">B134+C134</f>
+        <v>1.033</v>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="15" t="s">
+      <c r="A135" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B135" s="0" t="n">
         <v>0.065</v>
       </c>
+      <c r="C135" s="0" t="n">
+        <v>0.894</v>
+      </c>
+      <c r="D135" s="0" t="n">
+        <f aca="false">B135+C135</f>
+        <v>0.959</v>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="15" t="s">
@@ -8774,6 +10544,13 @@
       <c r="B136" s="0" t="n">
         <v>0.046</v>
       </c>
+      <c r="C136" s="0" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="D136" s="0" t="n">
+        <f aca="false">B136+C136</f>
+        <v>0.691</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="15" t="s">
@@ -8781,6 +10558,13 @@
       </c>
       <c r="B137" s="0" t="n">
         <v>0.046</v>
+      </c>
+      <c r="C137" s="0" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="D137" s="0" t="n">
+        <f aca="false">B137+C137</f>
+        <v>0.112</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8790,6 +10574,13 @@
       <c r="B138" s="0" t="n">
         <v>0.044</v>
       </c>
+      <c r="C138" s="0" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="D138" s="0" t="n">
+        <f aca="false">B138+C138</f>
+        <v>0.354</v>
+      </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="15" t="s">
@@ -8798,14 +10589,28 @@
       <c r="B139" s="0" t="n">
         <v>0.042</v>
       </c>
+      <c r="C139" s="0" t="n">
+        <v>0.979</v>
+      </c>
+      <c r="D139" s="0" t="n">
+        <f aca="false">B139+C139</f>
+        <v>1.021</v>
+      </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="15" t="s">
+      <c r="A140" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B140" s="0" t="n">
         <v>0.042</v>
       </c>
+      <c r="C140" s="0" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="D140" s="0" t="n">
+        <f aca="false">B140+C140</f>
+        <v>0.116</v>
+      </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="15" t="s">
@@ -8814,6 +10619,13 @@
       <c r="B141" s="0" t="n">
         <v>0.04</v>
       </c>
+      <c r="C141" s="0" t="n">
+        <v>0.859</v>
+      </c>
+      <c r="D141" s="0" t="n">
+        <f aca="false">B141+C141</f>
+        <v>0.899</v>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="15" t="s">
@@ -8822,6 +10634,13 @@
       <c r="B142" s="0" t="n">
         <v>0.038</v>
       </c>
+      <c r="C142" s="0" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="D142" s="0" t="n">
+        <f aca="false">B142+C142</f>
+        <v>0.193</v>
+      </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="15" t="s">
@@ -8830,6 +10649,13 @@
       <c r="B143" s="0" t="n">
         <v>0.036</v>
       </c>
+      <c r="C143" s="0" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="D143" s="0" t="n">
+        <f aca="false">B143+C143</f>
+        <v>0.4</v>
+      </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="15" t="s">
@@ -8837,6 +10663,13 @@
       </c>
       <c r="B144" s="0" t="n">
         <v>0.036</v>
+      </c>
+      <c r="C144" s="0" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="D144" s="0" t="n">
+        <f aca="false">B144+C144</f>
+        <v>0.191</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8846,6 +10679,13 @@
       <c r="B145" s="0" t="n">
         <v>0.033</v>
       </c>
+      <c r="C145" s="0" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="D145" s="0" t="n">
+        <f aca="false">B145+C145</f>
+        <v>0.04</v>
+      </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="15" t="s">
@@ -8853,6 +10693,13 @@
       </c>
       <c r="B146" s="0" t="n">
         <v>0.031</v>
+      </c>
+      <c r="C146" s="0" t="n">
+        <v>0.447</v>
+      </c>
+      <c r="D146" s="0" t="n">
+        <f aca="false">B146+C146</f>
+        <v>0.478</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8862,6 +10709,13 @@
       <c r="B147" s="0" t="n">
         <v>0.031</v>
       </c>
+      <c r="C147" s="0" t="n">
+        <v>0.419</v>
+      </c>
+      <c r="D147" s="0" t="n">
+        <f aca="false">B147+C147</f>
+        <v>0.45</v>
+      </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="15" t="s">
@@ -8870,6 +10724,13 @@
       <c r="B148" s="0" t="n">
         <v>0.027</v>
       </c>
+      <c r="C148" s="0" t="n">
+        <v>0.431</v>
+      </c>
+      <c r="D148" s="0" t="n">
+        <f aca="false">B148+C148</f>
+        <v>0.458</v>
+      </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="15" t="s">
@@ -8878,6 +10739,13 @@
       <c r="B149" s="0" t="n">
         <v>0.026</v>
       </c>
+      <c r="C149" s="0" t="n">
+        <v>0.854</v>
+      </c>
+      <c r="D149" s="0" t="n">
+        <f aca="false">B149+C149</f>
+        <v>0.88</v>
+      </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="15" t="s">
@@ -8886,13 +10754,27 @@
       <c r="B150" s="0" t="n">
         <v>0.023</v>
       </c>
+      <c r="C150" s="0" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="D150" s="0" t="n">
+        <f aca="false">B150+C150</f>
+        <v>0.136</v>
+      </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="15" t="s">
+      <c r="A151" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B151" s="0" t="n">
         <v>0.022</v>
+      </c>
+      <c r="C151" s="0" t="n">
+        <v>0.337</v>
+      </c>
+      <c r="D151" s="0" t="n">
+        <f aca="false">B151+C151</f>
+        <v>0.359</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8902,6 +10784,13 @@
       <c r="B152" s="0" t="n">
         <v>0.017</v>
       </c>
+      <c r="C152" s="0" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="D152" s="0" t="n">
+        <f aca="false">B152+C152</f>
+        <v>0.342</v>
+      </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="15" t="s">
@@ -8910,30 +10799,58 @@
       <c r="B153" s="0" t="n">
         <v>0.016</v>
       </c>
+      <c r="C153" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D153" s="0" t="n">
+        <f aca="false">B153+C153</f>
+        <v>0.021</v>
+      </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B154" s="0" t="n">
         <v>0.015</v>
       </c>
+      <c r="C154" s="0" t="n">
+        <v>0.367</v>
+      </c>
+      <c r="D154" s="0" t="n">
+        <f aca="false">B154+C154</f>
+        <v>0.382</v>
+      </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B155" s="0" t="n">
         <v>0.015</v>
       </c>
+      <c r="C155" s="0" t="n">
+        <v>0.359</v>
+      </c>
+      <c r="D155" s="0" t="n">
+        <f aca="false">B155+C155</f>
+        <v>0.374</v>
+      </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="15" t="s">
+      <c r="A156" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B156" s="0" t="n">
         <v>0.015</v>
       </c>
+      <c r="C156" s="0" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="D156" s="0" t="n">
+        <f aca="false">B156+C156</f>
+        <v>0.153</v>
+      </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="15" t="s">
@@ -8942,6 +10859,13 @@
       <c r="B157" s="0" t="n">
         <v>0.014</v>
       </c>
+      <c r="C157" s="0" t="n">
+        <v>0.553</v>
+      </c>
+      <c r="D157" s="0" t="n">
+        <f aca="false">B157+C157</f>
+        <v>0.567</v>
+      </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="15" t="s">
@@ -8950,6 +10874,13 @@
       <c r="B158" s="0" t="n">
         <v>0.014</v>
       </c>
+      <c r="C158" s="0" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="D158" s="0" t="n">
+        <f aca="false">B158+C158</f>
+        <v>0.347</v>
+      </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="15" t="s">
@@ -8958,6 +10889,13 @@
       <c r="B159" s="0" t="n">
         <v>0.014</v>
       </c>
+      <c r="C159" s="0" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="D159" s="0" t="n">
+        <f aca="false">B159+C159</f>
+        <v>0.049</v>
+      </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="15" t="s">
@@ -8966,6 +10904,13 @@
       <c r="B160" s="0" t="n">
         <v>0.013</v>
       </c>
+      <c r="C160" s="0" t="n">
+        <v>0.263</v>
+      </c>
+      <c r="D160" s="0" t="n">
+        <f aca="false">B160+C160</f>
+        <v>0.276</v>
+      </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="15" t="s">
@@ -8974,6 +10919,13 @@
       <c r="B161" s="0" t="n">
         <v>0.013</v>
       </c>
+      <c r="C161" s="0" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="D161" s="0" t="n">
+        <f aca="false">B161+C161</f>
+        <v>0.037</v>
+      </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="15" t="s">
@@ -8982,6 +10934,13 @@
       <c r="B162" s="0" t="n">
         <v>0.012</v>
       </c>
+      <c r="C162" s="0" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="D162" s="0" t="n">
+        <f aca="false">B162+C162</f>
+        <v>0.507</v>
+      </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="15" t="s">
@@ -8990,13 +10949,27 @@
       <c r="B163" s="0" t="n">
         <v>0.011</v>
       </c>
+      <c r="C163" s="0" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="D163" s="0" t="n">
+        <f aca="false">B163+C163</f>
+        <v>0.871</v>
+      </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="15" t="s">
+      <c r="A164" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B164" s="0" t="n">
         <v>0.011</v>
+      </c>
+      <c r="C164" s="0" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="D164" s="0" t="n">
+        <f aca="false">B164+C164</f>
+        <v>0.401</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9006,6 +10979,13 @@
       <c r="B165" s="0" t="n">
         <v>0.01</v>
       </c>
+      <c r="C165" s="0" t="n">
+        <v>0.208</v>
+      </c>
+      <c r="D165" s="0" t="n">
+        <f aca="false">B165+C165</f>
+        <v>0.218</v>
+      </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="15" t="s">
@@ -9014,6 +10994,13 @@
       <c r="B166" s="0" t="n">
         <v>0.009</v>
       </c>
+      <c r="C166" s="0" t="n">
+        <v>0.436</v>
+      </c>
+      <c r="D166" s="0" t="n">
+        <f aca="false">B166+C166</f>
+        <v>0.445</v>
+      </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="15" t="s">
@@ -9022,6 +11009,13 @@
       <c r="B167" s="0" t="n">
         <v>0.009</v>
       </c>
+      <c r="C167" s="0" t="n">
+        <v>0.217</v>
+      </c>
+      <c r="D167" s="0" t="n">
+        <f aca="false">B167+C167</f>
+        <v>0.226</v>
+      </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="15" t="s">
@@ -9030,6 +11024,13 @@
       <c r="B168" s="0" t="n">
         <v>0.008</v>
       </c>
+      <c r="C168" s="0" t="n">
+        <v>0.326</v>
+      </c>
+      <c r="D168" s="0" t="n">
+        <f aca="false">B168+C168</f>
+        <v>0.334</v>
+      </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="15" t="s">
@@ -9037,6 +11038,13 @@
       </c>
       <c r="B169" s="0" t="n">
         <v>0.007</v>
+      </c>
+      <c r="C169" s="0" t="n">
+        <v>0.258</v>
+      </c>
+      <c r="D169" s="0" t="n">
+        <f aca="false">B169+C169</f>
+        <v>0.265</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9046,21 +11054,42 @@
       <c r="B170" s="0" t="n">
         <v>0.006</v>
       </c>
+      <c r="C170" s="0" t="n">
+        <v>0.366</v>
+      </c>
+      <c r="D170" s="0" t="n">
+        <f aca="false">B170+C170</f>
+        <v>0.372</v>
+      </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="15" t="s">
+      <c r="A171" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B171" s="0" t="n">
         <v>0.005</v>
       </c>
+      <c r="C171" s="0" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="D171" s="0" t="n">
+        <f aca="false">B171+C171</f>
+        <v>0.056</v>
+      </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B172" s="0" t="n">
         <v>0.004</v>
+      </c>
+      <c r="C172" s="0" t="n">
+        <v>0.903</v>
+      </c>
+      <c r="D172" s="0" t="n">
+        <f aca="false">B172+C172</f>
+        <v>0.907</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9070,6 +11099,13 @@
       <c r="B173" s="0" t="n">
         <v>0.004</v>
       </c>
+      <c r="C173" s="0" t="n">
+        <v>0.866</v>
+      </c>
+      <c r="D173" s="0" t="n">
+        <f aca="false">B173+C173</f>
+        <v>0.87</v>
+      </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="15" t="s">
@@ -9078,13 +11114,27 @@
       <c r="B174" s="0" t="n">
         <v>0.004</v>
       </c>
+      <c r="C174" s="0" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="D174" s="0" t="n">
+        <f aca="false">B174+C174</f>
+        <v>0.156</v>
+      </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B175" s="0" t="n">
         <v>0.004</v>
+      </c>
+      <c r="C175" s="0" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="D175" s="0" t="n">
+        <f aca="false">B175+C175</f>
+        <v>0.04</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9094,6 +11144,13 @@
       <c r="B176" s="0" t="n">
         <v>0.003</v>
       </c>
+      <c r="C176" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D176" s="0" t="n">
+        <f aca="false">B176+C176</f>
+        <v>0.993</v>
+      </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="15" t="s">
@@ -9102,14 +11159,28 @@
       <c r="B177" s="0" t="n">
         <v>0.003</v>
       </c>
+      <c r="C177" s="0" t="n">
+        <v>0.523</v>
+      </c>
+      <c r="D177" s="0" t="n">
+        <f aca="false">B177+C177</f>
+        <v>0.526</v>
+      </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="15" t="s">
+      <c r="A178" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B178" s="0" t="n">
         <v>0.003</v>
       </c>
+      <c r="C178" s="0" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="D178" s="0" t="n">
+        <f aca="false">B178+C178</f>
+        <v>0.482</v>
+      </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="15" t="s">
@@ -9118,14 +11189,28 @@
       <c r="B179" s="0" t="n">
         <v>0.003</v>
       </c>
+      <c r="C179" s="0" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="D179" s="0" t="n">
+        <f aca="false">B179+C179</f>
+        <v>0.146</v>
+      </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="15" t="s">
+      <c r="A180" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B180" s="0" t="n">
         <v>0.003</v>
       </c>
+      <c r="C180" s="0" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="D180" s="0" t="n">
+        <f aca="false">B180+C180</f>
+        <v>0.057</v>
+      </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="15" t="s">
@@ -9134,46 +11219,88 @@
       <c r="B181" s="0" t="n">
         <v>0.002</v>
       </c>
+      <c r="C181" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D181" s="0" t="n">
+        <f aca="false">B181+C181</f>
+        <v>0.902</v>
+      </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B182" s="0" t="n">
         <v>0.002</v>
       </c>
+      <c r="C182" s="0" t="n">
+        <v>0.772</v>
+      </c>
+      <c r="D182" s="0" t="n">
+        <f aca="false">B182+C182</f>
+        <v>0.774</v>
+      </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B183" s="0" t="n">
         <v>0.002</v>
       </c>
+      <c r="C183" s="0" t="n">
+        <v>0.476</v>
+      </c>
+      <c r="D183" s="0" t="n">
+        <f aca="false">B183+C183</f>
+        <v>0.478</v>
+      </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B184" s="0" t="n">
         <v>0.002</v>
       </c>
+      <c r="C184" s="0" t="n">
+        <v>0.451</v>
+      </c>
+      <c r="D184" s="0" t="n">
+        <f aca="false">B184+C184</f>
+        <v>0.453</v>
+      </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B185" s="0" t="n">
         <v>0.002</v>
       </c>
+      <c r="C185" s="0" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="D185" s="0" t="n">
+        <f aca="false">B185+C185</f>
+        <v>0.345</v>
+      </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B186" s="0" t="n">
         <v>0.002</v>
       </c>
+      <c r="C186" s="0" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="D186" s="0" t="n">
+        <f aca="false">B186+C186</f>
+        <v>0.297</v>
+      </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="15" t="s">
@@ -9182,14 +11309,28 @@
       <c r="B187" s="0" t="n">
         <v>0.002</v>
       </c>
+      <c r="C187" s="0" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D187" s="0" t="n">
+        <f aca="false">B187+C187</f>
+        <v>0.005</v>
+      </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B188" s="0" t="n">
         <v>0.001</v>
       </c>
+      <c r="C188" s="0" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="D188" s="0" t="n">
+        <f aca="false">B188+C188</f>
+        <v>0.992</v>
+      </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="15" t="s">
@@ -9198,6 +11339,13 @@
       <c r="B189" s="0" t="n">
         <v>0.001</v>
       </c>
+      <c r="C189" s="0" t="n">
+        <v>0.868</v>
+      </c>
+      <c r="D189" s="0" t="n">
+        <f aca="false">B189+C189</f>
+        <v>0.869</v>
+      </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="15" t="s">
@@ -9205,6 +11353,13 @@
       </c>
       <c r="B190" s="0" t="n">
         <v>0.001</v>
+      </c>
+      <c r="C190" s="0" t="n">
+        <v>0.841</v>
+      </c>
+      <c r="D190" s="0" t="n">
+        <f aca="false">B190+C190</f>
+        <v>0.842</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9214,37 +11369,72 @@
       <c r="B191" s="0" t="n">
         <v>0.001</v>
       </c>
+      <c r="C191" s="0" t="n">
+        <v>0.792</v>
+      </c>
+      <c r="D191" s="0" t="n">
+        <f aca="false">B191+C191</f>
+        <v>0.793</v>
+      </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B192" s="0" t="n">
         <v>0.001</v>
       </c>
+      <c r="C192" s="0" t="n">
+        <v>0.518</v>
+      </c>
+      <c r="D192" s="0" t="n">
+        <f aca="false">B192+C192</f>
+        <v>0.519</v>
+      </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B193" s="0" t="n">
         <v>0.001</v>
       </c>
+      <c r="C193" s="0" t="n">
+        <v>0.514</v>
+      </c>
+      <c r="D193" s="0" t="n">
+        <f aca="false">B193+C193</f>
+        <v>0.515</v>
+      </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B194" s="0" t="n">
         <v>0.001</v>
       </c>
+      <c r="C194" s="0" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D194" s="0" t="n">
+        <f aca="false">B194+C194</f>
+        <v>0.491</v>
+      </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="15" t="s">
-        <v>6</v>
+      <c r="A195" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="B195" s="0" t="n">
         <v>0.001</v>
+      </c>
+      <c r="C195" s="0" t="n">
+        <v>0.469</v>
+      </c>
+      <c r="D195" s="0" t="n">
+        <f aca="false">B195+C195</f>
+        <v>0.47</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9254,30 +11444,58 @@
       <c r="B196" s="0" t="n">
         <v>0.001</v>
       </c>
+      <c r="C196" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D196" s="0" t="n">
+        <f aca="false">B196+C196</f>
+        <v>0.401</v>
+      </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="15" t="s">
-        <v>7</v>
+      <c r="A197" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="B197" s="0" t="n">
         <v>0.001</v>
       </c>
+      <c r="C197" s="0" t="n">
+        <v>0.387</v>
+      </c>
+      <c r="D197" s="0" t="n">
+        <f aca="false">B197+C197</f>
+        <v>0.388</v>
+      </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B198" s="0" t="n">
         <v>0.001</v>
       </c>
+      <c r="C198" s="0" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="D198" s="0" t="n">
+        <f aca="false">B198+C198</f>
+        <v>0.344</v>
+      </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="15" t="s">
-        <v>7</v>
+      <c r="A199" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="B199" s="0" t="n">
         <v>0.001</v>
       </c>
+      <c r="C199" s="0" t="n">
+        <v>0.221</v>
+      </c>
+      <c r="D199" s="0" t="n">
+        <f aca="false">B199+C199</f>
+        <v>0.222</v>
+      </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="15" t="s">
@@ -9286,29 +11504,57 @@
       <c r="B200" s="0" t="n">
         <v>0.001</v>
       </c>
+      <c r="C200" s="0" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="D200" s="0" t="n">
+        <f aca="false">B200+C200</f>
+        <v>0.203</v>
+      </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B201" s="0" t="n">
         <v>0.001</v>
       </c>
+      <c r="C201" s="0" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="D201" s="0" t="n">
+        <f aca="false">B201+C201</f>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="15" t="s">
-        <v>7</v>
+      <c r="A202" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="B202" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C202" s="0" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="D202" s="0" t="n">
+        <f aca="false">B202+C202</f>
+        <v>0.992</v>
+      </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="15" t="s">
+      <c r="A203" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B203" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="C203" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D203" s="0" t="n">
+        <f aca="false">B203+C203</f>
+        <v>0.99</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9318,6 +11564,13 @@
       <c r="B204" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C204" s="0" t="n">
+        <v>0.889</v>
+      </c>
+      <c r="D204" s="0" t="n">
+        <f aca="false">B204+C204</f>
+        <v>0.889</v>
+      </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="15" t="s">
@@ -9326,29 +11579,57 @@
       <c r="B205" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C205" s="0" t="n">
+        <v>0.887</v>
+      </c>
+      <c r="D205" s="0" t="n">
+        <f aca="false">B205+C205</f>
+        <v>0.887</v>
+      </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B206" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C206" s="0" t="n">
+        <v>0.808</v>
+      </c>
+      <c r="D206" s="0" t="n">
+        <f aca="false">B206+C206</f>
+        <v>0.808</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B206" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="15" t="s">
-        <v>9</v>
-      </c>
       <c r="B207" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="C207" s="0" t="n">
+        <v>0.743</v>
+      </c>
+      <c r="D207" s="0" t="n">
+        <f aca="false">B207+C207</f>
+        <v>0.743</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B208" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="C208" s="0" t="n">
+        <v>0.686</v>
+      </c>
+      <c r="D208" s="0" t="n">
+        <f aca="false">B208+C208</f>
+        <v>0.686</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9358,29 +11639,57 @@
       <c r="B209" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C209" s="0" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="D209" s="0" t="n">
+        <f aca="false">B209+C209</f>
+        <v>0.576</v>
+      </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B210" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="C210" s="0" t="n">
+        <v>0.518</v>
+      </c>
+      <c r="D210" s="0" t="n">
+        <f aca="false">B210+C210</f>
+        <v>0.518</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B211" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C211" s="0" t="n">
+        <v>0.512</v>
+      </c>
+      <c r="D211" s="0" t="n">
+        <f aca="false">B211+C211</f>
+        <v>0.512</v>
+      </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="15" t="s">
+      <c r="A212" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B212" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="C212" s="0" t="n">
+        <v>0.378</v>
+      </c>
+      <c r="D212" s="0" t="n">
+        <f aca="false">B212+C212</f>
+        <v>0.378</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9390,6 +11699,13 @@
       <c r="B213" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C213" s="0" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="D213" s="0" t="n">
+        <f aca="false">B213+C213</f>
+        <v>0.377</v>
+      </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="15" t="s">
@@ -9398,13 +11714,27 @@
       <c r="B214" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C214" s="0" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="D214" s="0" t="n">
+        <f aca="false">B214+C214</f>
+        <v>0.352</v>
+      </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B215" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="C215" s="0" t="n">
+        <v>0.337</v>
+      </c>
+      <c r="D215" s="0" t="n">
+        <f aca="false">B215+C215</f>
+        <v>0.337</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9414,29 +11744,57 @@
       <c r="B216" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C216" s="0" t="n">
+        <v>0.326</v>
+      </c>
+      <c r="D216" s="0" t="n">
+        <f aca="false">B216+C216</f>
+        <v>0.326</v>
+      </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B217" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="C217" s="0" t="n">
+        <v>0.324</v>
+      </c>
+      <c r="D217" s="0" t="n">
+        <f aca="false">B217+C217</f>
+        <v>0.324</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B218" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="C218" s="0" t="n">
+        <v>0.296</v>
+      </c>
+      <c r="D218" s="0" t="n">
+        <f aca="false">B218+C218</f>
+        <v>0.296</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B219" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="C219" s="0" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="D219" s="0" t="n">
+        <f aca="false">B219+C219</f>
+        <v>0.285</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9446,37 +11804,72 @@
       <c r="B220" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C220" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="D220" s="0" t="n">
+        <f aca="false">B220+C220</f>
+        <v>0.28</v>
+      </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B221" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="C221" s="0" t="n">
+        <v>0.258</v>
+      </c>
+      <c r="D221" s="0" t="n">
+        <f aca="false">B221+C221</f>
+        <v>0.258</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B222" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C222" s="0" t="n">
+        <v>0.249</v>
+      </c>
+      <c r="D222" s="0" t="n">
+        <f aca="false">B222+C222</f>
+        <v>0.249</v>
+      </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="15" t="s">
+      <c r="A223" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B223" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="C223" s="0" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="D223" s="0" t="n">
+        <f aca="false">B223+C223</f>
+        <v>0.234</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B224" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="C224" s="0" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="D224" s="0" t="n">
+        <f aca="false">B224+C224</f>
+        <v>0.23</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9486,21 +11879,42 @@
       <c r="B225" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C225" s="0" t="n">
+        <v>0.218</v>
+      </c>
+      <c r="D225" s="0" t="n">
+        <f aca="false">B225+C225</f>
+        <v>0.218</v>
+      </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="15" t="s">
+      <c r="A226" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B226" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C226" s="0" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="D226" s="0" t="n">
+        <f aca="false">B226+C226</f>
+        <v>0.202</v>
+      </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="15" t="s">
+      <c r="A227" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B227" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="C227" s="0" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="D227" s="0" t="n">
+        <f aca="false">B227+C227</f>
+        <v>0.184</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9510,37 +11924,72 @@
       <c r="B228" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C228" s="0" t="n">
+        <v>0.183</v>
+      </c>
+      <c r="D228" s="0" t="n">
+        <f aca="false">B228+C228</f>
+        <v>0.183</v>
+      </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B229" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="C229" s="0" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="D229" s="0" t="n">
+        <f aca="false">B229+C229</f>
+        <v>0.182</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B230" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="C230" s="0" t="n">
+        <v>0.181</v>
+      </c>
+      <c r="D230" s="0" t="n">
+        <f aca="false">B230+C230</f>
+        <v>0.181</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B231" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="C231" s="0" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="D231" s="0" t="n">
+        <f aca="false">B231+C231</f>
+        <v>0.16</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B232" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="C232" s="0" t="n">
+        <v>0.127</v>
+      </c>
+      <c r="D232" s="0" t="n">
+        <f aca="false">B232+C232</f>
+        <v>0.127</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9550,6 +11999,13 @@
       <c r="B233" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C233" s="0" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="D233" s="0" t="n">
+        <f aca="false">B233+C233</f>
+        <v>0.048</v>
+      </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="15" t="s">
@@ -9558,6 +12014,13 @@
       <c r="B234" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C234" s="0" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="D234" s="0" t="n">
+        <f aca="false">B234+C234</f>
+        <v>0.014</v>
+      </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="15" t="s">
@@ -9566,12 +12029,26 @@
       <c r="B235" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C235" s="0" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="D235" s="0" t="n">
+        <f aca="false">B235+C235</f>
+        <v>0.002</v>
+      </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B236" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C236" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D236" s="0" t="n">
+        <f aca="false">B236+C236</f>
         <v>0</v>
       </c>
     </row>
@@ -9582,20 +12059,41 @@
       <c r="B237" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C237" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D237" s="0" t="n">
+        <f aca="false">B237+C237</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B238" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C238" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D238" s="0" t="n">
+        <f aca="false">B238+C238</f>
         <v>0</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B239" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C239" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D239" s="0" t="n">
+        <f aca="false">B239+C239</f>
         <v>0</v>
       </c>
     </row>
@@ -9606,6 +12104,13 @@
       <c r="B240" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C240" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D240" s="0" t="n">
+        <f aca="false">B240+C240</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="15" t="s">
@@ -9614,6 +12119,13 @@
       <c r="B241" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C241" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D241" s="0" t="n">
+        <f aca="false">B241+C241</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="15" t="s">
@@ -9622,6 +12134,13 @@
       <c r="B242" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C242" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D242" s="0" t="n">
+        <f aca="false">B242+C242</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="15" t="s">
@@ -9630,6 +12149,13 @@
       <c r="B243" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C243" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D243" s="0" t="n">
+        <f aca="false">B243+C243</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="15" t="s">
@@ -9638,12 +12164,26 @@
       <c r="B244" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C244" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D244" s="0" t="n">
+        <f aca="false">B244+C244</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B245" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C245" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D245" s="0" t="n">
+        <f aca="false">B245+C245</f>
         <v>0</v>
       </c>
     </row>
@@ -9654,6 +12194,13 @@
       <c r="B246" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C246" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D246" s="0" t="n">
+        <f aca="false">B246+C246</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="15" t="s">
@@ -9662,6 +12209,13 @@
       <c r="B247" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C247" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D247" s="0" t="n">
+        <f aca="false">B247+C247</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="15" t="s">
@@ -9670,6 +12224,13 @@
       <c r="B248" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C248" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D248" s="0" t="n">
+        <f aca="false">B248+C248</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="15" t="s">
@@ -9678,6 +12239,13 @@
       <c r="B249" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C249" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D249" s="0" t="n">
+        <f aca="false">B249+C249</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="15" t="s">
@@ -9686,6 +12254,13 @@
       <c r="B250" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C250" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D250" s="0" t="n">
+        <f aca="false">B250+C250</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="15" t="s">
@@ -9694,36 +12269,71 @@
       <c r="B251" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C251" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D251" s="0" t="n">
+        <f aca="false">B251+C251</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="15" t="s">
-        <v>9</v>
+      <c r="A252" s="13" t="s">
+        <v>6</v>
       </c>
       <c r="B252" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C252" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D252" s="0" t="n">
+        <f aca="false">B252+C252</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="15" t="s">
+      <c r="A253" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B253" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C253" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D253" s="0" t="n">
+        <f aca="false">B253+C253</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="15" t="s">
-        <v>7</v>
+      <c r="A254" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="B254" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C254" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D254" s="0" t="n">
+        <f aca="false">B254+C254</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="15" t="s">
+      <c r="A255" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B255" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C255" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D255" s="0" t="n">
+        <f aca="false">B255+C255</f>
         <v>0</v>
       </c>
     </row>
